--- a/src/test/resources/testCases/testCases.xlsx
+++ b/src/test/resources/testCases/testCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\802072\eclipse-workspace1\memberPortalAutomation\src\test\resources\testCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404C5124-3A31-4E6E-8ABD-14A6262B746D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B16A78F-6ABF-4DD1-A740-9349DF08FC48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="393">
   <si>
     <t>Welcome1!</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>ObjectType</t>
-  </si>
-  <si>
     <t>Action</t>
   </si>
   <si>
@@ -60,9 +57,6 @@
     <t>Locator Value</t>
   </si>
   <si>
-    <t>TestData</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
@@ -984,9 +978,6 @@
     <t>Click My Medical Supplies And Equipment Sub-menu</t>
   </si>
   <si>
-    <t>loginCred Sheet</t>
-  </si>
-  <si>
     <t>(//a[@data-type='comm__namedPage'][normalize-space()='Rewards'])[2]</t>
   </si>
   <si>
@@ -1210,6 +1201,21 @@
   </si>
   <si>
     <t>Element Not Present</t>
+  </si>
+  <si>
+    <t>Refer loginCred Sheet</t>
+  </si>
+  <si>
+    <t>Skipped</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>Test Step ID</t>
   </si>
 </sst>
 </file>
@@ -1289,7 +1295,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1545,12 +1551,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1591,36 +1610,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1635,9 +1624,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1645,18 +1631,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1664,9 +1644,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1675,25 +1652,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1708,38 +1670,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1753,9 +1688,98 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2037,10 +2061,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8EDD40F-2BD8-4E62-917E-AC253D884951}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2053,172 +2077,186 @@
     <col min="6" max="6" width="26.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="G1" s="9" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="B2" s="18" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>52</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="B3" s="18" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>57</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="B4" s="18" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>62</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="B5" s="18" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>67</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="B6" s="19" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>72</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>74</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>76</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="F7" s="18" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="19" t="s">
-        <v>80</v>
-      </c>
       <c r="B8" s="19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>0</v>
       </c>
       <c r="D8" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>81</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2235,13 +2273,13 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="D1" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.08984375" bestFit="1" customWidth="1"/>
@@ -2253,80 +2291,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="79" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="79" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="79" t="s">
+      <c r="A1" s="62" t="s">
+        <v>392</v>
+      </c>
+      <c r="B1" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="79" t="s">
+      <c r="D1" s="62" t="s">
+        <v>385</v>
+      </c>
+      <c r="E1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="79" t="s">
+      <c r="F1" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="79" t="s">
+      <c r="G1" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="79" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="81" t="s">
-        <v>387</v>
-      </c>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="83"/>
+      <c r="H1" s="64" t="s">
+        <v>384</v>
+      </c>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="66"/>
     </row>
     <row r="2" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="79"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="86" t="s">
+      <c r="A2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="58" t="s">
+        <v>376</v>
+      </c>
+      <c r="I2" s="58" t="s">
+        <v>377</v>
+      </c>
+      <c r="J2" s="58" t="s">
+        <v>378</v>
+      </c>
+      <c r="K2" s="58" t="s">
+        <v>354</v>
+      </c>
+      <c r="L2" s="58" t="s">
         <v>379</v>
-      </c>
-      <c r="I2" s="86" t="s">
-        <v>380</v>
-      </c>
-      <c r="J2" s="86" t="s">
-        <v>381</v>
-      </c>
-      <c r="K2" s="86" t="s">
-        <v>357</v>
-      </c>
-      <c r="L2" s="86" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>125</v>
+        <v>181</v>
+      </c>
+      <c r="B3" s="79" t="s">
+        <v>123</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
@@ -2336,23 +2374,23 @@
     </row>
     <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="B4" s="27"/>
+        <v>182</v>
+      </c>
+      <c r="B4" s="86"/>
       <c r="C4" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
@@ -2362,23 +2400,23 @@
     </row>
     <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="B5" s="27"/>
+        <v>183</v>
+      </c>
+      <c r="B5" s="86"/>
       <c r="C5" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
@@ -2388,23 +2426,23 @@
     </row>
     <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="B6" s="27"/>
+        <v>184</v>
+      </c>
+      <c r="B6" s="86"/>
       <c r="C6" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H6" s="20"/>
       <c r="I6" s="18"/>
@@ -2414,23 +2452,23 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="B7" s="23"/>
+        <v>185</v>
+      </c>
+      <c r="B7" s="90"/>
       <c r="C7" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H7" s="20"/>
       <c r="I7" s="18"/>
@@ -2441,26 +2479,26 @@
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="18"/>
       <c r="B9" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="21"/>
       <c r="B10" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="B3:B7"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2472,8 +2510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D806FD1-53B9-4B3D-872F-454A529C7C04}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2495,158 +2533,158 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>7</v>
+        <v>391</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>18</v>
-      </c>
       <c r="G3" s="11" t="s">
-        <v>315</v>
+        <v>388</v>
       </c>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>315</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>315</v>
+        <v>388</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2661,13 +2699,13 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:B17"/>
+      <selection activeCell="D1" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.6328125" customWidth="1"/>
     <col min="4" max="4" width="11.08984375" customWidth="1"/>
     <col min="5" max="5" width="6.08984375" bestFit="1" customWidth="1"/>
@@ -2680,80 +2718,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="79" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="79" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="79" t="s">
+      <c r="A1" s="62" t="s">
+        <v>392</v>
+      </c>
+      <c r="B1" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="79" t="s">
+      <c r="D1" s="62" t="s">
+        <v>385</v>
+      </c>
+      <c r="E1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="79" t="s">
+      <c r="F1" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="79" t="s">
+      <c r="G1" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="79" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="81" t="s">
-        <v>387</v>
-      </c>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="83"/>
+      <c r="H1" s="64" t="s">
+        <v>384</v>
+      </c>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="66"/>
     </row>
     <row r="2" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="79"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="86" t="s">
+      <c r="A2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="58" t="s">
+        <v>376</v>
+      </c>
+      <c r="I2" s="58" t="s">
+        <v>377</v>
+      </c>
+      <c r="J2" s="58" t="s">
+        <v>378</v>
+      </c>
+      <c r="K2" s="58" t="s">
+        <v>354</v>
+      </c>
+      <c r="L2" s="58" t="s">
         <v>379</v>
-      </c>
-      <c r="I2" s="86" t="s">
-        <v>380</v>
-      </c>
-      <c r="J2" s="86" t="s">
-        <v>381</v>
-      </c>
-      <c r="K2" s="86" t="s">
-        <v>357</v>
-      </c>
-      <c r="L2" s="86" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>39</v>
+        <v>315</v>
+      </c>
+      <c r="B3" s="63" t="s">
+        <v>37</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
@@ -2763,23 +2801,23 @@
     </row>
     <row r="4" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="B4" s="22"/>
+        <v>316</v>
+      </c>
+      <c r="B4" s="63"/>
       <c r="C4" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
@@ -2789,23 +2827,23 @@
     </row>
     <row r="5" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="B5" s="22"/>
+        <v>317</v>
+      </c>
+      <c r="B5" s="63"/>
       <c r="C5" s="14" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
@@ -2815,23 +2853,23 @@
     </row>
     <row r="6" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="B6" s="22"/>
+        <v>318</v>
+      </c>
+      <c r="B6" s="63"/>
       <c r="C6" s="14" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="H6" s="18"/>
       <c r="I6" s="18"/>
@@ -2841,23 +2879,23 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="B7" s="22"/>
+        <v>319</v>
+      </c>
+      <c r="B7" s="63"/>
       <c r="C7" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="H7" s="18"/>
       <c r="I7" s="18"/>
@@ -2867,23 +2905,23 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="B8" s="22"/>
+        <v>320</v>
+      </c>
+      <c r="B8" s="63"/>
       <c r="C8" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
@@ -2893,23 +2931,23 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="B9" s="22"/>
+        <v>321</v>
+      </c>
+      <c r="B9" s="63"/>
       <c r="C9" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
@@ -2919,23 +2957,23 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="B10" s="22"/>
+        <v>322</v>
+      </c>
+      <c r="B10" s="63"/>
       <c r="C10" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
@@ -2945,23 +2983,23 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="B11" s="22"/>
+        <v>323</v>
+      </c>
+      <c r="B11" s="63"/>
       <c r="C11" s="12" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="H11" s="20"/>
       <c r="I11" s="18"/>
@@ -2971,23 +3009,23 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="B12" s="22"/>
+        <v>324</v>
+      </c>
+      <c r="B12" s="63"/>
       <c r="C12" s="12" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="H12" s="20"/>
       <c r="I12" s="18"/>
@@ -2997,23 +3035,23 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="B13" s="22"/>
+        <v>325</v>
+      </c>
+      <c r="B13" s="63"/>
       <c r="C13" s="12" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H13" s="20"/>
       <c r="I13" s="18"/>
@@ -3023,23 +3061,23 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="B14" s="22"/>
+        <v>349</v>
+      </c>
+      <c r="B14" s="63"/>
       <c r="C14" s="12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H14" s="21"/>
       <c r="I14" s="18"/>
@@ -3050,13 +3088,13 @@
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="18"/>
       <c r="B16" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="21"/>
       <c r="B17" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>
@@ -3079,11 +3117,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03008E14-5944-437F-A0EC-0A92D058C67D}">
-  <dimension ref="A1:L47"/>
+  <dimension ref="A1:L290"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B46" sqref="B46:B47"/>
+      <selection pane="topRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3102,1195 +3140,1924 @@
     <col min="12" max="12" width="5.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="84" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="79" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="79" t="s">
+    <row r="1" spans="1:12" s="57" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="62" t="s">
+        <v>392</v>
+      </c>
+      <c r="B1" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="62" t="s">
+        <v>385</v>
+      </c>
+      <c r="E1" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="64" t="s">
+        <v>384</v>
+      </c>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="66"/>
+    </row>
+    <row r="2" spans="1:12" s="57" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="58" t="s">
+        <v>376</v>
+      </c>
+      <c r="I2" s="58" t="s">
+        <v>377</v>
+      </c>
+      <c r="J2" s="58" t="s">
+        <v>378</v>
+      </c>
+      <c r="K2" s="58" t="s">
+        <v>354</v>
+      </c>
+      <c r="L2" s="58" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="79" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="79" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="79" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="79" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="81" t="s">
-        <v>387</v>
-      </c>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="83"/>
-    </row>
-    <row r="2" spans="1:12" s="84" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="79"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="86" t="s">
-        <v>379</v>
-      </c>
-      <c r="I2" s="86" t="s">
-        <v>380</v>
-      </c>
-      <c r="J2" s="86" t="s">
-        <v>381</v>
-      </c>
-      <c r="K2" s="86" t="s">
-        <v>357</v>
-      </c>
-      <c r="L2" s="86" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="41"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="30"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="B4" s="25"/>
+      <c r="A4" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" s="68"/>
       <c r="C4" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
       <c r="K4" s="18"/>
-      <c r="L4" s="43"/>
+      <c r="L4" s="32"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="B5" s="25"/>
+      <c r="A5" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" s="68"/>
       <c r="C5" s="11" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H5" s="18"/>
       <c r="I5" s="19"/>
       <c r="J5" s="19"/>
       <c r="K5" s="19"/>
-      <c r="L5" s="44"/>
+      <c r="L5" s="33"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="B6" s="25"/>
+      <c r="A6" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="68"/>
       <c r="C6" s="11" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H6" s="18"/>
       <c r="I6" s="19"/>
       <c r="J6" s="19"/>
       <c r="K6" s="19"/>
-      <c r="L6" s="44"/>
+      <c r="L6" s="33"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="42" t="s">
-        <v>140</v>
-      </c>
-      <c r="B7" s="25"/>
+      <c r="A7" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="68"/>
       <c r="C7" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H7" s="18"/>
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
       <c r="K7" s="18"/>
-      <c r="L7" s="43"/>
+      <c r="L7" s="32"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="B8" s="25"/>
+      <c r="A8" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="B8" s="68"/>
       <c r="C8" s="11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
-      <c r="L8" s="43"/>
+      <c r="L8" s="32"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="42" t="s">
-        <v>142</v>
-      </c>
-      <c r="B9" s="25"/>
+      <c r="A9" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9" s="68"/>
       <c r="C9" s="11" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
       <c r="K9" s="19"/>
-      <c r="L9" s="43"/>
+      <c r="L9" s="32"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="42" t="s">
-        <v>247</v>
-      </c>
-      <c r="B10" s="25"/>
+      <c r="A10" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="B10" s="68"/>
       <c r="C10" s="11" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H10" s="21"/>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
       <c r="K10" s="19"/>
-      <c r="L10" s="43"/>
+      <c r="L10" s="32"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="42" t="s">
-        <v>248</v>
-      </c>
-      <c r="B11" s="25"/>
+      <c r="A11" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="B11" s="68"/>
       <c r="C11" s="11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H11" s="21"/>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
       <c r="K11" s="19"/>
-      <c r="L11" s="43"/>
+      <c r="L11" s="32"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="42" t="s">
-        <v>249</v>
-      </c>
-      <c r="B12" s="25"/>
+      <c r="A12" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="B12" s="68"/>
       <c r="C12" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H12" s="21"/>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
       <c r="K12" s="19"/>
-      <c r="L12" s="43"/>
+      <c r="L12" s="32"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="42" t="s">
-        <v>250</v>
-      </c>
-      <c r="B13" s="25"/>
+      <c r="A13" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="B13" s="68"/>
       <c r="C13" s="11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H13" s="21"/>
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
       <c r="K13" s="19"/>
-      <c r="L13" s="43"/>
+      <c r="L13" s="32"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="42" t="s">
-        <v>251</v>
-      </c>
-      <c r="B14" s="25"/>
+      <c r="A14" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="B14" s="68"/>
       <c r="C14" s="11" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H14" s="21"/>
       <c r="I14" s="20"/>
       <c r="J14" s="21"/>
       <c r="K14" s="19"/>
-      <c r="L14" s="44"/>
+      <c r="L14" s="33"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" s="42" t="s">
-        <v>252</v>
-      </c>
-      <c r="B15" s="25"/>
+      <c r="A15" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="B15" s="68"/>
       <c r="C15" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H15" s="21"/>
       <c r="I15" s="20"/>
       <c r="J15" s="20"/>
       <c r="K15" s="19"/>
-      <c r="L15" s="43"/>
+      <c r="L15" s="32"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" s="42" t="s">
-        <v>253</v>
-      </c>
-      <c r="B16" s="25"/>
+      <c r="A16" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="B16" s="68"/>
       <c r="C16" s="11" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H16" s="21"/>
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
       <c r="K16" s="18"/>
-      <c r="L16" s="43"/>
+      <c r="L16" s="32"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17" s="42" t="s">
-        <v>254</v>
-      </c>
-      <c r="B17" s="25"/>
+      <c r="A17" s="31" t="s">
+        <v>252</v>
+      </c>
+      <c r="B17" s="68"/>
       <c r="C17" s="11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H17" s="21"/>
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
       <c r="K17" s="19"/>
-      <c r="L17" s="43"/>
+      <c r="L17" s="32"/>
     </row>
     <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="45" t="s">
-        <v>354</v>
-      </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="47" t="s">
-        <v>356</v>
+      <c r="A18" s="34" t="s">
+        <v>351</v>
+      </c>
+      <c r="B18" s="69"/>
+      <c r="C18" s="35" t="s">
+        <v>353</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E18" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="47" t="s">
-        <v>17</v>
+        <v>87</v>
+      </c>
+      <c r="E18" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="35" t="s">
+        <v>15</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="50"/>
+        <v>352</v>
+      </c>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="38"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A19" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="B19" s="51" t="s">
+      <c r="A19" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="B19" s="70" t="s">
+        <v>188</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="39"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="30"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A20" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="B20" s="71"/>
+      <c r="C20" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="C19" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19" s="52"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="41"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A20" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="H20" s="21"/>
       <c r="I20" s="20"/>
       <c r="J20" s="20"/>
       <c r="K20" s="19"/>
-      <c r="L20" s="43"/>
+      <c r="L20" s="32"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A21" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="B21" s="30"/>
+      <c r="A21" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="B21" s="71"/>
       <c r="C21" s="11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H21" s="21"/>
       <c r="I21" s="20"/>
       <c r="J21" s="20"/>
       <c r="K21" s="19"/>
-      <c r="L21" s="43"/>
+      <c r="L21" s="32"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A22" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="B22" s="30"/>
+      <c r="A22" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="B22" s="71"/>
       <c r="C22" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H22" s="21"/>
       <c r="I22" s="20"/>
       <c r="J22" s="20"/>
       <c r="K22" s="19"/>
-      <c r="L22" s="43"/>
+      <c r="L22" s="32"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A23" s="42" t="s">
-        <v>188</v>
-      </c>
-      <c r="B23" s="30"/>
+      <c r="A23" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="B23" s="71"/>
       <c r="C23" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H23" s="21"/>
       <c r="I23" s="20"/>
       <c r="J23" s="20"/>
       <c r="K23" s="19"/>
-      <c r="L23" s="43"/>
+      <c r="L23" s="32"/>
     </row>
     <row r="24" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="45" t="s">
-        <v>189</v>
-      </c>
-      <c r="B24" s="55"/>
-      <c r="C24" s="47" t="s">
-        <v>199</v>
+      <c r="A24" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="B24" s="72"/>
+      <c r="C24" s="35" t="s">
+        <v>197</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E24" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="47" t="s">
-        <v>17</v>
+        <v>87</v>
+      </c>
+      <c r="E24" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="35" t="s">
+        <v>15</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="H24" s="48"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="58"/>
+        <v>196</v>
+      </c>
+      <c r="H24" s="36"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="44"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A25" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="B25" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="39" t="s">
+      <c r="A25" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="B25" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="41"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="30"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A26" s="42" t="s">
-        <v>148</v>
-      </c>
-      <c r="B26" s="30"/>
+      <c r="A26" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="B26" s="71"/>
       <c r="C26" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H26" s="20"/>
       <c r="I26" s="20"/>
       <c r="J26" s="20"/>
       <c r="K26" s="18"/>
-      <c r="L26" s="43"/>
+      <c r="L26" s="32"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A27" s="42" t="s">
-        <v>149</v>
-      </c>
-      <c r="B27" s="30"/>
+      <c r="A27" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="B27" s="71"/>
       <c r="C27" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D27" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="H27" s="20"/>
       <c r="I27" s="20"/>
       <c r="J27" s="20"/>
       <c r="K27" s="18"/>
-      <c r="L27" s="43"/>
+      <c r="L27" s="32"/>
     </row>
     <row r="28" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="45" t="s">
-        <v>150</v>
-      </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="47" t="s">
-        <v>87</v>
+      <c r="A28" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="B28" s="72"/>
+      <c r="C28" s="35" t="s">
+        <v>85</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="47" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="E28" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="35" t="s">
+        <v>15</v>
       </c>
       <c r="G28" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="44"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A29" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="B29" s="67" t="s">
+        <v>199</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" s="39"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="30"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A30" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="B30" s="68"/>
+      <c r="C30" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="58"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A29" s="37" t="s">
-        <v>200</v>
-      </c>
-      <c r="B29" s="38" t="s">
-        <v>201</v>
-      </c>
-      <c r="C29" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H29" s="52"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="53"/>
-      <c r="K29" s="54"/>
-      <c r="L29" s="41"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A30" s="42" t="s">
-        <v>202</v>
-      </c>
-      <c r="B30" s="25"/>
-      <c r="C30" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="E30" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H30" s="21"/>
       <c r="I30" s="20"/>
       <c r="J30" s="20"/>
       <c r="K30" s="19"/>
-      <c r="L30" s="43"/>
+      <c r="L30" s="32"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A31" s="42" t="s">
-        <v>203</v>
-      </c>
-      <c r="B31" s="25"/>
+      <c r="A31" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="B31" s="68"/>
       <c r="C31" s="11" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H31" s="21"/>
       <c r="I31" s="20"/>
       <c r="J31" s="20"/>
       <c r="K31" s="19"/>
-      <c r="L31" s="43"/>
+      <c r="L31" s="32"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A32" s="42" t="s">
-        <v>204</v>
-      </c>
-      <c r="B32" s="25"/>
+      <c r="A32" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="B32" s="68"/>
       <c r="C32" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>211</v>
       </c>
       <c r="H32" s="21"/>
       <c r="I32" s="20"/>
       <c r="J32" s="20"/>
       <c r="K32" s="19"/>
-      <c r="L32" s="43"/>
+      <c r="L32" s="32"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A33" s="42" t="s">
-        <v>205</v>
-      </c>
-      <c r="B33" s="25"/>
+      <c r="A33" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="B33" s="68"/>
       <c r="C33" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>212</v>
       </c>
       <c r="H33" s="21"/>
       <c r="I33" s="20"/>
       <c r="J33" s="20"/>
       <c r="K33" s="19"/>
-      <c r="L33" s="43"/>
+      <c r="L33" s="32"/>
     </row>
     <row r="34" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="45" t="s">
-        <v>385</v>
-      </c>
-      <c r="B34" s="46"/>
-      <c r="C34" s="47" t="s">
-        <v>384</v>
+      <c r="A34" s="34" t="s">
+        <v>382</v>
+      </c>
+      <c r="B34" s="69"/>
+      <c r="C34" s="35" t="s">
+        <v>381</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E34" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" s="47" t="s">
-        <v>17</v>
+        <v>87</v>
+      </c>
+      <c r="E34" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="35" t="s">
+        <v>15</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="H34" s="48"/>
-      <c r="I34" s="48"/>
-      <c r="J34" s="48"/>
-      <c r="K34" s="57"/>
-      <c r="L34" s="58"/>
+        <v>383</v>
+      </c>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="44"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A35" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="B35" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="C35" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="D35" s="39" t="s">
+      <c r="A35" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="B35" s="67" t="s">
+        <v>212</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E35" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H35" s="52"/>
-      <c r="I35" s="53"/>
-      <c r="J35" s="52"/>
-      <c r="K35" s="54"/>
-      <c r="L35" s="59"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="41"/>
+      <c r="L35" s="45"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A36" s="42" t="s">
-        <v>220</v>
-      </c>
-      <c r="B36" s="25"/>
+      <c r="A36" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="B36" s="68"/>
       <c r="C36" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H36" s="21"/>
       <c r="I36" s="20"/>
       <c r="J36" s="21"/>
       <c r="K36" s="19"/>
-      <c r="L36" s="44"/>
+      <c r="L36" s="33"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A37" s="42" t="s">
-        <v>221</v>
-      </c>
-      <c r="B37" s="25"/>
+      <c r="A37" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="B37" s="68"/>
       <c r="C37" s="11" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H37" s="21"/>
       <c r="I37" s="20"/>
       <c r="J37" s="21"/>
       <c r="K37" s="19"/>
-      <c r="L37" s="44"/>
+      <c r="L37" s="33"/>
     </row>
     <row r="38" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="45" t="s">
+      <c r="A38" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="B38" s="69"/>
+      <c r="C38" s="35" t="s">
+        <v>214</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E38" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="H38" s="36"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="43"/>
+      <c r="L38" s="38"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A39" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="B39" s="67" t="s">
         <v>222</v>
       </c>
-      <c r="B38" s="46"/>
-      <c r="C38" s="47" t="s">
-        <v>216</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E38" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="H38" s="48"/>
-      <c r="I38" s="56"/>
-      <c r="J38" s="48"/>
-      <c r="K38" s="57"/>
-      <c r="L38" s="50"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A39" s="37" t="s">
+      <c r="C39" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H39" s="39"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="30"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A40" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="B40" s="68"/>
+      <c r="C40" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B39" s="38" t="s">
-        <v>224</v>
-      </c>
-      <c r="C39" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="D39" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="E39" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H39" s="52"/>
-      <c r="I39" s="53"/>
-      <c r="J39" s="53"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="41"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A40" s="42" t="s">
-        <v>227</v>
-      </c>
-      <c r="B40" s="25"/>
-      <c r="C40" s="2" t="s">
-        <v>225</v>
-      </c>
       <c r="D40" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H40" s="21"/>
       <c r="I40" s="20"/>
       <c r="J40" s="20"/>
       <c r="K40" s="18"/>
-      <c r="L40" s="43"/>
+      <c r="L40" s="32"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A41" s="42" t="s">
-        <v>228</v>
-      </c>
-      <c r="B41" s="25"/>
+      <c r="A41" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="B41" s="68"/>
       <c r="C41" s="11" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H41" s="21"/>
       <c r="I41" s="20"/>
       <c r="J41" s="20"/>
       <c r="K41" s="19"/>
-      <c r="L41" s="43"/>
+      <c r="L41" s="32"/>
     </row>
     <row r="42" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="45" t="s">
-        <v>360</v>
-      </c>
-      <c r="B42" s="46"/>
-      <c r="C42" s="47" t="s">
-        <v>359</v>
-      </c>
-      <c r="D42" s="60" t="s">
-        <v>89</v>
-      </c>
-      <c r="E42" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="F42" s="47" t="s">
-        <v>17</v>
+      <c r="A42" s="34" t="s">
+        <v>357</v>
+      </c>
+      <c r="B42" s="69"/>
+      <c r="C42" s="35" t="s">
+        <v>356</v>
+      </c>
+      <c r="D42" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="E42" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="35" t="s">
+        <v>15</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="H42" s="48"/>
-      <c r="I42" s="48"/>
-      <c r="J42" s="48"/>
-      <c r="K42" s="49"/>
-      <c r="L42" s="50"/>
+        <v>355</v>
+      </c>
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="38"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A43" s="37" t="s">
-        <v>229</v>
-      </c>
-      <c r="B43" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="C43" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="D43" s="39" t="s">
+      <c r="A43" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="B43" s="67" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D43" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E43" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="F43" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H43" s="53"/>
-      <c r="I43" s="53"/>
-      <c r="J43" s="53"/>
-      <c r="K43" s="40"/>
-      <c r="L43" s="41"/>
+      <c r="H43" s="40"/>
+      <c r="I43" s="40"/>
+      <c r="J43" s="40"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="30"/>
     </row>
     <row r="44" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="45" t="s">
-        <v>230</v>
-      </c>
-      <c r="B44" s="46"/>
-      <c r="C44" s="47" t="s">
-        <v>93</v>
-      </c>
-      <c r="D44" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="E44" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="F44" s="47" t="s">
-        <v>17</v>
+      <c r="A44" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="B44" s="69"/>
+      <c r="C44" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="35" t="s">
+        <v>15</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="H44" s="56"/>
-      <c r="I44" s="56"/>
-      <c r="J44" s="56"/>
-      <c r="K44" s="49"/>
-      <c r="L44" s="58"/>
+        <v>132</v>
+      </c>
+      <c r="H44" s="42"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="42"/>
+      <c r="K44" s="37"/>
+      <c r="L44" s="44"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="18"/>
       <c r="B46" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="21"/>
       <c r="B47" s="2" t="s">
-        <v>390</v>
-      </c>
+        <v>387</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B48"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B49"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B50"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B51"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B52"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B53"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B54"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B55"/>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B56"/>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B57"/>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B58"/>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B59"/>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B60"/>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B61"/>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B62"/>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B63"/>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B64"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B65"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B66"/>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B67"/>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B68"/>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B69"/>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B70"/>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B71"/>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B72"/>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B73"/>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B74"/>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B75"/>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B76"/>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B77"/>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B78"/>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B79"/>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B80"/>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B81"/>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B82"/>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B83"/>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B84"/>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B85"/>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B86"/>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B87"/>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B88"/>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B89"/>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B90"/>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B91"/>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B92"/>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B93"/>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B94"/>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B95"/>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B96"/>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B97"/>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B98"/>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B99"/>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B100"/>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B101"/>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B102"/>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B103"/>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B104"/>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B105"/>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B106"/>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B107"/>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B108"/>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B109"/>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B110"/>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B111"/>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B112"/>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B113"/>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B114"/>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B115"/>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B116"/>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B117"/>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B118"/>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B119"/>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B120"/>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B121"/>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B122"/>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B123"/>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B124"/>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B125"/>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B126"/>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B127"/>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B128"/>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B129"/>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B130"/>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B131"/>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B132"/>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B133"/>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B134"/>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B135"/>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B136"/>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B137"/>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B138"/>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B139"/>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B140"/>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B141"/>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B142"/>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B143"/>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B144"/>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B145"/>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B146"/>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B147"/>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B148"/>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B149"/>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B150"/>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B151"/>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B152"/>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B153"/>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B154"/>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B155"/>
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B156"/>
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B157"/>
+    </row>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B158"/>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B159"/>
+    </row>
+    <row r="160" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B160"/>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B161"/>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B162"/>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B163"/>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B164"/>
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B165"/>
+    </row>
+    <row r="166" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B166"/>
+    </row>
+    <row r="167" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B167"/>
+    </row>
+    <row r="168" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B168"/>
+    </row>
+    <row r="169" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B169"/>
+    </row>
+    <row r="170" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B170"/>
+    </row>
+    <row r="171" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B171"/>
+    </row>
+    <row r="172" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B172"/>
+    </row>
+    <row r="173" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B173"/>
+    </row>
+    <row r="174" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B174"/>
+    </row>
+    <row r="175" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B175"/>
+    </row>
+    <row r="176" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B176"/>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B177"/>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B178"/>
+    </row>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B179"/>
+    </row>
+    <row r="180" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B180"/>
+    </row>
+    <row r="181" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B181"/>
+    </row>
+    <row r="182" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B182"/>
+    </row>
+    <row r="183" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B183"/>
+    </row>
+    <row r="184" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B184"/>
+    </row>
+    <row r="185" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B185"/>
+    </row>
+    <row r="186" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B186"/>
+    </row>
+    <row r="187" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B187"/>
+    </row>
+    <row r="188" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B188"/>
+    </row>
+    <row r="189" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B189"/>
+    </row>
+    <row r="190" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B190"/>
+    </row>
+    <row r="191" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B191"/>
+    </row>
+    <row r="192" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B192"/>
+    </row>
+    <row r="193" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B193"/>
+    </row>
+    <row r="194" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B194"/>
+    </row>
+    <row r="195" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B195"/>
+    </row>
+    <row r="196" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B196"/>
+    </row>
+    <row r="197" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B197"/>
+    </row>
+    <row r="198" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B198"/>
+    </row>
+    <row r="199" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B199"/>
+    </row>
+    <row r="200" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B200"/>
+    </row>
+    <row r="201" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B201"/>
+    </row>
+    <row r="202" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B202"/>
+    </row>
+    <row r="203" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B203"/>
+    </row>
+    <row r="204" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B204"/>
+    </row>
+    <row r="205" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B205"/>
+    </row>
+    <row r="206" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B206"/>
+    </row>
+    <row r="207" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B207"/>
+    </row>
+    <row r="208" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B208"/>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B209"/>
+    </row>
+    <row r="210" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B210"/>
+    </row>
+    <row r="211" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B211"/>
+    </row>
+    <row r="212" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B212"/>
+    </row>
+    <row r="213" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B213"/>
+    </row>
+    <row r="214" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B214"/>
+    </row>
+    <row r="215" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B215"/>
+    </row>
+    <row r="216" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B216"/>
+    </row>
+    <row r="217" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B217"/>
+    </row>
+    <row r="218" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B218"/>
+    </row>
+    <row r="219" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B219"/>
+    </row>
+    <row r="220" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B220"/>
+    </row>
+    <row r="221" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B221"/>
+    </row>
+    <row r="222" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B222"/>
+    </row>
+    <row r="223" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B223"/>
+    </row>
+    <row r="224" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B224"/>
+    </row>
+    <row r="225" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B225"/>
+    </row>
+    <row r="226" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B226"/>
+    </row>
+    <row r="227" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B227"/>
+    </row>
+    <row r="228" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B228"/>
+    </row>
+    <row r="229" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B229"/>
+    </row>
+    <row r="230" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B230"/>
+    </row>
+    <row r="231" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B231"/>
+    </row>
+    <row r="232" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B232"/>
+    </row>
+    <row r="233" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B233"/>
+    </row>
+    <row r="234" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B234"/>
+    </row>
+    <row r="235" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B235"/>
+    </row>
+    <row r="236" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B236"/>
+    </row>
+    <row r="237" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B237"/>
+    </row>
+    <row r="238" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B238"/>
+    </row>
+    <row r="239" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B239"/>
+    </row>
+    <row r="240" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B240"/>
+    </row>
+    <row r="241" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B241"/>
+    </row>
+    <row r="242" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B242"/>
+    </row>
+    <row r="243" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B243"/>
+    </row>
+    <row r="244" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B244"/>
+    </row>
+    <row r="245" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B245"/>
+    </row>
+    <row r="246" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B246"/>
+    </row>
+    <row r="247" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B247"/>
+    </row>
+    <row r="248" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B248"/>
+    </row>
+    <row r="249" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B249"/>
+    </row>
+    <row r="250" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B250"/>
+    </row>
+    <row r="251" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B251"/>
+    </row>
+    <row r="252" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B252"/>
+    </row>
+    <row r="253" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B253"/>
+    </row>
+    <row r="254" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B254"/>
+    </row>
+    <row r="255" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B255"/>
+    </row>
+    <row r="256" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B256"/>
+    </row>
+    <row r="257" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B257"/>
+    </row>
+    <row r="258" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B258"/>
+    </row>
+    <row r="259" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B259"/>
+    </row>
+    <row r="260" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B260"/>
+    </row>
+    <row r="261" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B261"/>
+    </row>
+    <row r="262" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B262"/>
+    </row>
+    <row r="263" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B263"/>
+    </row>
+    <row r="264" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B264"/>
+    </row>
+    <row r="265" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B265"/>
+    </row>
+    <row r="266" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B266"/>
+    </row>
+    <row r="267" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B267"/>
+    </row>
+    <row r="268" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B268"/>
+    </row>
+    <row r="269" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B269"/>
+    </row>
+    <row r="270" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B270"/>
+    </row>
+    <row r="271" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B271"/>
+    </row>
+    <row r="272" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B272"/>
+    </row>
+    <row r="273" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B273"/>
+    </row>
+    <row r="274" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B274"/>
+    </row>
+    <row r="275" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B275"/>
+    </row>
+    <row r="276" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B276"/>
+    </row>
+    <row r="277" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B277"/>
+    </row>
+    <row r="278" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B278"/>
+    </row>
+    <row r="279" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B279"/>
+    </row>
+    <row r="280" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B280"/>
+    </row>
+    <row r="281" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B281"/>
+    </row>
+    <row r="282" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B282"/>
+    </row>
+    <row r="283" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B283"/>
+    </row>
+    <row r="284" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B284"/>
+    </row>
+    <row r="285" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B285"/>
+    </row>
+    <row r="286" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B286"/>
+    </row>
+    <row r="287" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B287"/>
+    </row>
+    <row r="288" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B288"/>
+    </row>
+    <row r="289" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B289"/>
+    </row>
+    <row r="290" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B290"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="B3:B18"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="B29:B34"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
-    <mergeCell ref="B3:B18"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="B29:B34"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="B35:B38"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4303,7 +5070,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:B16"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4321,380 +5088,380 @@
     <col min="12" max="12" width="4.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="87" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="79" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="79" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="78" t="s">
+    <row r="1" spans="1:12" s="59" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="62" t="s">
+        <v>392</v>
+      </c>
+      <c r="B1" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="79" t="s">
+      <c r="D1" s="62" t="s">
+        <v>385</v>
+      </c>
+      <c r="E1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="79" t="s">
+      <c r="F1" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="79" t="s">
+      <c r="G1" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="78" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="81" t="s">
-        <v>387</v>
-      </c>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="83"/>
-    </row>
-    <row r="2" spans="1:12" s="89" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="79"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="88" t="s">
+      <c r="H1" s="64" t="s">
+        <v>384</v>
+      </c>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="66"/>
+    </row>
+    <row r="2" spans="1:12" s="61" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="60" t="s">
+        <v>376</v>
+      </c>
+      <c r="I2" s="60" t="s">
+        <v>377</v>
+      </c>
+      <c r="J2" s="60" t="s">
+        <v>378</v>
+      </c>
+      <c r="K2" s="60" t="s">
+        <v>354</v>
+      </c>
+      <c r="L2" s="60" t="s">
         <v>379</v>
       </c>
-      <c r="I2" s="88" t="s">
-        <v>380</v>
-      </c>
-      <c r="J2" s="88" t="s">
-        <v>381</v>
-      </c>
-      <c r="K2" s="88" t="s">
-        <v>357</v>
-      </c>
-      <c r="L2" s="88" t="s">
-        <v>382</v>
-      </c>
     </row>
     <row r="3" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="61" t="s">
-        <v>151</v>
-      </c>
-      <c r="B3" s="62" t="s">
-        <v>231</v>
+      <c r="A3" s="47" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="76" t="s">
+        <v>229</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="54"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="41"/>
+        <v>25</v>
+      </c>
+      <c r="H3" s="41"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="30"/>
     </row>
     <row r="4" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="63" t="s">
-        <v>152</v>
-      </c>
-      <c r="B4" s="31"/>
+      <c r="A4" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" s="77"/>
       <c r="C4" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H4" s="19"/>
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
       <c r="K4" s="18"/>
-      <c r="L4" s="43"/>
+      <c r="L4" s="32"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="63" t="s">
-        <v>153</v>
-      </c>
-      <c r="B5" s="31"/>
+      <c r="A5" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="77"/>
       <c r="C5" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H5" s="19"/>
       <c r="I5" s="18"/>
       <c r="J5" s="18"/>
       <c r="K5" s="18"/>
-      <c r="L5" s="43"/>
+      <c r="L5" s="32"/>
     </row>
     <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="64" t="s">
-        <v>232</v>
-      </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="66" t="s">
-        <v>236</v>
-      </c>
-      <c r="D6" s="66" t="s">
-        <v>89</v>
-      </c>
-      <c r="E6" s="66" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="66" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="66" t="s">
-        <v>344</v>
-      </c>
-      <c r="H6" s="57"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="58"/>
+      <c r="A6" s="49" t="s">
+        <v>230</v>
+      </c>
+      <c r="B6" s="78"/>
+      <c r="C6" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="50" t="s">
+        <v>341</v>
+      </c>
+      <c r="H6" s="43"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="44"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="61" t="s">
-        <v>154</v>
-      </c>
-      <c r="B7" s="67" t="s">
-        <v>97</v>
+      <c r="A7" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" s="74" t="s">
+        <v>95</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="30"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="48" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" s="63"/>
+      <c r="C8" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="41"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="63" t="s">
-        <v>155</v>
-      </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="2" t="s">
-        <v>312</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
-      <c r="L8" s="43"/>
+      <c r="L8" s="32"/>
     </row>
     <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="64" t="s">
-        <v>233</v>
-      </c>
-      <c r="B9" s="68"/>
+      <c r="A9" s="49" t="s">
+        <v>231</v>
+      </c>
+      <c r="B9" s="75"/>
       <c r="C9" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G9" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="44"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="47" t="s">
+        <v>154</v>
+      </c>
+      <c r="B10" s="79" t="s">
         <v>96</v>
       </c>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="58"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="61" t="s">
-        <v>156</v>
-      </c>
-      <c r="B10" s="29" t="s">
+      <c r="C10" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="30"/>
+    </row>
+    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="B11" s="80"/>
+      <c r="C11" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="44"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="47" t="s">
+        <v>235</v>
+      </c>
+      <c r="B12" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="41"/>
-    </row>
-    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="64" t="s">
-        <v>157</v>
-      </c>
-      <c r="B11" s="69"/>
-      <c r="C11" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="6" t="s">
+      <c r="C12" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="30"/>
+    </row>
+    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="49" t="s">
+        <v>236</v>
+      </c>
+      <c r="B13" s="75"/>
+      <c r="C13" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="58"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="61" t="s">
-        <v>237</v>
-      </c>
-      <c r="B12" s="67" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="41"/>
-    </row>
-    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="64" t="s">
-        <v>238</v>
-      </c>
-      <c r="B13" s="68"/>
-      <c r="C13" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="58"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="44"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="18"/>
       <c r="B15" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="21"/>
       <c r="B16" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4707,12 +5474,13 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B8"/>
+      <selection activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="11.81640625" customWidth="1"/>
+    <col min="1" max="1" width="11.81640625" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.08984375" bestFit="1" customWidth="1"/>
@@ -4724,81 +5492,81 @@
     <col min="12" max="12" width="4.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="84" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="79" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="79" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="79" t="s">
+    <row r="1" spans="1:12" s="57" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="62" t="s">
+        <v>392</v>
+      </c>
+      <c r="B1" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="79" t="s">
+      <c r="D1" s="62" t="s">
+        <v>385</v>
+      </c>
+      <c r="E1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="79" t="s">
+      <c r="F1" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="79" t="s">
+      <c r="G1" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="79" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="81" t="s">
-        <v>387</v>
-      </c>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="83"/>
-    </row>
-    <row r="2" spans="1:12" s="84" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="79"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="86" t="s">
+      <c r="H1" s="64" t="s">
+        <v>384</v>
+      </c>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="66"/>
+    </row>
+    <row r="2" spans="1:12" s="57" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="58" t="s">
+        <v>376</v>
+      </c>
+      <c r="I2" s="58" t="s">
+        <v>377</v>
+      </c>
+      <c r="J2" s="58" t="s">
+        <v>378</v>
+      </c>
+      <c r="K2" s="58" t="s">
+        <v>354</v>
+      </c>
+      <c r="L2" s="58" t="s">
         <v>379</v>
-      </c>
-      <c r="I2" s="86" t="s">
-        <v>380</v>
-      </c>
-      <c r="J2" s="86" t="s">
-        <v>381</v>
-      </c>
-      <c r="K2" s="86" t="s">
-        <v>357</v>
-      </c>
-      <c r="L2" s="86" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>104</v>
+        <v>156</v>
+      </c>
+      <c r="B3" s="63" t="s">
+        <v>102</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
@@ -4808,23 +5576,23 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B4" s="22"/>
+        <v>157</v>
+      </c>
+      <c r="B4" s="63"/>
       <c r="C4" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
@@ -4834,23 +5602,23 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B5" s="22"/>
+        <v>158</v>
+      </c>
+      <c r="B5" s="63"/>
       <c r="C5" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
@@ -4861,26 +5629,26 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="18"/>
       <c r="B7" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="21"/>
       <c r="B8" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="B3:B5"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4893,19 +5661,21 @@
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B35" sqref="B35:B36"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.1796875" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.1796875" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.08984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.54296875" style="32" customWidth="1"/>
+    <col min="7" max="7" width="36.54296875" style="22" customWidth="1"/>
     <col min="8" max="8" width="5.7265625" customWidth="1"/>
     <col min="9" max="9" width="5.08984375" customWidth="1"/>
     <col min="10" max="10" width="5" customWidth="1"/>
@@ -4913,894 +5683,894 @@
     <col min="12" max="12" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="84" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="79" t="s">
+    <row r="1" spans="1:12" s="57" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="80" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="80" t="s">
+      <c r="B1" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="79" t="s">
-        <v>388</v>
-      </c>
-      <c r="E1" s="79" t="s">
+      <c r="D1" s="81" t="s">
+        <v>385</v>
+      </c>
+      <c r="E1" s="81" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="79" t="s">
+      <c r="G1" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="79" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="81" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="83"/>
-    </row>
-    <row r="2" spans="1:12" s="84" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="79"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="86" t="s">
+      <c r="H1" s="64" t="s">
+        <v>384</v>
+      </c>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="66"/>
+    </row>
+    <row r="2" spans="1:12" s="57" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="87"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="58" t="s">
+        <v>376</v>
+      </c>
+      <c r="I2" s="58" t="s">
+        <v>377</v>
+      </c>
+      <c r="J2" s="58" t="s">
+        <v>378</v>
+      </c>
+      <c r="K2" s="58" t="s">
+        <v>354</v>
+      </c>
+      <c r="L2" s="58" t="s">
         <v>379</v>
       </c>
-      <c r="I2" s="86" t="s">
-        <v>380</v>
-      </c>
-      <c r="J2" s="86" t="s">
-        <v>381</v>
-      </c>
-      <c r="K2" s="86" t="s">
-        <v>357</v>
-      </c>
-      <c r="L2" s="86" t="s">
-        <v>382</v>
-      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="61" t="s">
-        <v>161</v>
-      </c>
-      <c r="B3" s="29" t="s">
+      <c r="A3" s="47" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" s="79" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="93"/>
+    </row>
+    <row r="4" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="48" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" s="86"/>
+      <c r="C4" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="23" t="s">
         <v>105</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>279</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="71" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="41"/>
-    </row>
-    <row r="4" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="63" t="s">
-        <v>162</v>
-      </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>107</v>
       </c>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
       <c r="K4" s="18"/>
-      <c r="L4" s="43"/>
+      <c r="L4" s="32"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="63" t="s">
-        <v>163</v>
-      </c>
-      <c r="B5" s="27"/>
+      <c r="A5" s="48" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" s="86"/>
       <c r="C5" s="15" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="33" t="s">
-        <v>88</v>
+        <v>15</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>86</v>
       </c>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
       <c r="J5" s="18"/>
       <c r="K5" s="19"/>
-      <c r="L5" s="43"/>
+      <c r="L5" s="32"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="63" t="s">
-        <v>164</v>
-      </c>
-      <c r="B6" s="27"/>
+      <c r="A6" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="B6" s="86"/>
       <c r="C6" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="33" t="s">
-        <v>108</v>
+        <v>15</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>106</v>
       </c>
       <c r="H6" s="18"/>
       <c r="I6" s="18"/>
       <c r="J6" s="18"/>
       <c r="K6" s="19"/>
-      <c r="L6" s="43"/>
+      <c r="L6" s="32"/>
     </row>
     <row r="7" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="63" t="s">
-        <v>165</v>
-      </c>
-      <c r="B7" s="27"/>
+      <c r="A7" s="48" t="s">
+        <v>163</v>
+      </c>
+      <c r="B7" s="86"/>
       <c r="C7" s="15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="33" t="s">
-        <v>111</v>
+        <v>15</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="H7" s="18"/>
       <c r="I7" s="19"/>
       <c r="J7" s="19"/>
       <c r="K7" s="19"/>
-      <c r="L7" s="44"/>
+      <c r="L7" s="33"/>
     </row>
     <row r="8" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="63" t="s">
-        <v>166</v>
-      </c>
-      <c r="B8" s="27"/>
+      <c r="A8" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="B8" s="86"/>
       <c r="C8" s="15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="33" t="s">
-        <v>113</v>
+        <v>15</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>111</v>
       </c>
       <c r="H8" s="18"/>
       <c r="I8" s="19"/>
       <c r="J8" s="19"/>
       <c r="K8" s="19"/>
-      <c r="L8" s="44"/>
+      <c r="L8" s="33"/>
     </row>
     <row r="9" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="63" t="s">
-        <v>167</v>
-      </c>
-      <c r="B9" s="27"/>
+      <c r="A9" s="48" t="s">
+        <v>165</v>
+      </c>
+      <c r="B9" s="86"/>
       <c r="C9" s="15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="33" t="s">
-        <v>115</v>
+        <v>15</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>113</v>
       </c>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
       <c r="K9" s="19"/>
-      <c r="L9" s="43"/>
+      <c r="L9" s="32"/>
     </row>
     <row r="10" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="63" t="s">
-        <v>260</v>
-      </c>
-      <c r="B10" s="27"/>
+      <c r="A10" s="48" t="s">
+        <v>258</v>
+      </c>
+      <c r="B10" s="86"/>
       <c r="C10" s="15" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="33" t="s">
-        <v>271</v>
+        <v>15</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>269</v>
       </c>
       <c r="H10" s="19"/>
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
       <c r="K10" s="19"/>
-      <c r="L10" s="43"/>
+      <c r="L10" s="32"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="63" t="s">
-        <v>261</v>
-      </c>
-      <c r="B11" s="27"/>
+      <c r="A11" s="48" t="s">
+        <v>259</v>
+      </c>
+      <c r="B11" s="86"/>
       <c r="C11" s="15" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="33" t="s">
-        <v>272</v>
+        <v>15</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>270</v>
       </c>
       <c r="H11" s="19"/>
       <c r="I11" s="18"/>
       <c r="J11" s="19"/>
       <c r="K11" s="19"/>
-      <c r="L11" s="44"/>
+      <c r="L11" s="33"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="63" t="s">
-        <v>262</v>
-      </c>
-      <c r="B12" s="27"/>
+      <c r="A12" s="48" t="s">
+        <v>260</v>
+      </c>
+      <c r="B12" s="86"/>
       <c r="C12" s="15" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="33" t="s">
-        <v>273</v>
+        <v>15</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>271</v>
       </c>
       <c r="H12" s="19"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
       <c r="K12" s="19"/>
-      <c r="L12" s="43"/>
+      <c r="L12" s="32"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="63" t="s">
-        <v>263</v>
-      </c>
-      <c r="B13" s="27"/>
+      <c r="A13" s="48" t="s">
+        <v>261</v>
+      </c>
+      <c r="B13" s="86"/>
       <c r="C13" s="15" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="33" t="s">
-        <v>274</v>
+        <v>15</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>272</v>
       </c>
       <c r="H13" s="19"/>
       <c r="I13" s="18"/>
       <c r="J13" s="18"/>
       <c r="K13" s="19"/>
-      <c r="L13" s="43"/>
+      <c r="L13" s="32"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="63" t="s">
-        <v>264</v>
-      </c>
-      <c r="B14" s="27"/>
+      <c r="A14" s="48" t="s">
+        <v>262</v>
+      </c>
+      <c r="B14" s="86"/>
       <c r="C14" s="15" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="33" t="s">
-        <v>275</v>
+        <v>15</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>273</v>
       </c>
       <c r="H14" s="19"/>
       <c r="I14" s="18"/>
       <c r="J14" s="18"/>
       <c r="K14" s="19"/>
-      <c r="L14" s="43"/>
+      <c r="L14" s="32"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" s="63" t="s">
-        <v>265</v>
-      </c>
-      <c r="B15" s="27"/>
+      <c r="A15" s="48" t="s">
+        <v>263</v>
+      </c>
+      <c r="B15" s="86"/>
       <c r="C15" s="15" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="33" t="s">
-        <v>276</v>
+        <v>15</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>274</v>
       </c>
       <c r="H15" s="19"/>
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
       <c r="K15" s="19"/>
-      <c r="L15" s="43"/>
+      <c r="L15" s="32"/>
     </row>
     <row r="16" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="72" t="s">
-        <v>266</v>
-      </c>
-      <c r="B16" s="27"/>
+      <c r="A16" s="53" t="s">
+        <v>264</v>
+      </c>
+      <c r="B16" s="86"/>
       <c r="C16" s="16" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="34" t="s">
-        <v>277</v>
+        <v>15</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>275</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="18"/>
       <c r="J16" s="18"/>
       <c r="K16" s="19"/>
-      <c r="L16" s="43"/>
+      <c r="L16" s="32"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17" s="72" t="s">
-        <v>361</v>
-      </c>
-      <c r="B17" s="27"/>
+      <c r="A17" s="53" t="s">
+        <v>358</v>
+      </c>
+      <c r="B17" s="86"/>
       <c r="C17" s="16" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="33" t="s">
-        <v>373</v>
+        <v>15</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>370</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="19"/>
       <c r="K17" s="18"/>
-      <c r="L17" s="44"/>
+      <c r="L17" s="33"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18" s="72" t="s">
-        <v>362</v>
-      </c>
-      <c r="B18" s="27"/>
+      <c r="A18" s="53" t="s">
+        <v>359</v>
+      </c>
+      <c r="B18" s="86"/>
       <c r="C18" s="16" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="34" t="s">
-        <v>374</v>
+        <v>15</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>371</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
       <c r="J18" s="19"/>
       <c r="K18" s="18"/>
-      <c r="L18" s="44"/>
+      <c r="L18" s="33"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A19" s="72" t="s">
-        <v>363</v>
-      </c>
-      <c r="B19" s="27"/>
+      <c r="A19" s="53" t="s">
+        <v>360</v>
+      </c>
+      <c r="B19" s="86"/>
       <c r="C19" s="16" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" s="34" t="s">
-        <v>376</v>
+        <v>15</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>373</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="19"/>
       <c r="K19" s="18"/>
-      <c r="L19" s="44"/>
+      <c r="L19" s="33"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A20" s="72" t="s">
-        <v>364</v>
-      </c>
-      <c r="B20" s="27"/>
+      <c r="A20" s="53" t="s">
+        <v>361</v>
+      </c>
+      <c r="B20" s="86"/>
       <c r="C20" s="16" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="34" t="s">
-        <v>377</v>
+        <v>15</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>374</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="19"/>
       <c r="K20" s="18"/>
-      <c r="L20" s="44"/>
+      <c r="L20" s="33"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A21" s="72" t="s">
-        <v>365</v>
-      </c>
-      <c r="B21" s="27"/>
+      <c r="A21" s="53" t="s">
+        <v>362</v>
+      </c>
+      <c r="B21" s="86"/>
       <c r="C21" s="16" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="34" t="s">
-        <v>375</v>
+        <v>15</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>372</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="19"/>
       <c r="K21" s="18"/>
-      <c r="L21" s="44"/>
+      <c r="L21" s="33"/>
     </row>
     <row r="22" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="64" t="s">
-        <v>366</v>
-      </c>
-      <c r="B22" s="69"/>
-      <c r="C22" s="73" t="s">
-        <v>372</v>
+      <c r="A22" s="49" t="s">
+        <v>363</v>
+      </c>
+      <c r="B22" s="80"/>
+      <c r="C22" s="54" t="s">
+        <v>369</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" s="74" t="s">
-        <v>378</v>
-      </c>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="50"/>
+        <v>15</v>
+      </c>
+      <c r="G22" s="55" t="s">
+        <v>375</v>
+      </c>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="38"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A23" s="61" t="s">
-        <v>168</v>
-      </c>
-      <c r="B23" s="75" t="s">
-        <v>106</v>
-      </c>
-      <c r="C23" s="70" t="s">
-        <v>279</v>
+      <c r="A23" s="47" t="s">
+        <v>166</v>
+      </c>
+      <c r="B23" s="83" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="51" t="s">
+        <v>277</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" s="71" t="s">
-        <v>29</v>
-      </c>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="41"/>
+        <v>15</v>
+      </c>
+      <c r="G23" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="30"/>
     </row>
     <row r="24" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="63" t="s">
-        <v>169</v>
-      </c>
-      <c r="B24" s="28"/>
+      <c r="A24" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="B24" s="84"/>
       <c r="C24" s="15" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" s="33" t="s">
-        <v>116</v>
+        <v>15</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>114</v>
       </c>
       <c r="H24" s="18"/>
       <c r="I24" s="18"/>
       <c r="J24" s="18"/>
       <c r="K24" s="18"/>
-      <c r="L24" s="43"/>
+      <c r="L24" s="32"/>
     </row>
     <row r="25" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="63" t="s">
-        <v>170</v>
-      </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="35" t="s">
-        <v>243</v>
+      <c r="A25" s="48" t="s">
+        <v>168</v>
+      </c>
+      <c r="B25" s="84"/>
+      <c r="C25" s="25" t="s">
+        <v>241</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" s="33" t="s">
-        <v>295</v>
+        <v>15</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>293</v>
       </c>
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
       <c r="K25" s="18"/>
-      <c r="L25" s="43"/>
+      <c r="L25" s="32"/>
     </row>
     <row r="26" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A26" s="63" t="s">
-        <v>171</v>
-      </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="35" t="s">
-        <v>244</v>
+      <c r="A26" s="48" t="s">
+        <v>169</v>
+      </c>
+      <c r="B26" s="84"/>
+      <c r="C26" s="25" t="s">
+        <v>242</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" s="33" t="s">
-        <v>296</v>
+        <v>15</v>
+      </c>
+      <c r="G26" s="23" t="s">
+        <v>294</v>
       </c>
       <c r="H26" s="18"/>
       <c r="I26" s="18"/>
       <c r="J26" s="18"/>
       <c r="K26" s="18"/>
-      <c r="L26" s="43"/>
+      <c r="L26" s="32"/>
     </row>
     <row r="27" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27" s="63" t="s">
-        <v>172</v>
-      </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="35" t="s">
-        <v>245</v>
+      <c r="A27" s="48" t="s">
+        <v>170</v>
+      </c>
+      <c r="B27" s="84"/>
+      <c r="C27" s="25" t="s">
+        <v>243</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27" s="33" t="s">
-        <v>297</v>
+        <v>15</v>
+      </c>
+      <c r="G27" s="23" t="s">
+        <v>295</v>
       </c>
       <c r="H27" s="18"/>
       <c r="I27" s="18"/>
       <c r="J27" s="18"/>
       <c r="K27" s="19"/>
-      <c r="L27" s="43"/>
+      <c r="L27" s="32"/>
     </row>
     <row r="28" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28" s="63" t="s">
-        <v>283</v>
-      </c>
-      <c r="B28" s="28"/>
-      <c r="C28" s="35" t="s">
-        <v>197</v>
+      <c r="A28" s="48" t="s">
+        <v>281</v>
+      </c>
+      <c r="B28" s="84"/>
+      <c r="C28" s="25" t="s">
+        <v>195</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G28" s="33" t="s">
-        <v>289</v>
+        <v>15</v>
+      </c>
+      <c r="G28" s="23" t="s">
+        <v>287</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="18"/>
       <c r="J28" s="18"/>
       <c r="K28" s="19"/>
-      <c r="L28" s="43"/>
+      <c r="L28" s="32"/>
     </row>
     <row r="29" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A29" s="63" t="s">
-        <v>284</v>
-      </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="35" t="s">
-        <v>210</v>
+      <c r="A29" s="48" t="s">
+        <v>282</v>
+      </c>
+      <c r="B29" s="84"/>
+      <c r="C29" s="25" t="s">
+        <v>208</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" s="33" t="s">
-        <v>290</v>
+        <v>15</v>
+      </c>
+      <c r="G29" s="23" t="s">
+        <v>288</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="18"/>
       <c r="J29" s="18"/>
       <c r="K29" s="19"/>
-      <c r="L29" s="43"/>
+      <c r="L29" s="32"/>
     </row>
     <row r="30" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A30" s="63" t="s">
-        <v>285</v>
-      </c>
-      <c r="B30" s="28"/>
-      <c r="C30" s="35" t="s">
-        <v>216</v>
+      <c r="A30" s="48" t="s">
+        <v>283</v>
+      </c>
+      <c r="B30" s="84"/>
+      <c r="C30" s="25" t="s">
+        <v>214</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G30" s="33" t="s">
-        <v>291</v>
+        <v>15</v>
+      </c>
+      <c r="G30" s="23" t="s">
+        <v>289</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="18"/>
       <c r="J30" s="19"/>
       <c r="K30" s="19"/>
-      <c r="L30" s="44"/>
+      <c r="L30" s="33"/>
     </row>
     <row r="31" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A31" s="63" t="s">
-        <v>286</v>
-      </c>
-      <c r="B31" s="28"/>
-      <c r="C31" s="35" t="s">
-        <v>241</v>
+      <c r="A31" s="48" t="s">
+        <v>284</v>
+      </c>
+      <c r="B31" s="84"/>
+      <c r="C31" s="25" t="s">
+        <v>239</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" s="33" t="s">
-        <v>292</v>
+        <v>15</v>
+      </c>
+      <c r="G31" s="23" t="s">
+        <v>290</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="18"/>
       <c r="J31" s="18"/>
       <c r="K31" s="19"/>
-      <c r="L31" s="43"/>
+      <c r="L31" s="32"/>
     </row>
     <row r="32" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A32" s="63" t="s">
-        <v>287</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="35" t="s">
-        <v>242</v>
+      <c r="A32" s="48" t="s">
+        <v>285</v>
+      </c>
+      <c r="B32" s="84"/>
+      <c r="C32" s="25" t="s">
+        <v>240</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G32" s="33" t="s">
-        <v>293</v>
+        <v>15</v>
+      </c>
+      <c r="G32" s="23" t="s">
+        <v>291</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="18"/>
       <c r="J32" s="18"/>
       <c r="K32" s="18"/>
-      <c r="L32" s="43"/>
+      <c r="L32" s="32"/>
     </row>
     <row r="33" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="64" t="s">
-        <v>288</v>
-      </c>
-      <c r="B33" s="76"/>
-      <c r="C33" s="77" t="s">
-        <v>246</v>
+      <c r="A33" s="49" t="s">
+        <v>286</v>
+      </c>
+      <c r="B33" s="85"/>
+      <c r="C33" s="56" t="s">
+        <v>244</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E33" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33" s="74" t="s">
-        <v>294</v>
-      </c>
-      <c r="H33" s="57"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="57"/>
-      <c r="L33" s="58"/>
+        <v>87</v>
+      </c>
+      <c r="E33" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="55" t="s">
+        <v>292</v>
+      </c>
+      <c r="H33" s="43"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="44"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="18"/>
       <c r="B35" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="21"/>
       <c r="B36" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="B1:B2"/>
     <mergeCell ref="B23:B33"/>
     <mergeCell ref="B3:B22"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5812,14 +6582,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAECE144-BE1B-4622-9D0D-F5BA45155425}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.6328125" customWidth="1"/>
     <col min="4" max="4" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.08984375" bestFit="1" customWidth="1"/>
@@ -5832,80 +6602,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="79" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="79" t="s">
+      <c r="B1" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="79" t="s">
-        <v>388</v>
-      </c>
-      <c r="E1" s="79" t="s">
+      <c r="D1" s="62" t="s">
+        <v>385</v>
+      </c>
+      <c r="E1" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="79" t="s">
+      <c r="G1" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="79" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="81" t="s">
-        <v>387</v>
-      </c>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="83"/>
+      <c r="H1" s="64" t="s">
+        <v>384</v>
+      </c>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="66"/>
     </row>
     <row r="2" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="79"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="86" t="s">
+      <c r="A2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="58" t="s">
+        <v>376</v>
+      </c>
+      <c r="I2" s="58" t="s">
+        <v>377</v>
+      </c>
+      <c r="J2" s="58" t="s">
+        <v>378</v>
+      </c>
+      <c r="K2" s="58" t="s">
+        <v>354</v>
+      </c>
+      <c r="L2" s="58" t="s">
         <v>379</v>
-      </c>
-      <c r="I2" s="86" t="s">
-        <v>380</v>
-      </c>
-      <c r="J2" s="86" t="s">
-        <v>381</v>
-      </c>
-      <c r="K2" s="86" t="s">
-        <v>357</v>
-      </c>
-      <c r="L2" s="86" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>117</v>
+        <v>171</v>
+      </c>
+      <c r="B3" s="63" t="s">
+        <v>115</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
@@ -5915,23 +6685,23 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B4" s="22"/>
+        <v>172</v>
+      </c>
+      <c r="B4" s="63"/>
       <c r="C4" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
@@ -5941,23 +6711,23 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B5" s="22"/>
+        <v>173</v>
+      </c>
+      <c r="B5" s="63"/>
       <c r="C5" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
@@ -5967,25 +6737,25 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>118</v>
+        <v>174</v>
+      </c>
+      <c r="B6" s="91" t="s">
+        <v>116</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="18"/>
       <c r="I6" s="18"/>
@@ -5995,23 +6765,23 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B7" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="B7" s="86"/>
       <c r="C7" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H7" s="18"/>
       <c r="I7" s="18"/>
@@ -6021,23 +6791,23 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B8" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="B8" s="90"/>
       <c r="C8" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
@@ -6048,26 +6818,27 @@
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="18"/>
       <c r="B10" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="21"/>
       <c r="B11" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="B6:B8"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="B3:B5"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6080,12 +6851,13 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B9"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="11.81640625" customWidth="1"/>
+    <col min="1" max="1" width="11.81640625" customWidth="1"/>
+    <col min="2" max="2" width="20.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.6328125" customWidth="1"/>
     <col min="4" max="4" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.08984375" bestFit="1" customWidth="1"/>
@@ -6098,80 +6870,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="79" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="79" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="79" t="s">
+      <c r="A1" s="62" t="s">
+        <v>392</v>
+      </c>
+      <c r="B1" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="79" t="s">
+      <c r="D1" s="62" t="s">
+        <v>385</v>
+      </c>
+      <c r="E1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="79" t="s">
+      <c r="F1" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="79" t="s">
+      <c r="G1" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="79" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="81" t="s">
-        <v>387</v>
-      </c>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="83"/>
+      <c r="H1" s="64" t="s">
+        <v>384</v>
+      </c>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="66"/>
     </row>
     <row r="2" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="79"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="86" t="s">
+      <c r="A2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="58" t="s">
+        <v>376</v>
+      </c>
+      <c r="I2" s="58" t="s">
+        <v>377</v>
+      </c>
+      <c r="J2" s="58" t="s">
+        <v>378</v>
+      </c>
+      <c r="K2" s="58" t="s">
+        <v>354</v>
+      </c>
+      <c r="L2" s="58" t="s">
         <v>379</v>
-      </c>
-      <c r="I2" s="86" t="s">
-        <v>380</v>
-      </c>
-      <c r="J2" s="86" t="s">
-        <v>381</v>
-      </c>
-      <c r="K2" s="86" t="s">
-        <v>357</v>
-      </c>
-      <c r="L2" s="86" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>122</v>
+        <v>177</v>
+      </c>
+      <c r="B3" s="88" t="s">
+        <v>120</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
@@ -6181,23 +6953,23 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="B4" s="25"/>
+        <v>178</v>
+      </c>
+      <c r="B4" s="68"/>
       <c r="C4" s="11" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
@@ -6207,23 +6979,23 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="B5" s="25"/>
+        <v>179</v>
+      </c>
+      <c r="B5" s="68"/>
       <c r="C5" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
@@ -6233,23 +7005,23 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="B6" s="26"/>
+        <v>180</v>
+      </c>
+      <c r="B6" s="89"/>
       <c r="C6" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H6" s="20"/>
       <c r="I6" s="18"/>
@@ -6260,26 +7032,26 @@
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="18"/>
       <c r="B8" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="21"/>
       <c r="B9" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="B3:B6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/testCases/testCases.xlsx
+++ b/src/test/resources/testCases/testCases.xlsx
@@ -8,24 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\802072\eclipse-workspace1\memberPortalAutomation\src\test\resources\testCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B16A78F-6ABF-4DD1-A740-9349DF08FC48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2E5386-9829-45EE-A021-99E163DDB3CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginCred" sheetId="8" r:id="rId1"/>
     <sheet name="loginSteps" sheetId="2" r:id="rId2"/>
-    <sheet name="homePage" sheetId="17" r:id="rId3"/>
-    <sheet name="benefitsMenu" sheetId="3" r:id="rId4"/>
-    <sheet name="myCareMenu" sheetId="10" r:id="rId5"/>
-    <sheet name="claimsMenu" sheetId="12" r:id="rId6"/>
-    <sheet name="resourcesMenu" sheetId="13" r:id="rId7"/>
-    <sheet name="grievancesMenu" sheetId="14" r:id="rId8"/>
-    <sheet name="comCenterMenu" sheetId="15" r:id="rId9"/>
-    <sheet name="myAccountMenu" sheetId="16" r:id="rId10"/>
+    <sheet name="benefitsMenu" sheetId="18" r:id="rId3"/>
+    <sheet name="homePage" sheetId="17" r:id="rId4"/>
+    <sheet name="benefitsM" sheetId="3" r:id="rId5"/>
+    <sheet name="myCareMenu" sheetId="10" r:id="rId6"/>
+    <sheet name="claimsMenu" sheetId="12" r:id="rId7"/>
+    <sheet name="resourcesMenu" sheetId="13" r:id="rId8"/>
+    <sheet name="grievancesMenu" sheetId="14" r:id="rId9"/>
+    <sheet name="comCenterMenu" sheetId="15" r:id="rId10"/>
+    <sheet name="myAccountMenu" sheetId="16" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">benefitsMenu!$L$3:$L$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">benefitsM!$L$3:$L$44</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="393">
   <si>
     <t>Welcome1!</t>
   </si>
@@ -1295,7 +1296,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1564,12 +1565,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1688,7 +1702,49 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1702,24 +1758,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1745,12 +1783,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1763,23 +1795,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2269,11 +2302,224 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F3A60DC-D61C-470D-A610-5C62CF36157F}">
+  <dimension ref="A1:L9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.81640625" customWidth="1"/>
+    <col min="2" max="2" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.6328125" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="75.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" s="79" t="s">
+        <v>392</v>
+      </c>
+      <c r="B1" s="79" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="79" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="79" t="s">
+        <v>385</v>
+      </c>
+      <c r="E1" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="79" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="82" t="s">
+        <v>384</v>
+      </c>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="84"/>
+    </row>
+    <row r="2" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="79"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="58" t="s">
+        <v>376</v>
+      </c>
+      <c r="I2" s="58" t="s">
+        <v>377</v>
+      </c>
+      <c r="J2" s="58" t="s">
+        <v>378</v>
+      </c>
+      <c r="K2" s="58" t="s">
+        <v>354</v>
+      </c>
+      <c r="L2" s="58" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3" s="102" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" s="78"/>
+      <c r="C4" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="B5" s="78"/>
+      <c r="C5" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="B6" s="74"/>
+      <c r="C6" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H6" s="20"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="18"/>
+      <c r="B8" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="21"/>
+      <c r="B9" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC29656-CD64-47D3-AADF-26100711AB2B}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2291,43 +2537,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="79" t="s">
         <v>392</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="79" t="s">
         <v>385</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="E1" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="62" t="s">
+      <c r="F1" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="62" t="s">
+      <c r="G1" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="64" t="s">
+      <c r="H1" s="82" t="s">
         <v>384</v>
       </c>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="66"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="84"/>
     </row>
     <row r="2" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
+      <c r="A2" s="79"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
       <c r="H2" s="58" t="s">
         <v>376</v>
       </c>
@@ -2348,7 +2594,7 @@
       <c r="A3" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="91" t="s">
         <v>123</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -2376,7 +2622,7 @@
       <c r="A4" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="B4" s="86"/>
+      <c r="B4" s="96"/>
       <c r="C4" s="2" t="s">
         <v>297</v>
       </c>
@@ -2402,7 +2648,7 @@
       <c r="A5" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="B5" s="86"/>
+      <c r="B5" s="96"/>
       <c r="C5" s="2" t="s">
         <v>127</v>
       </c>
@@ -2428,7 +2674,7 @@
       <c r="A6" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="B6" s="86"/>
+      <c r="B6" s="96"/>
       <c r="C6" s="2" t="s">
         <v>129</v>
       </c>
@@ -2454,7 +2700,7 @@
       <c r="A7" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="B7" s="90"/>
+      <c r="B7" s="101"/>
       <c r="C7" s="12" t="s">
         <v>128</v>
       </c>
@@ -2490,15 +2736,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="B3:B7"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="B3:B7"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2695,11 +2941,1222 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08B0791E-32C6-46CB-BCBB-5262F832F992}">
+  <dimension ref="A1:L48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="39.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="62.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" s="79" t="s">
+        <v>392</v>
+      </c>
+      <c r="B1" s="79" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="79" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="79" t="s">
+        <v>385</v>
+      </c>
+      <c r="E1" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="79" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="80" t="s">
+        <v>384</v>
+      </c>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+    </row>
+    <row r="2" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="79"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="71" t="s">
+        <v>376</v>
+      </c>
+      <c r="I2" s="71" t="s">
+        <v>377</v>
+      </c>
+      <c r="J2" s="71" t="s">
+        <v>378</v>
+      </c>
+      <c r="K2" s="71" t="s">
+        <v>354</v>
+      </c>
+      <c r="L2" s="71" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" s="75"/>
+      <c r="C4" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" s="75"/>
+      <c r="C5" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" s="18"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="75"/>
+      <c r="C6" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H6" s="18"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="75"/>
+      <c r="C7" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B8" s="75"/>
+      <c r="C8" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9" s="75"/>
+      <c r="C9" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="18"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B10" s="75"/>
+      <c r="C10" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H10" s="21"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="18"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B11" s="75"/>
+      <c r="C11" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="H11" s="21"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="18"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B12" s="75"/>
+      <c r="C12" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="H12" s="21"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="18"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B13" s="75"/>
+      <c r="C13" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="H13" s="21"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="18"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B14" s="75"/>
+      <c r="C14" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="H14" s="21"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B15" s="75"/>
+      <c r="C15" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="H15" s="21"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="18"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B16" s="75"/>
+      <c r="C16" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="H16" s="21"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B17" s="75"/>
+      <c r="C17" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H17" s="21"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="18"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B18" s="75"/>
+      <c r="C18" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="19"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A19" s="65" t="s">
+        <v>141</v>
+      </c>
+      <c r="B19" s="74" t="s">
+        <v>188</v>
+      </c>
+      <c r="C19" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="68"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="63"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A20" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="B20" s="75"/>
+      <c r="C20" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H20" s="21"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="32"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="B21" s="75"/>
+      <c r="C21" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="H21" s="21"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="32"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A22" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="B22" s="75"/>
+      <c r="C22" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="H22" s="21"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="32"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A23" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="B23" s="75"/>
+      <c r="C23" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="H23" s="21"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="32"/>
+    </row>
+    <row r="24" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="B24" s="76"/>
+      <c r="C24" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="H24" s="36"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="44"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A25" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="B25" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="30"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A26" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="B26" s="75"/>
+      <c r="C26" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="32"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A27" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="B27" s="75"/>
+      <c r="C27" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="32"/>
+    </row>
+    <row r="28" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="B28" s="76"/>
+      <c r="C28" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="44"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A29" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="B29" s="72" t="s">
+        <v>199</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" s="39"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="30"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A30" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="B30" s="78"/>
+      <c r="C30" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H30" s="21"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="32"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A31" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="B31" s="78"/>
+      <c r="C31" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="H31" s="21"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="32"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A32" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="B32" s="78"/>
+      <c r="C32" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="H32" s="21"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="32"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A33" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="B33" s="78"/>
+      <c r="C33" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="H33" s="21"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="32"/>
+    </row>
+    <row r="34" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="34" t="s">
+        <v>382</v>
+      </c>
+      <c r="B34" s="73"/>
+      <c r="C34" s="35" t="s">
+        <v>381</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E34" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="44"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A35" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="B35" s="72" t="s">
+        <v>212</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H35" s="39"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="41"/>
+      <c r="L35" s="45"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A36" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="B36" s="78"/>
+      <c r="C36" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="H36" s="21"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="33"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A37" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="B37" s="78"/>
+      <c r="C37" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H37" s="21"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="33"/>
+    </row>
+    <row r="38" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="B38" s="73"/>
+      <c r="C38" s="35" t="s">
+        <v>214</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E38" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="H38" s="36"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="43"/>
+      <c r="L38" s="38"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A39" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="B39" s="72" t="s">
+        <v>222</v>
+      </c>
+      <c r="C39" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H39" s="39"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="30"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A40" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="B40" s="78"/>
+      <c r="C40" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="H40" s="21"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="32"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A41" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="B41" s="78"/>
+      <c r="C41" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H41" s="21"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="32"/>
+    </row>
+    <row r="42" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="34" t="s">
+        <v>357</v>
+      </c>
+      <c r="B42" s="73"/>
+      <c r="C42" s="35" t="s">
+        <v>356</v>
+      </c>
+      <c r="D42" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="E42" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="38"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A43" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="B43" s="72" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D43" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H43" s="40"/>
+      <c r="I43" s="40"/>
+      <c r="J43" s="40"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="30"/>
+    </row>
+    <row r="44" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="B44" s="73"/>
+      <c r="C44" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="H44" s="42"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="42"/>
+      <c r="K44" s="37"/>
+      <c r="L44" s="44"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A47" s="18"/>
+      <c r="B47" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C47" s="2"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A48" s="19"/>
+      <c r="B48" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C48" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="B3:B18"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B29:B34"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="B39:B42"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F63ED509-B1E1-41A9-8B65-4DD4C909A270}">
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D2"/>
+      <selection activeCell="A16" sqref="A16:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2718,43 +4175,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="79" t="s">
         <v>392</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="79" t="s">
         <v>385</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="E1" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="62" t="s">
+      <c r="F1" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="62" t="s">
+      <c r="G1" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="64" t="s">
+      <c r="H1" s="82" t="s">
         <v>384</v>
       </c>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="66"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="84"/>
     </row>
     <row r="2" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
+      <c r="A2" s="79"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
       <c r="H2" s="58" t="s">
         <v>376</v>
       </c>
@@ -2775,7 +4232,7 @@
       <c r="A3" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="81" t="s">
         <v>37</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -2803,7 +4260,7 @@
       <c r="A4" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B4" s="63"/>
+      <c r="B4" s="81"/>
       <c r="C4" s="2" t="s">
         <v>327</v>
       </c>
@@ -2829,7 +4286,7 @@
       <c r="A5" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="B5" s="63"/>
+      <c r="B5" s="81"/>
       <c r="C5" s="14" t="s">
         <v>329</v>
       </c>
@@ -2855,7 +4312,7 @@
       <c r="A6" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="B6" s="63"/>
+      <c r="B6" s="81"/>
       <c r="C6" s="14" t="s">
         <v>331</v>
       </c>
@@ -2881,7 +4338,7 @@
       <c r="A7" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B7" s="63"/>
+      <c r="B7" s="81"/>
       <c r="C7" s="2" t="s">
         <v>332</v>
       </c>
@@ -2907,7 +4364,7 @@
       <c r="A8" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="B8" s="63"/>
+      <c r="B8" s="81"/>
       <c r="C8" s="2" t="s">
         <v>335</v>
       </c>
@@ -2933,7 +4390,7 @@
       <c r="A9" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="B9" s="63"/>
+      <c r="B9" s="81"/>
       <c r="C9" s="2" t="s">
         <v>336</v>
       </c>
@@ -2959,7 +4416,7 @@
       <c r="A10" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="B10" s="63"/>
+      <c r="B10" s="81"/>
       <c r="C10" s="2" t="s">
         <v>339</v>
       </c>
@@ -2985,7 +4442,7 @@
       <c r="A11" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="B11" s="63"/>
+      <c r="B11" s="81"/>
       <c r="C11" s="12" t="s">
         <v>343</v>
       </c>
@@ -3011,7 +4468,7 @@
       <c r="A12" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="B12" s="63"/>
+      <c r="B12" s="81"/>
       <c r="C12" s="12" t="s">
         <v>345</v>
       </c>
@@ -3037,7 +4494,7 @@
       <c r="A13" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="B13" s="63"/>
+      <c r="B13" s="81"/>
       <c r="C13" s="12" t="s">
         <v>346</v>
       </c>
@@ -3063,7 +4520,7 @@
       <c r="A14" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="B14" s="63"/>
+      <c r="B14" s="81"/>
       <c r="C14" s="12" t="s">
         <v>239</v>
       </c>
@@ -3115,18 +4572,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03008E14-5944-437F-A0EC-0A92D058C67D}">
   <dimension ref="A1:L290"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C5" sqref="C5"/>
+      <selection pane="topRight" activeCell="B43" sqref="B43:B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.81640625" customWidth="1"/>
+    <col min="1" max="1" width="10.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.26953125" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.26953125" customWidth="1"/>
@@ -3141,92 +4598,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="57" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="79" t="s">
         <v>392</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="79" t="s">
         <v>385</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="E1" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="62" t="s">
+      <c r="F1" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="62" t="s">
+      <c r="G1" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="64" t="s">
+      <c r="H1" s="80" t="s">
         <v>384</v>
       </c>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="66"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
     </row>
     <row r="2" spans="1:12" s="57" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="58" t="s">
+      <c r="A2" s="79"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="64" t="s">
         <v>376</v>
       </c>
-      <c r="I2" s="58" t="s">
+      <c r="I2" s="64" t="s">
         <v>377</v>
       </c>
-      <c r="J2" s="58" t="s">
+      <c r="J2" s="64" t="s">
         <v>378</v>
       </c>
-      <c r="K2" s="58" t="s">
+      <c r="K2" s="64" t="s">
         <v>354</v>
       </c>
-      <c r="L2" s="58" t="s">
+      <c r="L2" s="64" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="28" t="s">
+      <c r="E3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="30"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B4" s="68"/>
+      <c r="B4" s="75"/>
       <c r="C4" s="11" t="s">
         <v>41</v>
       </c>
@@ -3246,13 +4703,13 @@
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
       <c r="K4" s="18"/>
-      <c r="L4" s="32"/>
+      <c r="L4" s="18"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B5" s="68"/>
+      <c r="B5" s="75"/>
       <c r="C5" s="11" t="s">
         <v>254</v>
       </c>
@@ -3272,13 +4729,13 @@
       <c r="I5" s="19"/>
       <c r="J5" s="19"/>
       <c r="K5" s="19"/>
-      <c r="L5" s="33"/>
+      <c r="L5" s="19"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B6" s="68"/>
+      <c r="B6" s="75"/>
       <c r="C6" s="11" t="s">
         <v>255</v>
       </c>
@@ -3298,13 +4755,13 @@
       <c r="I6" s="19"/>
       <c r="J6" s="19"/>
       <c r="K6" s="19"/>
-      <c r="L6" s="33"/>
+      <c r="L6" s="19"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="68"/>
+      <c r="B7" s="75"/>
       <c r="C7" s="11" t="s">
         <v>241</v>
       </c>
@@ -3324,13 +4781,13 @@
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
       <c r="K7" s="18"/>
-      <c r="L7" s="32"/>
+      <c r="L7" s="18"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B8" s="68"/>
+      <c r="B8" s="75"/>
       <c r="C8" s="11" t="s">
         <v>242</v>
       </c>
@@ -3350,13 +4807,13 @@
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
-      <c r="L8" s="32"/>
+      <c r="L8" s="18"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B9" s="68"/>
+      <c r="B9" s="75"/>
       <c r="C9" s="11" t="s">
         <v>243</v>
       </c>
@@ -3376,13 +4833,13 @@
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
       <c r="K9" s="19"/>
-      <c r="L9" s="32"/>
+      <c r="L9" s="18"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B10" s="68"/>
+      <c r="B10" s="75"/>
       <c r="C10" s="11" t="s">
         <v>256</v>
       </c>
@@ -3402,13 +4859,13 @@
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
       <c r="K10" s="19"/>
-      <c r="L10" s="32"/>
+      <c r="L10" s="18"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B11" s="68"/>
+      <c r="B11" s="75"/>
       <c r="C11" s="11" t="s">
         <v>257</v>
       </c>
@@ -3428,13 +4885,13 @@
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
       <c r="K11" s="19"/>
-      <c r="L11" s="32"/>
+      <c r="L11" s="18"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B12" s="68"/>
+      <c r="B12" s="75"/>
       <c r="C12" s="11" t="s">
         <v>195</v>
       </c>
@@ -3454,13 +4911,13 @@
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
       <c r="K12" s="19"/>
-      <c r="L12" s="32"/>
+      <c r="L12" s="18"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B13" s="68"/>
+      <c r="B13" s="75"/>
       <c r="C13" s="11" t="s">
         <v>208</v>
       </c>
@@ -3480,13 +4937,13 @@
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
       <c r="K13" s="19"/>
-      <c r="L13" s="32"/>
+      <c r="L13" s="18"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B14" s="68"/>
+      <c r="B14" s="75"/>
       <c r="C14" s="11" t="s">
         <v>214</v>
       </c>
@@ -3506,13 +4963,13 @@
       <c r="I14" s="20"/>
       <c r="J14" s="21"/>
       <c r="K14" s="19"/>
-      <c r="L14" s="33"/>
+      <c r="L14" s="19"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B15" s="68"/>
+      <c r="B15" s="75"/>
       <c r="C15" s="11" t="s">
         <v>239</v>
       </c>
@@ -3532,13 +4989,13 @@
       <c r="I15" s="20"/>
       <c r="J15" s="20"/>
       <c r="K15" s="19"/>
-      <c r="L15" s="32"/>
+      <c r="L15" s="18"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B16" s="68"/>
+      <c r="B16" s="75"/>
       <c r="C16" s="11" t="s">
         <v>240</v>
       </c>
@@ -3558,13 +5015,13 @@
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
       <c r="K16" s="18"/>
-      <c r="L16" s="32"/>
+      <c r="L16" s="18"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B17" s="68"/>
+      <c r="B17" s="75"/>
       <c r="C17" s="11" t="s">
         <v>244</v>
       </c>
@@ -3584,67 +5041,67 @@
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
       <c r="K17" s="19"/>
-      <c r="L17" s="32"/>
-    </row>
-    <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="34" t="s">
+      <c r="L17" s="18"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="B18" s="69"/>
-      <c r="C18" s="35" t="s">
+      <c r="B18" s="75"/>
+      <c r="C18" s="11" t="s">
         <v>353</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E18" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="6" t="s">
+      <c r="D18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="38"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="19"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="65" t="s">
         <v>141</v>
       </c>
-      <c r="B19" s="70" t="s">
+      <c r="B19" s="74" t="s">
         <v>188</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="D19" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="5" t="s">
+      <c r="E19" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="H19" s="39"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="30"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="63"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="B20" s="71"/>
+      <c r="B20" s="75"/>
       <c r="C20" s="2" t="s">
         <v>189</v>
       </c>
@@ -3670,7 +5127,7 @@
       <c r="A21" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="B21" s="71"/>
+      <c r="B21" s="75"/>
       <c r="C21" s="11" t="s">
         <v>253</v>
       </c>
@@ -3696,7 +5153,7 @@
       <c r="A22" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="B22" s="71"/>
+      <c r="B22" s="75"/>
       <c r="C22" s="11" t="s">
         <v>193</v>
       </c>
@@ -3722,7 +5179,7 @@
       <c r="A23" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="B23" s="71"/>
+      <c r="B23" s="75"/>
       <c r="C23" s="11" t="s">
         <v>195</v>
       </c>
@@ -3748,7 +5205,7 @@
       <c r="A24" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="B24" s="72"/>
+      <c r="B24" s="76"/>
       <c r="C24" s="35" t="s">
         <v>197</v>
       </c>
@@ -3774,7 +5231,7 @@
       <c r="A25" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="B25" s="70" t="s">
+      <c r="B25" s="77" t="s">
         <v>39</v>
       </c>
       <c r="C25" s="28" t="s">
@@ -3802,7 +5259,7 @@
       <c r="A26" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="B26" s="71"/>
+      <c r="B26" s="75"/>
       <c r="C26" s="2" t="s">
         <v>83</v>
       </c>
@@ -3828,7 +5285,7 @@
       <c r="A27" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="B27" s="71"/>
+      <c r="B27" s="75"/>
       <c r="C27" s="11" t="s">
         <v>84</v>
       </c>
@@ -3854,7 +5311,7 @@
       <c r="A28" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="B28" s="72"/>
+      <c r="B28" s="76"/>
       <c r="C28" s="35" t="s">
         <v>85</v>
       </c>
@@ -3880,7 +5337,7 @@
       <c r="A29" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="B29" s="67" t="s">
+      <c r="B29" s="72" t="s">
         <v>199</v>
       </c>
       <c r="C29" s="28" t="s">
@@ -3908,7 +5365,7 @@
       <c r="A30" s="31" t="s">
         <v>200</v>
       </c>
-      <c r="B30" s="68"/>
+      <c r="B30" s="78"/>
       <c r="C30" s="2" t="s">
         <v>204</v>
       </c>
@@ -3934,7 +5391,7 @@
       <c r="A31" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="B31" s="68"/>
+      <c r="B31" s="78"/>
       <c r="C31" s="11" t="s">
         <v>206</v>
       </c>
@@ -3960,7 +5417,7 @@
       <c r="A32" s="31" t="s">
         <v>202</v>
       </c>
-      <c r="B32" s="68"/>
+      <c r="B32" s="78"/>
       <c r="C32" s="11" t="s">
         <v>207</v>
       </c>
@@ -3986,7 +5443,7 @@
       <c r="A33" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="B33" s="68"/>
+      <c r="B33" s="78"/>
       <c r="C33" s="11" t="s">
         <v>208</v>
       </c>
@@ -4012,7 +5469,7 @@
       <c r="A34" s="34" t="s">
         <v>382</v>
       </c>
-      <c r="B34" s="69"/>
+      <c r="B34" s="73"/>
       <c r="C34" s="35" t="s">
         <v>381</v>
       </c>
@@ -4038,7 +5495,7 @@
       <c r="A35" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="B35" s="67" t="s">
+      <c r="B35" s="72" t="s">
         <v>212</v>
       </c>
       <c r="C35" s="28" t="s">
@@ -4066,7 +5523,7 @@
       <c r="A36" s="31" t="s">
         <v>218</v>
       </c>
-      <c r="B36" s="68"/>
+      <c r="B36" s="78"/>
       <c r="C36" s="2" t="s">
         <v>215</v>
       </c>
@@ -4092,7 +5549,7 @@
       <c r="A37" s="31" t="s">
         <v>219</v>
       </c>
-      <c r="B37" s="68"/>
+      <c r="B37" s="78"/>
       <c r="C37" s="11" t="s">
         <v>213</v>
       </c>
@@ -4118,7 +5575,7 @@
       <c r="A38" s="34" t="s">
         <v>220</v>
       </c>
-      <c r="B38" s="69"/>
+      <c r="B38" s="73"/>
       <c r="C38" s="35" t="s">
         <v>214</v>
       </c>
@@ -4144,7 +5601,7 @@
       <c r="A39" s="27" t="s">
         <v>221</v>
       </c>
-      <c r="B39" s="67" t="s">
+      <c r="B39" s="72" t="s">
         <v>222</v>
       </c>
       <c r="C39" s="28" t="s">
@@ -4172,7 +5629,7 @@
       <c r="A40" s="31" t="s">
         <v>225</v>
       </c>
-      <c r="B40" s="68"/>
+      <c r="B40" s="78"/>
       <c r="C40" s="2" t="s">
         <v>223</v>
       </c>
@@ -4198,7 +5655,7 @@
       <c r="A41" s="31" t="s">
         <v>226</v>
       </c>
-      <c r="B41" s="68"/>
+      <c r="B41" s="78"/>
       <c r="C41" s="11" t="s">
         <v>224</v>
       </c>
@@ -4224,7 +5681,7 @@
       <c r="A42" s="34" t="s">
         <v>357</v>
       </c>
-      <c r="B42" s="69"/>
+      <c r="B42" s="73"/>
       <c r="C42" s="35" t="s">
         <v>356</v>
       </c>
@@ -4250,7 +5707,7 @@
       <c r="A43" s="27" t="s">
         <v>227</v>
       </c>
-      <c r="B43" s="67" t="s">
+      <c r="B43" s="72" t="s">
         <v>82</v>
       </c>
       <c r="C43" s="28" t="s">
@@ -4278,7 +5735,7 @@
       <c r="A44" s="34" t="s">
         <v>228</v>
       </c>
-      <c r="B44" s="69"/>
+      <c r="B44" s="73"/>
       <c r="C44" s="35" t="s">
         <v>91</v>
       </c>
@@ -5065,12 +6522,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DFDA278-35C1-4279-B48C-A37173DDDE59}">
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5089,43 +6546,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="59" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="79" t="s">
         <v>392</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="79" t="s">
         <v>385</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="E1" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="62" t="s">
+      <c r="F1" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="73" t="s">
+      <c r="G1" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="64" t="s">
+      <c r="H1" s="82" t="s">
         <v>384</v>
       </c>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="66"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="84"/>
     </row>
     <row r="2" spans="1:12" s="61" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="73"/>
+      <c r="A2" s="79"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="85"/>
       <c r="H2" s="60" t="s">
         <v>376</v>
       </c>
@@ -5146,7 +6603,7 @@
       <c r="A3" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="88" t="s">
         <v>229</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -5174,7 +6631,7 @@
       <c r="A4" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="B4" s="77"/>
+      <c r="B4" s="89"/>
       <c r="C4" s="2" t="s">
         <v>309</v>
       </c>
@@ -5200,7 +6657,7 @@
       <c r="A5" s="48" t="s">
         <v>151</v>
       </c>
-      <c r="B5" s="77"/>
+      <c r="B5" s="89"/>
       <c r="C5" s="13" t="s">
         <v>232</v>
       </c>
@@ -5226,7 +6683,7 @@
       <c r="A6" s="49" t="s">
         <v>230</v>
       </c>
-      <c r="B6" s="78"/>
+      <c r="B6" s="90"/>
       <c r="C6" s="50" t="s">
         <v>234</v>
       </c>
@@ -5252,7 +6709,7 @@
       <c r="A7" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="86" t="s">
         <v>95</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -5280,7 +6737,7 @@
       <c r="A8" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="B8" s="63"/>
+      <c r="B8" s="81"/>
       <c r="C8" s="2" t="s">
         <v>310</v>
       </c>
@@ -5306,7 +6763,7 @@
       <c r="A9" s="49" t="s">
         <v>231</v>
       </c>
-      <c r="B9" s="75"/>
+      <c r="B9" s="87"/>
       <c r="C9" s="6" t="s">
         <v>84</v>
       </c>
@@ -5332,7 +6789,7 @@
       <c r="A10" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="B10" s="79" t="s">
+      <c r="B10" s="91" t="s">
         <v>96</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -5360,7 +6817,7 @@
       <c r="A11" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="B11" s="80"/>
+      <c r="B11" s="92"/>
       <c r="C11" s="6" t="s">
         <v>311</v>
       </c>
@@ -5386,7 +6843,7 @@
       <c r="A12" s="47" t="s">
         <v>235</v>
       </c>
-      <c r="B12" s="74" t="s">
+      <c r="B12" s="86" t="s">
         <v>98</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -5414,7 +6871,7 @@
       <c r="A13" s="49" t="s">
         <v>236</v>
       </c>
-      <c r="B13" s="75"/>
+      <c r="B13" s="87"/>
       <c r="C13" s="6" t="s">
         <v>312</v>
       </c>
@@ -5469,7 +6926,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8B7960B-2505-4F97-9743-9B5B0A016CB7}">
   <dimension ref="A1:L8"/>
   <sheetViews>
@@ -5493,43 +6950,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="57" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="79" t="s">
         <v>392</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="79" t="s">
         <v>385</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="E1" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="62" t="s">
+      <c r="F1" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="62" t="s">
+      <c r="G1" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="64" t="s">
+      <c r="H1" s="82" t="s">
         <v>384</v>
       </c>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="66"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="84"/>
     </row>
     <row r="2" spans="1:12" s="57" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
+      <c r="A2" s="79"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
       <c r="H2" s="58" t="s">
         <v>376</v>
       </c>
@@ -5550,7 +7007,7 @@
       <c r="A3" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="81" t="s">
         <v>102</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -5578,7 +7035,7 @@
       <c r="A4" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B4" s="63"/>
+      <c r="B4" s="81"/>
       <c r="C4" s="2" t="s">
         <v>306</v>
       </c>
@@ -5604,7 +7061,7 @@
       <c r="A5" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B5" s="63"/>
+      <c r="B5" s="81"/>
       <c r="C5" s="2" t="s">
         <v>307</v>
       </c>
@@ -5640,15 +7097,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="B3:B5"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="B3:B5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5656,7 +7113,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88F06415-23F2-459A-8236-55761A615CC2}">
   <dimension ref="A1:L36"/>
   <sheetViews>
@@ -5684,43 +7141,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="57" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="81" t="s">
+      <c r="C1" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="81" t="s">
+      <c r="D1" s="97" t="s">
         <v>385</v>
       </c>
-      <c r="E1" s="81" t="s">
+      <c r="E1" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="81" t="s">
+      <c r="F1" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="81" t="s">
+      <c r="G1" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="64" t="s">
+      <c r="H1" s="82" t="s">
         <v>384</v>
       </c>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="66"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="84"/>
     </row>
     <row r="2" spans="1:12" s="57" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="87"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
+      <c r="A2" s="98"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
       <c r="H2" s="58" t="s">
         <v>376</v>
       </c>
@@ -5741,7 +7198,7 @@
       <c r="A3" s="47" t="s">
         <v>159</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="91" t="s">
         <v>103</v>
       </c>
       <c r="C3" s="17" t="s">
@@ -5759,17 +7216,17 @@
       <c r="G3" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="93"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="63"/>
     </row>
     <row r="4" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="48" t="s">
         <v>160</v>
       </c>
-      <c r="B4" s="86"/>
+      <c r="B4" s="96"/>
       <c r="C4" s="15" t="s">
         <v>279</v>
       </c>
@@ -5795,7 +7252,7 @@
       <c r="A5" s="48" t="s">
         <v>161</v>
       </c>
-      <c r="B5" s="86"/>
+      <c r="B5" s="96"/>
       <c r="C5" s="15" t="s">
         <v>280</v>
       </c>
@@ -5821,7 +7278,7 @@
       <c r="A6" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="B6" s="86"/>
+      <c r="B6" s="96"/>
       <c r="C6" s="15" t="s">
         <v>107</v>
       </c>
@@ -5847,7 +7304,7 @@
       <c r="A7" s="48" t="s">
         <v>163</v>
       </c>
-      <c r="B7" s="86"/>
+      <c r="B7" s="96"/>
       <c r="C7" s="15" t="s">
         <v>108</v>
       </c>
@@ -5873,7 +7330,7 @@
       <c r="A8" s="48" t="s">
         <v>164</v>
       </c>
-      <c r="B8" s="86"/>
+      <c r="B8" s="96"/>
       <c r="C8" s="15" t="s">
         <v>110</v>
       </c>
@@ -5899,7 +7356,7 @@
       <c r="A9" s="48" t="s">
         <v>165</v>
       </c>
-      <c r="B9" s="86"/>
+      <c r="B9" s="96"/>
       <c r="C9" s="15" t="s">
         <v>112</v>
       </c>
@@ -5925,7 +7382,7 @@
       <c r="A10" s="48" t="s">
         <v>258</v>
       </c>
-      <c r="B10" s="86"/>
+      <c r="B10" s="96"/>
       <c r="C10" s="15" t="s">
         <v>265</v>
       </c>
@@ -5951,7 +7408,7 @@
       <c r="A11" s="48" t="s">
         <v>259</v>
       </c>
-      <c r="B11" s="86"/>
+      <c r="B11" s="96"/>
       <c r="C11" s="15" t="s">
         <v>214</v>
       </c>
@@ -5977,7 +7434,7 @@
       <c r="A12" s="48" t="s">
         <v>260</v>
       </c>
-      <c r="B12" s="86"/>
+      <c r="B12" s="96"/>
       <c r="C12" s="15" t="s">
         <v>208</v>
       </c>
@@ -6003,7 +7460,7 @@
       <c r="A13" s="48" t="s">
         <v>261</v>
       </c>
-      <c r="B13" s="86"/>
+      <c r="B13" s="96"/>
       <c r="C13" s="15" t="s">
         <v>266</v>
       </c>
@@ -6029,7 +7486,7 @@
       <c r="A14" s="48" t="s">
         <v>262</v>
       </c>
-      <c r="B14" s="86"/>
+      <c r="B14" s="96"/>
       <c r="C14" s="15" t="s">
         <v>267</v>
       </c>
@@ -6055,7 +7512,7 @@
       <c r="A15" s="48" t="s">
         <v>263</v>
       </c>
-      <c r="B15" s="86"/>
+      <c r="B15" s="96"/>
       <c r="C15" s="15" t="s">
         <v>276</v>
       </c>
@@ -6081,7 +7538,7 @@
       <c r="A16" s="53" t="s">
         <v>264</v>
       </c>
-      <c r="B16" s="86"/>
+      <c r="B16" s="96"/>
       <c r="C16" s="16" t="s">
         <v>268</v>
       </c>
@@ -6107,7 +7564,7 @@
       <c r="A17" s="53" t="s">
         <v>358</v>
       </c>
-      <c r="B17" s="86"/>
+      <c r="B17" s="96"/>
       <c r="C17" s="16" t="s">
         <v>364</v>
       </c>
@@ -6133,7 +7590,7 @@
       <c r="A18" s="53" t="s">
         <v>359</v>
       </c>
-      <c r="B18" s="86"/>
+      <c r="B18" s="96"/>
       <c r="C18" s="16" t="s">
         <v>365</v>
       </c>
@@ -6159,7 +7616,7 @@
       <c r="A19" s="53" t="s">
         <v>360</v>
       </c>
-      <c r="B19" s="86"/>
+      <c r="B19" s="96"/>
       <c r="C19" s="16" t="s">
         <v>366</v>
       </c>
@@ -6185,7 +7642,7 @@
       <c r="A20" s="53" t="s">
         <v>361</v>
       </c>
-      <c r="B20" s="86"/>
+      <c r="B20" s="96"/>
       <c r="C20" s="16" t="s">
         <v>367</v>
       </c>
@@ -6211,7 +7668,7 @@
       <c r="A21" s="53" t="s">
         <v>362</v>
       </c>
-      <c r="B21" s="86"/>
+      <c r="B21" s="96"/>
       <c r="C21" s="16" t="s">
         <v>368</v>
       </c>
@@ -6237,7 +7694,7 @@
       <c r="A22" s="49" t="s">
         <v>363</v>
       </c>
-      <c r="B22" s="80"/>
+      <c r="B22" s="92"/>
       <c r="C22" s="54" t="s">
         <v>369</v>
       </c>
@@ -6263,7 +7720,7 @@
       <c r="A23" s="47" t="s">
         <v>166</v>
       </c>
-      <c r="B23" s="83" t="s">
+      <c r="B23" s="93" t="s">
         <v>104</v>
       </c>
       <c r="C23" s="51" t="s">
@@ -6291,7 +7748,7 @@
       <c r="A24" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="B24" s="84"/>
+      <c r="B24" s="94"/>
       <c r="C24" s="15" t="s">
         <v>278</v>
       </c>
@@ -6317,7 +7774,7 @@
       <c r="A25" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="B25" s="84"/>
+      <c r="B25" s="94"/>
       <c r="C25" s="25" t="s">
         <v>241</v>
       </c>
@@ -6343,7 +7800,7 @@
       <c r="A26" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="B26" s="84"/>
+      <c r="B26" s="94"/>
       <c r="C26" s="25" t="s">
         <v>242</v>
       </c>
@@ -6369,7 +7826,7 @@
       <c r="A27" s="48" t="s">
         <v>170</v>
       </c>
-      <c r="B27" s="84"/>
+      <c r="B27" s="94"/>
       <c r="C27" s="25" t="s">
         <v>243</v>
       </c>
@@ -6395,7 +7852,7 @@
       <c r="A28" s="48" t="s">
         <v>281</v>
       </c>
-      <c r="B28" s="84"/>
+      <c r="B28" s="94"/>
       <c r="C28" s="25" t="s">
         <v>195</v>
       </c>
@@ -6421,7 +7878,7 @@
       <c r="A29" s="48" t="s">
         <v>282</v>
       </c>
-      <c r="B29" s="84"/>
+      <c r="B29" s="94"/>
       <c r="C29" s="25" t="s">
         <v>208</v>
       </c>
@@ -6447,7 +7904,7 @@
       <c r="A30" s="48" t="s">
         <v>283</v>
       </c>
-      <c r="B30" s="84"/>
+      <c r="B30" s="94"/>
       <c r="C30" s="25" t="s">
         <v>214</v>
       </c>
@@ -6473,7 +7930,7 @@
       <c r="A31" s="48" t="s">
         <v>284</v>
       </c>
-      <c r="B31" s="84"/>
+      <c r="B31" s="94"/>
       <c r="C31" s="25" t="s">
         <v>239</v>
       </c>
@@ -6499,7 +7956,7 @@
       <c r="A32" s="48" t="s">
         <v>285</v>
       </c>
-      <c r="B32" s="84"/>
+      <c r="B32" s="94"/>
       <c r="C32" s="25" t="s">
         <v>240</v>
       </c>
@@ -6525,7 +7982,7 @@
       <c r="A33" s="49" t="s">
         <v>286</v>
       </c>
-      <c r="B33" s="85"/>
+      <c r="B33" s="95"/>
       <c r="C33" s="56" t="s">
         <v>244</v>
       </c>
@@ -6561,16 +8018,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B23:B33"/>
+    <mergeCell ref="B3:B22"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="G1:G2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="B23:B33"/>
-    <mergeCell ref="B3:B22"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6578,7 +8035,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAECE144-BE1B-4622-9D0D-F5BA45155425}">
   <dimension ref="A1:L11"/>
   <sheetViews>
@@ -6602,43 +8059,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="79" t="s">
         <v>385</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="E1" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="62" t="s">
+      <c r="F1" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="62" t="s">
+      <c r="G1" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="64" t="s">
+      <c r="H1" s="82" t="s">
         <v>384</v>
       </c>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="66"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="84"/>
     </row>
     <row r="2" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
+      <c r="A2" s="79"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
       <c r="H2" s="58" t="s">
         <v>376</v>
       </c>
@@ -6659,7 +8116,7 @@
       <c r="A3" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="81" t="s">
         <v>115</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -6687,7 +8144,7 @@
       <c r="A4" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B4" s="63"/>
+      <c r="B4" s="81"/>
       <c r="C4" s="2" t="s">
         <v>302</v>
       </c>
@@ -6713,7 +8170,7 @@
       <c r="A5" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B5" s="63"/>
+      <c r="B5" s="81"/>
       <c r="C5" s="2" t="s">
         <v>298</v>
       </c>
@@ -6739,7 +8196,7 @@
       <c r="A6" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B6" s="91" t="s">
+      <c r="B6" s="100" t="s">
         <v>116</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -6767,7 +8224,7 @@
       <c r="A7" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B7" s="86"/>
+      <c r="B7" s="96"/>
       <c r="C7" s="2" t="s">
         <v>303</v>
       </c>
@@ -6793,7 +8250,7 @@
       <c r="A8" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B8" s="90"/>
+      <c r="B8" s="101"/>
       <c r="C8" s="12" t="s">
         <v>304</v>
       </c>
@@ -6844,217 +8301,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F3A60DC-D61C-470D-A610-5C62CF36157F}">
-  <dimension ref="A1:L9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="11.81640625" customWidth="1"/>
-    <col min="2" max="2" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.6328125" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="75.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.453125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.6328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="62" t="s">
-        <v>392</v>
-      </c>
-      <c r="B1" s="62" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="62" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="62" t="s">
-        <v>385</v>
-      </c>
-      <c r="E1" s="62" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="62" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="64" t="s">
-        <v>384</v>
-      </c>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="66"/>
-    </row>
-    <row r="2" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="58" t="s">
-        <v>376</v>
-      </c>
-      <c r="I2" s="58" t="s">
-        <v>377</v>
-      </c>
-      <c r="J2" s="58" t="s">
-        <v>378</v>
-      </c>
-      <c r="K2" s="58" t="s">
-        <v>354</v>
-      </c>
-      <c r="L2" s="58" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="B3" s="88" t="s">
-        <v>120</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="B6" s="89"/>
-      <c r="C6" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="H6" s="20"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="18"/>
-      <c r="B8" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="21"/>
-      <c r="B9" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="B3:B6"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/src/test/resources/testCases/testCases.xlsx
+++ b/src/test/resources/testCases/testCases.xlsx
@@ -8,26 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\802072\eclipse-workspace1\memberPortalAutomation\src\test\resources\testCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2E5386-9829-45EE-A021-99E163DDB3CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3679A1-C906-4C63-A26B-20498C471D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginCred" sheetId="8" r:id="rId1"/>
     <sheet name="loginSteps" sheetId="2" r:id="rId2"/>
-    <sheet name="benefitsMenu" sheetId="18" r:id="rId3"/>
-    <sheet name="homePage" sheetId="17" r:id="rId4"/>
-    <sheet name="benefitsM" sheetId="3" r:id="rId5"/>
-    <sheet name="myCareMenu" sheetId="10" r:id="rId6"/>
-    <sheet name="claimsMenu" sheetId="12" r:id="rId7"/>
-    <sheet name="resourcesMenu" sheetId="13" r:id="rId8"/>
-    <sheet name="grievancesMenu" sheetId="14" r:id="rId9"/>
-    <sheet name="comCenterMenu" sheetId="15" r:id="rId10"/>
-    <sheet name="myAccountMenu" sheetId="16" r:id="rId11"/>
+    <sheet name="homePage" sheetId="17" r:id="rId3"/>
+    <sheet name="benefitsMenu" sheetId="18" r:id="rId4"/>
+    <sheet name="myCareMenu" sheetId="10" r:id="rId5"/>
+    <sheet name="claimsMenu" sheetId="12" r:id="rId6"/>
+    <sheet name="resourcesMenu" sheetId="13" r:id="rId7"/>
+    <sheet name="grievancesMenu" sheetId="14" r:id="rId8"/>
+    <sheet name="comCenterMenu" sheetId="15" r:id="rId9"/>
+    <sheet name="myAccountMenu" sheetId="16" r:id="rId10"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">benefitsM!$L$3:$L$44</definedName>
-  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="393">
   <si>
     <t>Welcome1!</t>
   </si>
@@ -1583,7 +1579,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1704,9 +1700,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -2097,7 +2090,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2302,219 +2295,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F3A60DC-D61C-470D-A610-5C62CF36157F}">
-  <dimension ref="A1:L9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="11.81640625" customWidth="1"/>
-    <col min="2" max="2" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.6328125" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="75.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.453125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.6328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="79" t="s">
-        <v>392</v>
-      </c>
-      <c r="B1" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="79" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="79" t="s">
-        <v>385</v>
-      </c>
-      <c r="E1" s="79" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="79" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="82" t="s">
-        <v>384</v>
-      </c>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="84"/>
-    </row>
-    <row r="2" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="79"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="58" t="s">
-        <v>376</v>
-      </c>
-      <c r="I2" s="58" t="s">
-        <v>377</v>
-      </c>
-      <c r="J2" s="58" t="s">
-        <v>378</v>
-      </c>
-      <c r="K2" s="58" t="s">
-        <v>354</v>
-      </c>
-      <c r="L2" s="58" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="B3" s="102" t="s">
-        <v>120</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="H6" s="20"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="18"/>
-      <c r="B8" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="21"/>
-      <c r="B9" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC29656-CD64-47D3-AADF-26100711AB2B}">
   <dimension ref="A1:L10"/>
   <sheetViews>
@@ -2537,43 +2317,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="78" t="s">
         <v>392</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="C1" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="79" t="s">
+      <c r="D1" s="78" t="s">
         <v>385</v>
       </c>
-      <c r="E1" s="79" t="s">
+      <c r="E1" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="79" t="s">
+      <c r="F1" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="79" t="s">
+      <c r="G1" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="82" t="s">
+      <c r="H1" s="81" t="s">
         <v>384</v>
       </c>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="84"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="83"/>
     </row>
     <row r="2" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="79"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
+      <c r="A2" s="78"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
       <c r="H2" s="58" t="s">
         <v>376</v>
       </c>
@@ -2594,7 +2374,7 @@
       <c r="A3" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="B3" s="91" t="s">
+      <c r="B3" s="90" t="s">
         <v>123</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -2622,7 +2402,7 @@
       <c r="A4" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="B4" s="96"/>
+      <c r="B4" s="95"/>
       <c r="C4" s="2" t="s">
         <v>297</v>
       </c>
@@ -2648,7 +2428,7 @@
       <c r="A5" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="B5" s="96"/>
+      <c r="B5" s="95"/>
       <c r="C5" s="2" t="s">
         <v>127</v>
       </c>
@@ -2674,7 +2454,7 @@
       <c r="A6" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="B6" s="96"/>
+      <c r="B6" s="95"/>
       <c r="C6" s="2" t="s">
         <v>129</v>
       </c>
@@ -2700,7 +2480,7 @@
       <c r="A7" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="B7" s="101"/>
+      <c r="B7" s="100"/>
       <c r="C7" s="12" t="s">
         <v>128</v>
       </c>
@@ -2941,10 +2721,431 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F63ED509-B1E1-41A9-8B65-4DD4C909A270}">
+  <dimension ref="A1:L17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.6328125" customWidth="1"/>
+    <col min="4" max="4" width="11.08984375" customWidth="1"/>
+    <col min="5" max="5" width="6.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="68.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="78" t="s">
+        <v>392</v>
+      </c>
+      <c r="B1" s="78" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="78" t="s">
+        <v>385</v>
+      </c>
+      <c r="E1" s="78" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="81" t="s">
+        <v>384</v>
+      </c>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="83"/>
+    </row>
+    <row r="2" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="78"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="58" t="s">
+        <v>376</v>
+      </c>
+      <c r="I2" s="58" t="s">
+        <v>377</v>
+      </c>
+      <c r="J2" s="58" t="s">
+        <v>378</v>
+      </c>
+      <c r="K2" s="58" t="s">
+        <v>354</v>
+      </c>
+      <c r="L2" s="58" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B3" s="80" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+    </row>
+    <row r="4" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B4" s="80"/>
+      <c r="C4" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+    </row>
+    <row r="5" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B5" s="80"/>
+      <c r="C5" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+    </row>
+    <row r="6" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B6" s="80"/>
+      <c r="C6" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B7" s="80"/>
+      <c r="C7" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B8" s="80"/>
+      <c r="C8" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B9" s="80"/>
+      <c r="C9" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B10" s="80"/>
+      <c r="C10" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B11" s="80"/>
+      <c r="C11" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="H11" s="20"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B12" s="80"/>
+      <c r="C12" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="H12" s="20"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B13" s="80"/>
+      <c r="C13" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="H13" s="20"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B14" s="80"/>
+      <c r="C14" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="H14" s="21"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" s="18"/>
+      <c r="B16" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="21"/>
+      <c r="B17" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B3:B14"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08B0791E-32C6-46CB-BCBB-5262F832F992}">
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
@@ -2956,56 +3157,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="78" t="s">
         <v>392</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="C1" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="79" t="s">
+      <c r="D1" s="78" t="s">
         <v>385</v>
       </c>
-      <c r="E1" s="79" t="s">
+      <c r="E1" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="79" t="s">
+      <c r="F1" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="79" t="s">
+      <c r="G1" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="80" t="s">
+      <c r="H1" s="79" t="s">
         <v>384</v>
       </c>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
     </row>
     <row r="2" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="79"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="71" t="s">
+      <c r="A2" s="78"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="70" t="s">
         <v>376</v>
       </c>
-      <c r="I2" s="71" t="s">
+      <c r="I2" s="70" t="s">
         <v>377</v>
       </c>
-      <c r="J2" s="71" t="s">
+      <c r="J2" s="70" t="s">
         <v>378</v>
       </c>
-      <c r="K2" s="71" t="s">
+      <c r="K2" s="70" t="s">
         <v>354</v>
       </c>
-      <c r="L2" s="71" t="s">
+      <c r="L2" s="70" t="s">
         <v>379</v>
       </c>
     </row>
@@ -3013,7 +3214,7 @@
       <c r="A3" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="74" t="s">
         <v>38</v>
       </c>
       <c r="C3" s="11" t="s">
@@ -3041,7 +3242,7 @@
       <c r="A4" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B4" s="75"/>
+      <c r="B4" s="74"/>
       <c r="C4" s="11" t="s">
         <v>41</v>
       </c>
@@ -3067,7 +3268,7 @@
       <c r="A5" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B5" s="75"/>
+      <c r="B5" s="74"/>
       <c r="C5" s="11" t="s">
         <v>254</v>
       </c>
@@ -3093,7 +3294,7 @@
       <c r="A6" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B6" s="75"/>
+      <c r="B6" s="74"/>
       <c r="C6" s="11" t="s">
         <v>255</v>
       </c>
@@ -3119,7 +3320,7 @@
       <c r="A7" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="75"/>
+      <c r="B7" s="74"/>
       <c r="C7" s="11" t="s">
         <v>241</v>
       </c>
@@ -3145,7 +3346,7 @@
       <c r="A8" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B8" s="75"/>
+      <c r="B8" s="74"/>
       <c r="C8" s="11" t="s">
         <v>242</v>
       </c>
@@ -3171,7 +3372,7 @@
       <c r="A9" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B9" s="75"/>
+      <c r="B9" s="74"/>
       <c r="C9" s="11" t="s">
         <v>243</v>
       </c>
@@ -3197,7 +3398,7 @@
       <c r="A10" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B10" s="75"/>
+      <c r="B10" s="74"/>
       <c r="C10" s="11" t="s">
         <v>256</v>
       </c>
@@ -3223,7 +3424,7 @@
       <c r="A11" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B11" s="75"/>
+      <c r="B11" s="74"/>
       <c r="C11" s="11" t="s">
         <v>257</v>
       </c>
@@ -3249,7 +3450,7 @@
       <c r="A12" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B12" s="75"/>
+      <c r="B12" s="74"/>
       <c r="C12" s="11" t="s">
         <v>195</v>
       </c>
@@ -3275,7 +3476,7 @@
       <c r="A13" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B13" s="75"/>
+      <c r="B13" s="74"/>
       <c r="C13" s="11" t="s">
         <v>208</v>
       </c>
@@ -3301,7 +3502,7 @@
       <c r="A14" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B14" s="75"/>
+      <c r="B14" s="74"/>
       <c r="C14" s="11" t="s">
         <v>214</v>
       </c>
@@ -3327,7 +3528,7 @@
       <c r="A15" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B15" s="75"/>
+      <c r="B15" s="74"/>
       <c r="C15" s="11" t="s">
         <v>239</v>
       </c>
@@ -3353,7 +3554,7 @@
       <c r="A16" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B16" s="75"/>
+      <c r="B16" s="74"/>
       <c r="C16" s="11" t="s">
         <v>240</v>
       </c>
@@ -3379,7 +3580,7 @@
       <c r="A17" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B17" s="75"/>
+      <c r="B17" s="74"/>
       <c r="C17" s="11" t="s">
         <v>244</v>
       </c>
@@ -3405,7 +3606,7 @@
       <c r="A18" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="B18" s="75"/>
+      <c r="B18" s="74"/>
       <c r="C18" s="11" t="s">
         <v>353</v>
       </c>
@@ -3428,38 +3629,38 @@
       <c r="L18" s="19"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A19" s="65" t="s">
+      <c r="A19" s="64" t="s">
         <v>141</v>
       </c>
-      <c r="B19" s="74" t="s">
+      <c r="B19" s="73" t="s">
         <v>188</v>
       </c>
-      <c r="C19" s="66" t="s">
+      <c r="C19" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="66" t="s">
+      <c r="D19" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="66" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="67" t="s">
+      <c r="E19" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="H19" s="68"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="70"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="69"/>
       <c r="L19" s="63"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="B20" s="75"/>
+      <c r="B20" s="74"/>
       <c r="C20" s="2" t="s">
         <v>189</v>
       </c>
@@ -3485,7 +3686,7 @@
       <c r="A21" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="B21" s="75"/>
+      <c r="B21" s="74"/>
       <c r="C21" s="11" t="s">
         <v>253</v>
       </c>
@@ -3511,7 +3712,7 @@
       <c r="A22" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="B22" s="75"/>
+      <c r="B22" s="74"/>
       <c r="C22" s="11" t="s">
         <v>193</v>
       </c>
@@ -3537,7 +3738,7 @@
       <c r="A23" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="B23" s="75"/>
+      <c r="B23" s="74"/>
       <c r="C23" s="11" t="s">
         <v>195</v>
       </c>
@@ -3563,7 +3764,7 @@
       <c r="A24" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="B24" s="76"/>
+      <c r="B24" s="75"/>
       <c r="C24" s="35" t="s">
         <v>197</v>
       </c>
@@ -3589,7 +3790,7 @@
       <c r="A25" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="B25" s="77" t="s">
+      <c r="B25" s="76" t="s">
         <v>39</v>
       </c>
       <c r="C25" s="28" t="s">
@@ -3617,7 +3818,7 @@
       <c r="A26" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="B26" s="75"/>
+      <c r="B26" s="74"/>
       <c r="C26" s="2" t="s">
         <v>83</v>
       </c>
@@ -3643,7 +3844,7 @@
       <c r="A27" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="B27" s="75"/>
+      <c r="B27" s="74"/>
       <c r="C27" s="11" t="s">
         <v>84</v>
       </c>
@@ -3669,7 +3870,7 @@
       <c r="A28" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="B28" s="76"/>
+      <c r="B28" s="75"/>
       <c r="C28" s="35" t="s">
         <v>85</v>
       </c>
@@ -3695,7 +3896,7 @@
       <c r="A29" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="B29" s="72" t="s">
+      <c r="B29" s="71" t="s">
         <v>199</v>
       </c>
       <c r="C29" s="28" t="s">
@@ -3723,7 +3924,7 @@
       <c r="A30" s="31" t="s">
         <v>200</v>
       </c>
-      <c r="B30" s="78"/>
+      <c r="B30" s="77"/>
       <c r="C30" s="2" t="s">
         <v>204</v>
       </c>
@@ -3749,7 +3950,7 @@
       <c r="A31" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="B31" s="78"/>
+      <c r="B31" s="77"/>
       <c r="C31" s="11" t="s">
         <v>206</v>
       </c>
@@ -3775,7 +3976,7 @@
       <c r="A32" s="31" t="s">
         <v>202</v>
       </c>
-      <c r="B32" s="78"/>
+      <c r="B32" s="77"/>
       <c r="C32" s="11" t="s">
         <v>207</v>
       </c>
@@ -3801,7 +4002,7 @@
       <c r="A33" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="B33" s="78"/>
+      <c r="B33" s="77"/>
       <c r="C33" s="11" t="s">
         <v>208</v>
       </c>
@@ -3827,7 +4028,7 @@
       <c r="A34" s="34" t="s">
         <v>382</v>
       </c>
-      <c r="B34" s="73"/>
+      <c r="B34" s="72"/>
       <c r="C34" s="35" t="s">
         <v>381</v>
       </c>
@@ -3853,7 +4054,7 @@
       <c r="A35" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="B35" s="72" t="s">
+      <c r="B35" s="71" t="s">
         <v>212</v>
       </c>
       <c r="C35" s="28" t="s">
@@ -3881,7 +4082,7 @@
       <c r="A36" s="31" t="s">
         <v>218</v>
       </c>
-      <c r="B36" s="78"/>
+      <c r="B36" s="77"/>
       <c r="C36" s="2" t="s">
         <v>215</v>
       </c>
@@ -3907,7 +4108,7 @@
       <c r="A37" s="31" t="s">
         <v>219</v>
       </c>
-      <c r="B37" s="78"/>
+      <c r="B37" s="77"/>
       <c r="C37" s="11" t="s">
         <v>213</v>
       </c>
@@ -3933,7 +4134,7 @@
       <c r="A38" s="34" t="s">
         <v>220</v>
       </c>
-      <c r="B38" s="73"/>
+      <c r="B38" s="72"/>
       <c r="C38" s="35" t="s">
         <v>214</v>
       </c>
@@ -3959,7 +4160,7 @@
       <c r="A39" s="27" t="s">
         <v>221</v>
       </c>
-      <c r="B39" s="72" t="s">
+      <c r="B39" s="71" t="s">
         <v>222</v>
       </c>
       <c r="C39" s="28" t="s">
@@ -3987,7 +4188,7 @@
       <c r="A40" s="31" t="s">
         <v>225</v>
       </c>
-      <c r="B40" s="78"/>
+      <c r="B40" s="77"/>
       <c r="C40" s="2" t="s">
         <v>223</v>
       </c>
@@ -4013,7 +4214,7 @@
       <c r="A41" s="31" t="s">
         <v>226</v>
       </c>
-      <c r="B41" s="78"/>
+      <c r="B41" s="77"/>
       <c r="C41" s="11" t="s">
         <v>224</v>
       </c>
@@ -4039,7 +4240,7 @@
       <c r="A42" s="34" t="s">
         <v>357</v>
       </c>
-      <c r="B42" s="73"/>
+      <c r="B42" s="72"/>
       <c r="C42" s="35" t="s">
         <v>356</v>
       </c>
@@ -4065,7 +4266,7 @@
       <c r="A43" s="27" t="s">
         <v>227</v>
       </c>
-      <c r="B43" s="72" t="s">
+      <c r="B43" s="71" t="s">
         <v>82</v>
       </c>
       <c r="C43" s="28" t="s">
@@ -4093,7 +4294,7 @@
       <c r="A44" s="34" t="s">
         <v>228</v>
       </c>
-      <c r="B44" s="73"/>
+      <c r="B44" s="72"/>
       <c r="C44" s="35" t="s">
         <v>91</v>
       </c>
@@ -4151,2378 +4352,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F63ED509-B1E1-41A9-8B65-4DD4C909A270}">
-  <dimension ref="A1:L17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:B17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.6328125" customWidth="1"/>
-    <col min="4" max="4" width="11.08984375" customWidth="1"/>
-    <col min="5" max="5" width="6.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="68.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.453125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.6328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="79" t="s">
-        <v>392</v>
-      </c>
-      <c r="B1" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="79" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="79" t="s">
-        <v>385</v>
-      </c>
-      <c r="E1" s="79" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="79" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="82" t="s">
-        <v>384</v>
-      </c>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="84"/>
-    </row>
-    <row r="2" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="79"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="58" t="s">
-        <v>376</v>
-      </c>
-      <c r="I2" s="58" t="s">
-        <v>377</v>
-      </c>
-      <c r="J2" s="58" t="s">
-        <v>378</v>
-      </c>
-      <c r="K2" s="58" t="s">
-        <v>354</v>
-      </c>
-      <c r="L2" s="58" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="B3" s="81" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-    </row>
-    <row r="4" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-    </row>
-    <row r="5" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="14" t="s">
-        <v>329</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>328</v>
-      </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-    </row>
-    <row r="6" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="14" t="s">
-        <v>331</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="B7" s="81"/>
-      <c r="C7" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>333</v>
-      </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="B9" s="81"/>
-      <c r="C9" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="B10" s="81"/>
-      <c r="C10" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="B11" s="81"/>
-      <c r="C11" s="12" t="s">
-        <v>343</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="H11" s="20"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="B12" s="81"/>
-      <c r="C12" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="H12" s="20"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="B13" s="81"/>
-      <c r="C13" s="12" t="s">
-        <v>346</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="H13" s="20"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="B14" s="81"/>
-      <c r="C14" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="H14" s="21"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" s="18"/>
-      <c r="B16" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="21"/>
-      <c r="B17" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B3:B14"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03008E14-5944-437F-A0EC-0A92D058C67D}">
-  <dimension ref="A1:L290"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B43" sqref="B43:B44"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.26953125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.26953125" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="79.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.453125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.54296875" style="7" customWidth="1"/>
-    <col min="11" max="11" width="8.81640625" customWidth="1"/>
-    <col min="12" max="12" width="5.1796875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" s="57" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="79" t="s">
-        <v>392</v>
-      </c>
-      <c r="B1" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="79" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="79" t="s">
-        <v>385</v>
-      </c>
-      <c r="E1" s="79" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="79" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="80" t="s">
-        <v>384</v>
-      </c>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-    </row>
-    <row r="2" spans="1:12" s="57" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="79"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="64" t="s">
-        <v>376</v>
-      </c>
-      <c r="I2" s="64" t="s">
-        <v>377</v>
-      </c>
-      <c r="J2" s="64" t="s">
-        <v>378</v>
-      </c>
-      <c r="K2" s="64" t="s">
-        <v>354</v>
-      </c>
-      <c r="L2" s="64" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B3" s="75" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B6" s="75"/>
-      <c r="C6" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B7" s="75"/>
-      <c r="C7" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B8" s="75"/>
-      <c r="C8" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B9" s="75"/>
-      <c r="C9" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="18"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="B10" s="75"/>
-      <c r="C10" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="H10" s="21"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="18"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="B11" s="75"/>
-      <c r="C11" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="H11" s="21"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="18"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="B12" s="75"/>
-      <c r="C12" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="H12" s="21"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="18"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="B13" s="75"/>
-      <c r="C13" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="H13" s="21"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="18"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="B14" s="75"/>
-      <c r="C14" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="H14" s="21"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="B15" s="75"/>
-      <c r="C15" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="H15" s="21"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="18"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="B16" s="75"/>
-      <c r="C16" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="H16" s="21"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="B17" s="75"/>
-      <c r="C17" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="H17" s="21"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="18"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="B18" s="75"/>
-      <c r="C18" s="11" t="s">
-        <v>353</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="19"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A19" s="65" t="s">
-        <v>141</v>
-      </c>
-      <c r="B19" s="74" t="s">
-        <v>188</v>
-      </c>
-      <c r="C19" s="66" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="66" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="67" t="s">
-        <v>23</v>
-      </c>
-      <c r="H19" s="68"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="70"/>
-      <c r="L19" s="63"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A20" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="B20" s="75"/>
-      <c r="C20" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="H20" s="21"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="32"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A21" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="B21" s="75"/>
-      <c r="C21" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="H21" s="21"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="32"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A22" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="B22" s="75"/>
-      <c r="C22" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="H22" s="21"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="32"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A23" s="31" t="s">
-        <v>186</v>
-      </c>
-      <c r="B23" s="75"/>
-      <c r="C23" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="H23" s="21"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="32"/>
-    </row>
-    <row r="24" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="34" t="s">
-        <v>187</v>
-      </c>
-      <c r="B24" s="76"/>
-      <c r="C24" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E24" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="H24" s="36"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="44"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A25" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="B25" s="77" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="30"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A26" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="B26" s="75"/>
-      <c r="C26" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="32"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A27" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="B27" s="75"/>
-      <c r="C27" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="32"/>
-    </row>
-    <row r="28" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="B28" s="76"/>
-      <c r="C28" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="44"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A29" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="B29" s="72" t="s">
-        <v>199</v>
-      </c>
-      <c r="C29" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E29" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H29" s="39"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="30"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A30" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="B30" s="78"/>
-      <c r="C30" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="H30" s="21"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="32"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A31" s="31" t="s">
-        <v>201</v>
-      </c>
-      <c r="B31" s="78"/>
-      <c r="C31" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="H31" s="21"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="32"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A32" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="B32" s="78"/>
-      <c r="C32" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="H32" s="21"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="32"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A33" s="31" t="s">
-        <v>203</v>
-      </c>
-      <c r="B33" s="78"/>
-      <c r="C33" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="H33" s="21"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="32"/>
-    </row>
-    <row r="34" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="34" t="s">
-        <v>382</v>
-      </c>
-      <c r="B34" s="73"/>
-      <c r="C34" s="35" t="s">
-        <v>381</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E34" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="43"/>
-      <c r="L34" s="44"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A35" s="27" t="s">
-        <v>211</v>
-      </c>
-      <c r="B35" s="72" t="s">
-        <v>212</v>
-      </c>
-      <c r="C35" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="D35" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E35" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H35" s="39"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="39"/>
-      <c r="K35" s="41"/>
-      <c r="L35" s="45"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A36" s="31" t="s">
-        <v>218</v>
-      </c>
-      <c r="B36" s="78"/>
-      <c r="C36" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="H36" s="21"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="33"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A37" s="31" t="s">
-        <v>219</v>
-      </c>
-      <c r="B37" s="78"/>
-      <c r="C37" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="H37" s="21"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="33"/>
-    </row>
-    <row r="38" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="34" t="s">
-        <v>220</v>
-      </c>
-      <c r="B38" s="73"/>
-      <c r="C38" s="35" t="s">
-        <v>214</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E38" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="H38" s="36"/>
-      <c r="I38" s="42"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="43"/>
-      <c r="L38" s="38"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A39" s="27" t="s">
-        <v>221</v>
-      </c>
-      <c r="B39" s="72" t="s">
-        <v>222</v>
-      </c>
-      <c r="C39" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="D39" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E39" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F39" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H39" s="39"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="29"/>
-      <c r="L39" s="30"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A40" s="31" t="s">
-        <v>225</v>
-      </c>
-      <c r="B40" s="78"/>
-      <c r="C40" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="H40" s="21"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="32"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A41" s="31" t="s">
-        <v>226</v>
-      </c>
-      <c r="B41" s="78"/>
-      <c r="C41" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H41" s="21"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="32"/>
-    </row>
-    <row r="42" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="34" t="s">
-        <v>357</v>
-      </c>
-      <c r="B42" s="73"/>
-      <c r="C42" s="35" t="s">
-        <v>356</v>
-      </c>
-      <c r="D42" s="46" t="s">
-        <v>87</v>
-      </c>
-      <c r="E42" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="H42" s="36"/>
-      <c r="I42" s="36"/>
-      <c r="J42" s="36"/>
-      <c r="K42" s="37"/>
-      <c r="L42" s="38"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A43" s="27" t="s">
-        <v>227</v>
-      </c>
-      <c r="B43" s="72" t="s">
-        <v>82</v>
-      </c>
-      <c r="C43" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="D43" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E43" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H43" s="40"/>
-      <c r="I43" s="40"/>
-      <c r="J43" s="40"/>
-      <c r="K43" s="29"/>
-      <c r="L43" s="30"/>
-    </row>
-    <row r="44" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="34" t="s">
-        <v>228</v>
-      </c>
-      <c r="B44" s="73"/>
-      <c r="C44" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="D44" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="E44" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="H44" s="42"/>
-      <c r="I44" s="42"/>
-      <c r="J44" s="42"/>
-      <c r="K44" s="37"/>
-      <c r="L44" s="44"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A46" s="18"/>
-      <c r="B46" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A47" s="21"/>
-      <c r="B47" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B48"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B49"/>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B50"/>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B51"/>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B52"/>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B53"/>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B54"/>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B55"/>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B56"/>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B57"/>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B58"/>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B59"/>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B60"/>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B61"/>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B62"/>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B63"/>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B64"/>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B65"/>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B66"/>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B67"/>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B68"/>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B69"/>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B70"/>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B71"/>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B72"/>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B73"/>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B74"/>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B75"/>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B76"/>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B77"/>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B78"/>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B79"/>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B80"/>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B81"/>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B82"/>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B83"/>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B84"/>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B85"/>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B86"/>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B87"/>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B88"/>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B89"/>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B90"/>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B91"/>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B92"/>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B93"/>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B94"/>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B95"/>
-    </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B96"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B97"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B98"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B99"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B100"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B101"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B102"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B103"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B104"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B105"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B106"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B107"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B108"/>
-    </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B109"/>
-    </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B110"/>
-    </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B111"/>
-    </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B112"/>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B113"/>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B114"/>
-    </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B115"/>
-    </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B116"/>
-    </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B117"/>
-    </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B118"/>
-    </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B119"/>
-    </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B120"/>
-    </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B121"/>
-    </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B122"/>
-    </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B123"/>
-    </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B124"/>
-    </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B125"/>
-    </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B126"/>
-    </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B127"/>
-    </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B128"/>
-    </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B129"/>
-    </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B130"/>
-    </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B131"/>
-    </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B132"/>
-    </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B133"/>
-    </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B134"/>
-    </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B135"/>
-    </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B136"/>
-    </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B137"/>
-    </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B138"/>
-    </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B139"/>
-    </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B140"/>
-    </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B141"/>
-    </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B142"/>
-    </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B143"/>
-    </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B144"/>
-    </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B145"/>
-    </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B146"/>
-    </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B147"/>
-    </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B148"/>
-    </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B149"/>
-    </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B150"/>
-    </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B151"/>
-    </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B152"/>
-    </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B153"/>
-    </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B154"/>
-    </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B155"/>
-    </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B156"/>
-    </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B157"/>
-    </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B158"/>
-    </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B159"/>
-    </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B160"/>
-    </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B161"/>
-    </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B162"/>
-    </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B163"/>
-    </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B164"/>
-    </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B165"/>
-    </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B166"/>
-    </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B167"/>
-    </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B168"/>
-    </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B169"/>
-    </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B170"/>
-    </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B171"/>
-    </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B172"/>
-    </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B173"/>
-    </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B174"/>
-    </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B175"/>
-    </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B176"/>
-    </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B177"/>
-    </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B178"/>
-    </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B179"/>
-    </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B180"/>
-    </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B181"/>
-    </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B182"/>
-    </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B183"/>
-    </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B184"/>
-    </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B185"/>
-    </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B186"/>
-    </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B187"/>
-    </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B188"/>
-    </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B189"/>
-    </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B190"/>
-    </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B191"/>
-    </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B192"/>
-    </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B193"/>
-    </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B194"/>
-    </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B195"/>
-    </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B196"/>
-    </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B197"/>
-    </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B198"/>
-    </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B199"/>
-    </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B200"/>
-    </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B201"/>
-    </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B202"/>
-    </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B203"/>
-    </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B204"/>
-    </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B205"/>
-    </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B206"/>
-    </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B207"/>
-    </row>
-    <row r="208" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B208"/>
-    </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B209"/>
-    </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B210"/>
-    </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B211"/>
-    </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B212"/>
-    </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B213"/>
-    </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B214"/>
-    </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B215"/>
-    </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B216"/>
-    </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B217"/>
-    </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B218"/>
-    </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B219"/>
-    </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B220"/>
-    </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B221"/>
-    </row>
-    <row r="222" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B222"/>
-    </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B223"/>
-    </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B224"/>
-    </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B225"/>
-    </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B226"/>
-    </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B227"/>
-    </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B228"/>
-    </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B229"/>
-    </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B230"/>
-    </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B231"/>
-    </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B232"/>
-    </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B233"/>
-    </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B234"/>
-    </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B235"/>
-    </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B236"/>
-    </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B237"/>
-    </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B238"/>
-    </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B239"/>
-    </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B240"/>
-    </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B241"/>
-    </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B242"/>
-    </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B243"/>
-    </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B244"/>
-    </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B245"/>
-    </row>
-    <row r="246" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B246"/>
-    </row>
-    <row r="247" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B247"/>
-    </row>
-    <row r="248" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B248"/>
-    </row>
-    <row r="249" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B249"/>
-    </row>
-    <row r="250" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B250"/>
-    </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B251"/>
-    </row>
-    <row r="252" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B252"/>
-    </row>
-    <row r="253" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B253"/>
-    </row>
-    <row r="254" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B254"/>
-    </row>
-    <row r="255" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B255"/>
-    </row>
-    <row r="256" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B256"/>
-    </row>
-    <row r="257" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B257"/>
-    </row>
-    <row r="258" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B258"/>
-    </row>
-    <row r="259" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B259"/>
-    </row>
-    <row r="260" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B260"/>
-    </row>
-    <row r="261" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B261"/>
-    </row>
-    <row r="262" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B262"/>
-    </row>
-    <row r="263" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B263"/>
-    </row>
-    <row r="264" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B264"/>
-    </row>
-    <row r="265" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B265"/>
-    </row>
-    <row r="266" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B266"/>
-    </row>
-    <row r="267" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B267"/>
-    </row>
-    <row r="268" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B268"/>
-    </row>
-    <row r="269" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B269"/>
-    </row>
-    <row r="270" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B270"/>
-    </row>
-    <row r="271" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B271"/>
-    </row>
-    <row r="272" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B272"/>
-    </row>
-    <row r="273" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B273"/>
-    </row>
-    <row r="274" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B274"/>
-    </row>
-    <row r="275" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B275"/>
-    </row>
-    <row r="276" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B276"/>
-    </row>
-    <row r="277" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B277"/>
-    </row>
-    <row r="278" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B278"/>
-    </row>
-    <row r="279" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B279"/>
-    </row>
-    <row r="280" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B280"/>
-    </row>
-    <row r="281" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B281"/>
-    </row>
-    <row r="282" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B282"/>
-    </row>
-    <row r="283" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B283"/>
-    </row>
-    <row r="284" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B284"/>
-    </row>
-    <row r="285" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B285"/>
-    </row>
-    <row r="286" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B286"/>
-    </row>
-    <row r="287" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B287"/>
-    </row>
-    <row r="288" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B288"/>
-    </row>
-    <row r="289" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B289"/>
-    </row>
-    <row r="290" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B290"/>
-    </row>
-  </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="B3:B18"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="B29:B34"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DFDA278-35C1-4279-B48C-A37173DDDE59}">
   <dimension ref="A1:L16"/>
   <sheetViews>
@@ -6546,43 +4376,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="59" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="78" t="s">
         <v>392</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="85" t="s">
+      <c r="C1" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="79" t="s">
+      <c r="D1" s="78" t="s">
         <v>385</v>
       </c>
-      <c r="E1" s="79" t="s">
+      <c r="E1" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="79" t="s">
+      <c r="F1" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="85" t="s">
+      <c r="G1" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="82" t="s">
+      <c r="H1" s="81" t="s">
         <v>384</v>
       </c>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="84"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="83"/>
     </row>
     <row r="2" spans="1:12" s="61" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="79"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="85"/>
+      <c r="A2" s="78"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="84"/>
       <c r="H2" s="60" t="s">
         <v>376</v>
       </c>
@@ -6603,7 +4433,7 @@
       <c r="A3" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="87" t="s">
         <v>229</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -6631,7 +4461,7 @@
       <c r="A4" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="B4" s="89"/>
+      <c r="B4" s="88"/>
       <c r="C4" s="2" t="s">
         <v>309</v>
       </c>
@@ -6657,7 +4487,7 @@
       <c r="A5" s="48" t="s">
         <v>151</v>
       </c>
-      <c r="B5" s="89"/>
+      <c r="B5" s="88"/>
       <c r="C5" s="13" t="s">
         <v>232</v>
       </c>
@@ -6683,7 +4513,7 @@
       <c r="A6" s="49" t="s">
         <v>230</v>
       </c>
-      <c r="B6" s="90"/>
+      <c r="B6" s="89"/>
       <c r="C6" s="50" t="s">
         <v>234</v>
       </c>
@@ -6709,7 +4539,7 @@
       <c r="A7" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="B7" s="86" t="s">
+      <c r="B7" s="85" t="s">
         <v>95</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -6737,7 +4567,7 @@
       <c r="A8" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="B8" s="81"/>
+      <c r="B8" s="80"/>
       <c r="C8" s="2" t="s">
         <v>310</v>
       </c>
@@ -6763,7 +4593,7 @@
       <c r="A9" s="49" t="s">
         <v>231</v>
       </c>
-      <c r="B9" s="87"/>
+      <c r="B9" s="86"/>
       <c r="C9" s="6" t="s">
         <v>84</v>
       </c>
@@ -6789,7 +4619,7 @@
       <c r="A10" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="B10" s="91" t="s">
+      <c r="B10" s="90" t="s">
         <v>96</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -6817,7 +4647,7 @@
       <c r="A11" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="B11" s="92"/>
+      <c r="B11" s="91"/>
       <c r="C11" s="6" t="s">
         <v>311</v>
       </c>
@@ -6843,7 +4673,7 @@
       <c r="A12" s="47" t="s">
         <v>235</v>
       </c>
-      <c r="B12" s="86" t="s">
+      <c r="B12" s="85" t="s">
         <v>98</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -6871,7 +4701,7 @@
       <c r="A13" s="49" t="s">
         <v>236</v>
       </c>
-      <c r="B13" s="87"/>
+      <c r="B13" s="86"/>
       <c r="C13" s="6" t="s">
         <v>312</v>
       </c>
@@ -6926,7 +4756,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8B7960B-2505-4F97-9743-9B5B0A016CB7}">
   <dimension ref="A1:L8"/>
   <sheetViews>
@@ -6950,43 +4780,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="57" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="78" t="s">
         <v>392</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="C1" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="79" t="s">
+      <c r="D1" s="78" t="s">
         <v>385</v>
       </c>
-      <c r="E1" s="79" t="s">
+      <c r="E1" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="79" t="s">
+      <c r="F1" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="79" t="s">
+      <c r="G1" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="82" t="s">
+      <c r="H1" s="81" t="s">
         <v>384</v>
       </c>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="84"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="83"/>
     </row>
     <row r="2" spans="1:12" s="57" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="79"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
+      <c r="A2" s="78"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
       <c r="H2" s="58" t="s">
         <v>376</v>
       </c>
@@ -7007,7 +4837,7 @@
       <c r="A3" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="80" t="s">
         <v>102</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -7035,7 +4865,7 @@
       <c r="A4" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B4" s="81"/>
+      <c r="B4" s="80"/>
       <c r="C4" s="2" t="s">
         <v>306</v>
       </c>
@@ -7061,7 +4891,7 @@
       <c r="A5" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B5" s="81"/>
+      <c r="B5" s="80"/>
       <c r="C5" s="2" t="s">
         <v>307</v>
       </c>
@@ -7113,7 +4943,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88F06415-23F2-459A-8236-55761A615CC2}">
   <dimension ref="A1:L36"/>
   <sheetViews>
@@ -7141,43 +4971,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="57" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="97" t="s">
+      <c r="C1" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="D1" s="96" t="s">
         <v>385</v>
       </c>
-      <c r="E1" s="97" t="s">
+      <c r="E1" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="97" t="s">
+      <c r="F1" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="97" t="s">
+      <c r="G1" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="82" t="s">
+      <c r="H1" s="81" t="s">
         <v>384</v>
       </c>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="84"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="83"/>
     </row>
     <row r="2" spans="1:12" s="57" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="98"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
+      <c r="A2" s="97"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
       <c r="H2" s="58" t="s">
         <v>376</v>
       </c>
@@ -7198,7 +5028,7 @@
       <c r="A3" s="47" t="s">
         <v>159</v>
       </c>
-      <c r="B3" s="91" t="s">
+      <c r="B3" s="90" t="s">
         <v>103</v>
       </c>
       <c r="C3" s="17" t="s">
@@ -7226,7 +5056,7 @@
       <c r="A4" s="48" t="s">
         <v>160</v>
       </c>
-      <c r="B4" s="96"/>
+      <c r="B4" s="95"/>
       <c r="C4" s="15" t="s">
         <v>279</v>
       </c>
@@ -7252,7 +5082,7 @@
       <c r="A5" s="48" t="s">
         <v>161</v>
       </c>
-      <c r="B5" s="96"/>
+      <c r="B5" s="95"/>
       <c r="C5" s="15" t="s">
         <v>280</v>
       </c>
@@ -7278,7 +5108,7 @@
       <c r="A6" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="B6" s="96"/>
+      <c r="B6" s="95"/>
       <c r="C6" s="15" t="s">
         <v>107</v>
       </c>
@@ -7304,7 +5134,7 @@
       <c r="A7" s="48" t="s">
         <v>163</v>
       </c>
-      <c r="B7" s="96"/>
+      <c r="B7" s="95"/>
       <c r="C7" s="15" t="s">
         <v>108</v>
       </c>
@@ -7330,7 +5160,7 @@
       <c r="A8" s="48" t="s">
         <v>164</v>
       </c>
-      <c r="B8" s="96"/>
+      <c r="B8" s="95"/>
       <c r="C8" s="15" t="s">
         <v>110</v>
       </c>
@@ -7356,7 +5186,7 @@
       <c r="A9" s="48" t="s">
         <v>165</v>
       </c>
-      <c r="B9" s="96"/>
+      <c r="B9" s="95"/>
       <c r="C9" s="15" t="s">
         <v>112</v>
       </c>
@@ -7382,7 +5212,7 @@
       <c r="A10" s="48" t="s">
         <v>258</v>
       </c>
-      <c r="B10" s="96"/>
+      <c r="B10" s="95"/>
       <c r="C10" s="15" t="s">
         <v>265</v>
       </c>
@@ -7408,7 +5238,7 @@
       <c r="A11" s="48" t="s">
         <v>259</v>
       </c>
-      <c r="B11" s="96"/>
+      <c r="B11" s="95"/>
       <c r="C11" s="15" t="s">
         <v>214</v>
       </c>
@@ -7434,7 +5264,7 @@
       <c r="A12" s="48" t="s">
         <v>260</v>
       </c>
-      <c r="B12" s="96"/>
+      <c r="B12" s="95"/>
       <c r="C12" s="15" t="s">
         <v>208</v>
       </c>
@@ -7460,7 +5290,7 @@
       <c r="A13" s="48" t="s">
         <v>261</v>
       </c>
-      <c r="B13" s="96"/>
+      <c r="B13" s="95"/>
       <c r="C13" s="15" t="s">
         <v>266</v>
       </c>
@@ -7486,7 +5316,7 @@
       <c r="A14" s="48" t="s">
         <v>262</v>
       </c>
-      <c r="B14" s="96"/>
+      <c r="B14" s="95"/>
       <c r="C14" s="15" t="s">
         <v>267</v>
       </c>
@@ -7512,7 +5342,7 @@
       <c r="A15" s="48" t="s">
         <v>263</v>
       </c>
-      <c r="B15" s="96"/>
+      <c r="B15" s="95"/>
       <c r="C15" s="15" t="s">
         <v>276</v>
       </c>
@@ -7538,7 +5368,7 @@
       <c r="A16" s="53" t="s">
         <v>264</v>
       </c>
-      <c r="B16" s="96"/>
+      <c r="B16" s="95"/>
       <c r="C16" s="16" t="s">
         <v>268</v>
       </c>
@@ -7564,7 +5394,7 @@
       <c r="A17" s="53" t="s">
         <v>358</v>
       </c>
-      <c r="B17" s="96"/>
+      <c r="B17" s="95"/>
       <c r="C17" s="16" t="s">
         <v>364</v>
       </c>
@@ -7590,7 +5420,7 @@
       <c r="A18" s="53" t="s">
         <v>359</v>
       </c>
-      <c r="B18" s="96"/>
+      <c r="B18" s="95"/>
       <c r="C18" s="16" t="s">
         <v>365</v>
       </c>
@@ -7616,7 +5446,7 @@
       <c r="A19" s="53" t="s">
         <v>360</v>
       </c>
-      <c r="B19" s="96"/>
+      <c r="B19" s="95"/>
       <c r="C19" s="16" t="s">
         <v>366</v>
       </c>
@@ -7642,7 +5472,7 @@
       <c r="A20" s="53" t="s">
         <v>361</v>
       </c>
-      <c r="B20" s="96"/>
+      <c r="B20" s="95"/>
       <c r="C20" s="16" t="s">
         <v>367</v>
       </c>
@@ -7668,7 +5498,7 @@
       <c r="A21" s="53" t="s">
         <v>362</v>
       </c>
-      <c r="B21" s="96"/>
+      <c r="B21" s="95"/>
       <c r="C21" s="16" t="s">
         <v>368</v>
       </c>
@@ -7694,7 +5524,7 @@
       <c r="A22" s="49" t="s">
         <v>363</v>
       </c>
-      <c r="B22" s="92"/>
+      <c r="B22" s="91"/>
       <c r="C22" s="54" t="s">
         <v>369</v>
       </c>
@@ -7720,7 +5550,7 @@
       <c r="A23" s="47" t="s">
         <v>166</v>
       </c>
-      <c r="B23" s="93" t="s">
+      <c r="B23" s="92" t="s">
         <v>104</v>
       </c>
       <c r="C23" s="51" t="s">
@@ -7748,7 +5578,7 @@
       <c r="A24" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="B24" s="94"/>
+      <c r="B24" s="93"/>
       <c r="C24" s="15" t="s">
         <v>278</v>
       </c>
@@ -7774,7 +5604,7 @@
       <c r="A25" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="B25" s="94"/>
+      <c r="B25" s="93"/>
       <c r="C25" s="25" t="s">
         <v>241</v>
       </c>
@@ -7800,7 +5630,7 @@
       <c r="A26" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="B26" s="94"/>
+      <c r="B26" s="93"/>
       <c r="C26" s="25" t="s">
         <v>242</v>
       </c>
@@ -7826,7 +5656,7 @@
       <c r="A27" s="48" t="s">
         <v>170</v>
       </c>
-      <c r="B27" s="94"/>
+      <c r="B27" s="93"/>
       <c r="C27" s="25" t="s">
         <v>243</v>
       </c>
@@ -7852,7 +5682,7 @@
       <c r="A28" s="48" t="s">
         <v>281</v>
       </c>
-      <c r="B28" s="94"/>
+      <c r="B28" s="93"/>
       <c r="C28" s="25" t="s">
         <v>195</v>
       </c>
@@ -7878,7 +5708,7 @@
       <c r="A29" s="48" t="s">
         <v>282</v>
       </c>
-      <c r="B29" s="94"/>
+      <c r="B29" s="93"/>
       <c r="C29" s="25" t="s">
         <v>208</v>
       </c>
@@ -7904,7 +5734,7 @@
       <c r="A30" s="48" t="s">
         <v>283</v>
       </c>
-      <c r="B30" s="94"/>
+      <c r="B30" s="93"/>
       <c r="C30" s="25" t="s">
         <v>214</v>
       </c>
@@ -7930,7 +5760,7 @@
       <c r="A31" s="48" t="s">
         <v>284</v>
       </c>
-      <c r="B31" s="94"/>
+      <c r="B31" s="93"/>
       <c r="C31" s="25" t="s">
         <v>239</v>
       </c>
@@ -7956,7 +5786,7 @@
       <c r="A32" s="48" t="s">
         <v>285</v>
       </c>
-      <c r="B32" s="94"/>
+      <c r="B32" s="93"/>
       <c r="C32" s="25" t="s">
         <v>240</v>
       </c>
@@ -7982,7 +5812,7 @@
       <c r="A33" s="49" t="s">
         <v>286</v>
       </c>
-      <c r="B33" s="95"/>
+      <c r="B33" s="94"/>
       <c r="C33" s="56" t="s">
         <v>244</v>
       </c>
@@ -8035,7 +5865,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAECE144-BE1B-4622-9D0D-F5BA45155425}">
   <dimension ref="A1:L11"/>
   <sheetViews>
@@ -8059,43 +5889,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="C1" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="79" t="s">
+      <c r="D1" s="78" t="s">
         <v>385</v>
       </c>
-      <c r="E1" s="79" t="s">
+      <c r="E1" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="79" t="s">
+      <c r="F1" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="79" t="s">
+      <c r="G1" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="82" t="s">
+      <c r="H1" s="81" t="s">
         <v>384</v>
       </c>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="84"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="83"/>
     </row>
     <row r="2" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="79"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
+      <c r="A2" s="78"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
       <c r="H2" s="58" t="s">
         <v>376</v>
       </c>
@@ -8116,7 +5946,7 @@
       <c r="A3" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="80" t="s">
         <v>115</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -8144,7 +5974,7 @@
       <c r="A4" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B4" s="81"/>
+      <c r="B4" s="80"/>
       <c r="C4" s="2" t="s">
         <v>302</v>
       </c>
@@ -8170,7 +6000,7 @@
       <c r="A5" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B5" s="81"/>
+      <c r="B5" s="80"/>
       <c r="C5" s="2" t="s">
         <v>298</v>
       </c>
@@ -8196,7 +6026,7 @@
       <c r="A6" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B6" s="100" t="s">
+      <c r="B6" s="99" t="s">
         <v>116</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -8224,7 +6054,7 @@
       <c r="A7" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B7" s="96"/>
+      <c r="B7" s="95"/>
       <c r="C7" s="2" t="s">
         <v>303</v>
       </c>
@@ -8250,7 +6080,7 @@
       <c r="A8" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B8" s="101"/>
+      <c r="B8" s="100"/>
       <c r="C8" s="12" t="s">
         <v>304</v>
       </c>
@@ -8301,4 +6131,217 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F3A60DC-D61C-470D-A610-5C62CF36157F}">
+  <dimension ref="A1:L9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.81640625" customWidth="1"/>
+    <col min="2" max="2" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.6328125" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="75.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" s="78" t="s">
+        <v>392</v>
+      </c>
+      <c r="B1" s="78" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="78" t="s">
+        <v>385</v>
+      </c>
+      <c r="E1" s="78" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="81" t="s">
+        <v>384</v>
+      </c>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="83"/>
+    </row>
+    <row r="2" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="78"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="58" t="s">
+        <v>376</v>
+      </c>
+      <c r="I2" s="58" t="s">
+        <v>377</v>
+      </c>
+      <c r="J2" s="58" t="s">
+        <v>378</v>
+      </c>
+      <c r="K2" s="58" t="s">
+        <v>354</v>
+      </c>
+      <c r="L2" s="58" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3" s="101" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" s="77"/>
+      <c r="C4" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="B5" s="77"/>
+      <c r="C5" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="B6" s="73"/>
+      <c r="C6" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H6" s="20"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="18"/>
+      <c r="B8" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="21"/>
+      <c r="B9" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/test/resources/testCases/testCases.xlsx
+++ b/src/test/resources/testCases/testCases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\802072\eclipse-workspace1\memberPortalAutomation\src\test\resources\testCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3679A1-C906-4C63-A26B-20498C471D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A3044E-F918-410D-9CCC-C7B884F2AEF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginCred" sheetId="8" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="401">
   <si>
     <t>Welcome1!</t>
   </si>
@@ -1213,6 +1213,30 @@
   </si>
   <si>
     <t>Test Step ID</t>
+  </si>
+  <si>
+    <t>Click Rewards Program View Details Link</t>
+  </si>
+  <si>
+    <t>HP0113</t>
+  </si>
+  <si>
+    <t>//body/div[@class='QSISlider SI_6LszIRnZhItizxY_SliderContainer']/div[1]</t>
+  </si>
+  <si>
+    <t>Click Feedback Slider</t>
+  </si>
+  <si>
+    <t>Slider</t>
+  </si>
+  <si>
+    <t>HP0114</t>
+  </si>
+  <si>
+    <t>//img[@src='https://siteintercept.qualtrics.com/static/q-siteintercept/~/img/bwc_close.png']</t>
+  </si>
+  <si>
+    <t>Click Close Slider</t>
   </si>
 </sst>
 </file>
@@ -1713,6 +1737,21 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1734,22 +1773,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2089,8 +2113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8EDD40F-2BD8-4E62-917E-AC253D884951}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2317,43 +2341,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="71" t="s">
         <v>392</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="78" t="s">
+      <c r="C1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="78" t="s">
+      <c r="D1" s="71" t="s">
         <v>385</v>
       </c>
-      <c r="E1" s="78" t="s">
+      <c r="E1" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="78" t="s">
+      <c r="F1" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="78" t="s">
+      <c r="G1" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="81" t="s">
+      <c r="H1" s="72" t="s">
         <v>384</v>
       </c>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="83"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="74"/>
     </row>
     <row r="2" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="78"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
       <c r="H2" s="58" t="s">
         <v>376</v>
       </c>
@@ -2722,10 +2746,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F63ED509-B1E1-41A9-8B65-4DD4C909A270}">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2744,43 +2768,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="71" t="s">
         <v>392</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="78" t="s">
+      <c r="C1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="78" t="s">
+      <c r="D1" s="71" t="s">
         <v>385</v>
       </c>
-      <c r="E1" s="78" t="s">
+      <c r="E1" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="78" t="s">
+      <c r="F1" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="78" t="s">
+      <c r="G1" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="81" t="s">
+      <c r="H1" s="72" t="s">
         <v>384</v>
       </c>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="83"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="74"/>
     </row>
     <row r="2" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="78"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
       <c r="H2" s="58" t="s">
         <v>376</v>
       </c>
@@ -2801,7 +2825,7 @@
       <c r="A3" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="75" t="s">
         <v>37</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -2829,7 +2853,7 @@
       <c r="A4" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B4" s="80"/>
+      <c r="B4" s="75"/>
       <c r="C4" s="2" t="s">
         <v>327</v>
       </c>
@@ -2855,7 +2879,7 @@
       <c r="A5" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="B5" s="80"/>
+      <c r="B5" s="75"/>
       <c r="C5" s="14" t="s">
         <v>329</v>
       </c>
@@ -2881,7 +2905,7 @@
       <c r="A6" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="B6" s="80"/>
+      <c r="B6" s="75"/>
       <c r="C6" s="14" t="s">
         <v>331</v>
       </c>
@@ -2907,7 +2931,7 @@
       <c r="A7" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B7" s="80"/>
+      <c r="B7" s="75"/>
       <c r="C7" s="2" t="s">
         <v>332</v>
       </c>
@@ -2933,7 +2957,7 @@
       <c r="A8" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="B8" s="80"/>
+      <c r="B8" s="75"/>
       <c r="C8" s="2" t="s">
         <v>335</v>
       </c>
@@ -2959,7 +2983,7 @@
       <c r="A9" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="B9" s="80"/>
+      <c r="B9" s="75"/>
       <c r="C9" s="2" t="s">
         <v>336</v>
       </c>
@@ -2985,7 +3009,7 @@
       <c r="A10" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="B10" s="80"/>
+      <c r="B10" s="75"/>
       <c r="C10" s="2" t="s">
         <v>339</v>
       </c>
@@ -3011,7 +3035,7 @@
       <c r="A11" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="B11" s="80"/>
+      <c r="B11" s="75"/>
       <c r="C11" s="12" t="s">
         <v>343</v>
       </c>
@@ -3037,7 +3061,7 @@
       <c r="A12" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="B12" s="80"/>
+      <c r="B12" s="75"/>
       <c r="C12" s="12" t="s">
         <v>345</v>
       </c>
@@ -3063,7 +3087,7 @@
       <c r="A13" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="B13" s="80"/>
+      <c r="B13" s="75"/>
       <c r="C13" s="12" t="s">
         <v>346</v>
       </c>
@@ -3089,9 +3113,9 @@
       <c r="A14" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="B14" s="80"/>
+      <c r="B14" s="75"/>
       <c r="C14" s="12" t="s">
-        <v>239</v>
+        <v>393</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>87</v>
@@ -3111,22 +3135,74 @@
       <c r="K14" s="18"/>
       <c r="L14" s="18"/>
     </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B15" s="75"/>
+      <c r="C15" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="H15" s="20"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+    </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" s="18"/>
-      <c r="B16" s="2" t="s">
+      <c r="A16" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B16" s="75"/>
+      <c r="C16" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="18"/>
+      <c r="B18" s="2" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="21"/>
-      <c r="B17" s="2" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="21"/>
+      <c r="B19" s="2" t="s">
         <v>387</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B3:B16"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B3:B14"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="F1:F2"/>
@@ -3157,43 +3233,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="71" t="s">
         <v>392</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="78" t="s">
+      <c r="C1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="78" t="s">
+      <c r="D1" s="71" t="s">
         <v>385</v>
       </c>
-      <c r="E1" s="78" t="s">
+      <c r="E1" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="78" t="s">
+      <c r="F1" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="78" t="s">
+      <c r="G1" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="79" t="s">
+      <c r="H1" s="83" t="s">
         <v>384</v>
       </c>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
     </row>
     <row r="2" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="78"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
       <c r="H2" s="70" t="s">
         <v>376</v>
       </c>
@@ -3214,7 +3290,7 @@
       <c r="A3" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="79" t="s">
         <v>38</v>
       </c>
       <c r="C3" s="11" t="s">
@@ -3242,7 +3318,7 @@
       <c r="A4" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B4" s="74"/>
+      <c r="B4" s="79"/>
       <c r="C4" s="11" t="s">
         <v>41</v>
       </c>
@@ -3268,7 +3344,7 @@
       <c r="A5" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B5" s="74"/>
+      <c r="B5" s="79"/>
       <c r="C5" s="11" t="s">
         <v>254</v>
       </c>
@@ -3294,7 +3370,7 @@
       <c r="A6" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B6" s="74"/>
+      <c r="B6" s="79"/>
       <c r="C6" s="11" t="s">
         <v>255</v>
       </c>
@@ -3320,7 +3396,7 @@
       <c r="A7" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="74"/>
+      <c r="B7" s="79"/>
       <c r="C7" s="11" t="s">
         <v>241</v>
       </c>
@@ -3346,7 +3422,7 @@
       <c r="A8" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B8" s="74"/>
+      <c r="B8" s="79"/>
       <c r="C8" s="11" t="s">
         <v>242</v>
       </c>
@@ -3372,7 +3448,7 @@
       <c r="A9" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B9" s="74"/>
+      <c r="B9" s="79"/>
       <c r="C9" s="11" t="s">
         <v>243</v>
       </c>
@@ -3398,7 +3474,7 @@
       <c r="A10" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B10" s="74"/>
+      <c r="B10" s="79"/>
       <c r="C10" s="11" t="s">
         <v>256</v>
       </c>
@@ -3424,7 +3500,7 @@
       <c r="A11" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B11" s="74"/>
+      <c r="B11" s="79"/>
       <c r="C11" s="11" t="s">
         <v>257</v>
       </c>
@@ -3450,7 +3526,7 @@
       <c r="A12" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B12" s="74"/>
+      <c r="B12" s="79"/>
       <c r="C12" s="11" t="s">
         <v>195</v>
       </c>
@@ -3476,7 +3552,7 @@
       <c r="A13" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B13" s="74"/>
+      <c r="B13" s="79"/>
       <c r="C13" s="11" t="s">
         <v>208</v>
       </c>
@@ -3502,7 +3578,7 @@
       <c r="A14" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B14" s="74"/>
+      <c r="B14" s="79"/>
       <c r="C14" s="11" t="s">
         <v>214</v>
       </c>
@@ -3528,7 +3604,7 @@
       <c r="A15" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B15" s="74"/>
+      <c r="B15" s="79"/>
       <c r="C15" s="11" t="s">
         <v>239</v>
       </c>
@@ -3554,7 +3630,7 @@
       <c r="A16" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B16" s="74"/>
+      <c r="B16" s="79"/>
       <c r="C16" s="11" t="s">
         <v>240</v>
       </c>
@@ -3580,7 +3656,7 @@
       <c r="A17" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B17" s="74"/>
+      <c r="B17" s="79"/>
       <c r="C17" s="11" t="s">
         <v>244</v>
       </c>
@@ -3606,7 +3682,7 @@
       <c r="A18" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="B18" s="74"/>
+      <c r="B18" s="79"/>
       <c r="C18" s="11" t="s">
         <v>353</v>
       </c>
@@ -3632,7 +3708,7 @@
       <c r="A19" s="64" t="s">
         <v>141</v>
       </c>
-      <c r="B19" s="73" t="s">
+      <c r="B19" s="78" t="s">
         <v>188</v>
       </c>
       <c r="C19" s="65" t="s">
@@ -3660,7 +3736,7 @@
       <c r="A20" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="B20" s="74"/>
+      <c r="B20" s="79"/>
       <c r="C20" s="2" t="s">
         <v>189</v>
       </c>
@@ -3686,7 +3762,7 @@
       <c r="A21" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="B21" s="74"/>
+      <c r="B21" s="79"/>
       <c r="C21" s="11" t="s">
         <v>253</v>
       </c>
@@ -3712,7 +3788,7 @@
       <c r="A22" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="B22" s="74"/>
+      <c r="B22" s="79"/>
       <c r="C22" s="11" t="s">
         <v>193</v>
       </c>
@@ -3738,7 +3814,7 @@
       <c r="A23" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="B23" s="74"/>
+      <c r="B23" s="79"/>
       <c r="C23" s="11" t="s">
         <v>195</v>
       </c>
@@ -3764,7 +3840,7 @@
       <c r="A24" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="B24" s="75"/>
+      <c r="B24" s="80"/>
       <c r="C24" s="35" t="s">
         <v>197</v>
       </c>
@@ -3790,7 +3866,7 @@
       <c r="A25" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="B25" s="76" t="s">
+      <c r="B25" s="81" t="s">
         <v>39</v>
       </c>
       <c r="C25" s="28" t="s">
@@ -3818,7 +3894,7 @@
       <c r="A26" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="B26" s="74"/>
+      <c r="B26" s="79"/>
       <c r="C26" s="2" t="s">
         <v>83</v>
       </c>
@@ -3844,7 +3920,7 @@
       <c r="A27" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="B27" s="74"/>
+      <c r="B27" s="79"/>
       <c r="C27" s="11" t="s">
         <v>84</v>
       </c>
@@ -3870,7 +3946,7 @@
       <c r="A28" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="B28" s="75"/>
+      <c r="B28" s="80"/>
       <c r="C28" s="35" t="s">
         <v>85</v>
       </c>
@@ -3896,7 +3972,7 @@
       <c r="A29" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="B29" s="71" t="s">
+      <c r="B29" s="76" t="s">
         <v>199</v>
       </c>
       <c r="C29" s="28" t="s">
@@ -3924,7 +4000,7 @@
       <c r="A30" s="31" t="s">
         <v>200</v>
       </c>
-      <c r="B30" s="77"/>
+      <c r="B30" s="82"/>
       <c r="C30" s="2" t="s">
         <v>204</v>
       </c>
@@ -3950,7 +4026,7 @@
       <c r="A31" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="B31" s="77"/>
+      <c r="B31" s="82"/>
       <c r="C31" s="11" t="s">
         <v>206</v>
       </c>
@@ -3976,7 +4052,7 @@
       <c r="A32" s="31" t="s">
         <v>202</v>
       </c>
-      <c r="B32" s="77"/>
+      <c r="B32" s="82"/>
       <c r="C32" s="11" t="s">
         <v>207</v>
       </c>
@@ -4002,7 +4078,7 @@
       <c r="A33" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="B33" s="77"/>
+      <c r="B33" s="82"/>
       <c r="C33" s="11" t="s">
         <v>208</v>
       </c>
@@ -4028,7 +4104,7 @@
       <c r="A34" s="34" t="s">
         <v>382</v>
       </c>
-      <c r="B34" s="72"/>
+      <c r="B34" s="77"/>
       <c r="C34" s="35" t="s">
         <v>381</v>
       </c>
@@ -4054,7 +4130,7 @@
       <c r="A35" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="B35" s="71" t="s">
+      <c r="B35" s="76" t="s">
         <v>212</v>
       </c>
       <c r="C35" s="28" t="s">
@@ -4082,7 +4158,7 @@
       <c r="A36" s="31" t="s">
         <v>218</v>
       </c>
-      <c r="B36" s="77"/>
+      <c r="B36" s="82"/>
       <c r="C36" s="2" t="s">
         <v>215</v>
       </c>
@@ -4108,7 +4184,7 @@
       <c r="A37" s="31" t="s">
         <v>219</v>
       </c>
-      <c r="B37" s="77"/>
+      <c r="B37" s="82"/>
       <c r="C37" s="11" t="s">
         <v>213</v>
       </c>
@@ -4134,7 +4210,7 @@
       <c r="A38" s="34" t="s">
         <v>220</v>
       </c>
-      <c r="B38" s="72"/>
+      <c r="B38" s="77"/>
       <c r="C38" s="35" t="s">
         <v>214</v>
       </c>
@@ -4160,7 +4236,7 @@
       <c r="A39" s="27" t="s">
         <v>221</v>
       </c>
-      <c r="B39" s="71" t="s">
+      <c r="B39" s="76" t="s">
         <v>222</v>
       </c>
       <c r="C39" s="28" t="s">
@@ -4188,7 +4264,7 @@
       <c r="A40" s="31" t="s">
         <v>225</v>
       </c>
-      <c r="B40" s="77"/>
+      <c r="B40" s="82"/>
       <c r="C40" s="2" t="s">
         <v>223</v>
       </c>
@@ -4214,7 +4290,7 @@
       <c r="A41" s="31" t="s">
         <v>226</v>
       </c>
-      <c r="B41" s="77"/>
+      <c r="B41" s="82"/>
       <c r="C41" s="11" t="s">
         <v>224</v>
       </c>
@@ -4240,7 +4316,7 @@
       <c r="A42" s="34" t="s">
         <v>357</v>
       </c>
-      <c r="B42" s="72"/>
+      <c r="B42" s="77"/>
       <c r="C42" s="35" t="s">
         <v>356</v>
       </c>
@@ -4266,7 +4342,7 @@
       <c r="A43" s="27" t="s">
         <v>227</v>
       </c>
-      <c r="B43" s="71" t="s">
+      <c r="B43" s="76" t="s">
         <v>82</v>
       </c>
       <c r="C43" s="28" t="s">
@@ -4294,7 +4370,7 @@
       <c r="A44" s="34" t="s">
         <v>228</v>
       </c>
-      <c r="B44" s="72"/>
+      <c r="B44" s="77"/>
       <c r="C44" s="35" t="s">
         <v>91</v>
       </c>
@@ -4376,42 +4452,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="59" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="71" t="s">
         <v>392</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="71" t="s">
         <v>21</v>
       </c>
       <c r="C1" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="78" t="s">
+      <c r="D1" s="71" t="s">
         <v>385</v>
       </c>
-      <c r="E1" s="78" t="s">
+      <c r="E1" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="78" t="s">
+      <c r="F1" s="71" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="81" t="s">
+      <c r="H1" s="72" t="s">
         <v>384</v>
       </c>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="83"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="74"/>
     </row>
     <row r="2" spans="1:12" s="61" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="78"/>
-      <c r="B2" s="78"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
       <c r="C2" s="84"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="84"/>
       <c r="H2" s="60" t="s">
         <v>376</v>
@@ -4567,7 +4643,7 @@
       <c r="A8" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="B8" s="80"/>
+      <c r="B8" s="75"/>
       <c r="C8" s="2" t="s">
         <v>310</v>
       </c>
@@ -4780,43 +4856,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="57" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="71" t="s">
         <v>392</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="78" t="s">
+      <c r="C1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="78" t="s">
+      <c r="D1" s="71" t="s">
         <v>385</v>
       </c>
-      <c r="E1" s="78" t="s">
+      <c r="E1" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="78" t="s">
+      <c r="F1" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="78" t="s">
+      <c r="G1" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="81" t="s">
+      <c r="H1" s="72" t="s">
         <v>384</v>
       </c>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="83"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="74"/>
     </row>
     <row r="2" spans="1:12" s="57" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="78"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
       <c r="H2" s="58" t="s">
         <v>376</v>
       </c>
@@ -4837,7 +4913,7 @@
       <c r="A3" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="75" t="s">
         <v>102</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -4865,7 +4941,7 @@
       <c r="A4" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B4" s="80"/>
+      <c r="B4" s="75"/>
       <c r="C4" s="2" t="s">
         <v>306</v>
       </c>
@@ -4891,7 +4967,7 @@
       <c r="A5" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B5" s="80"/>
+      <c r="B5" s="75"/>
       <c r="C5" s="2" t="s">
         <v>307</v>
       </c>
@@ -4992,13 +5068,13 @@
       <c r="G1" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="81" t="s">
+      <c r="H1" s="72" t="s">
         <v>384</v>
       </c>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="83"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="74"/>
     </row>
     <row r="2" spans="1:12" s="57" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="97"/>
@@ -5889,43 +5965,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="78" t="s">
+      <c r="C1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="78" t="s">
+      <c r="D1" s="71" t="s">
         <v>385</v>
       </c>
-      <c r="E1" s="78" t="s">
+      <c r="E1" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="78" t="s">
+      <c r="F1" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="78" t="s">
+      <c r="G1" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="81" t="s">
+      <c r="H1" s="72" t="s">
         <v>384</v>
       </c>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="83"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="74"/>
     </row>
     <row r="2" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="78"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
       <c r="H2" s="58" t="s">
         <v>376</v>
       </c>
@@ -5946,7 +6022,7 @@
       <c r="A3" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="75" t="s">
         <v>115</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -5974,7 +6050,7 @@
       <c r="A4" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B4" s="80"/>
+      <c r="B4" s="75"/>
       <c r="C4" s="2" t="s">
         <v>302</v>
       </c>
@@ -6000,7 +6076,7 @@
       <c r="A5" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B5" s="80"/>
+      <c r="B5" s="75"/>
       <c r="C5" s="2" t="s">
         <v>298</v>
       </c>
@@ -6157,43 +6233,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="71" t="s">
         <v>392</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="78" t="s">
+      <c r="C1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="78" t="s">
+      <c r="D1" s="71" t="s">
         <v>385</v>
       </c>
-      <c r="E1" s="78" t="s">
+      <c r="E1" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="78" t="s">
+      <c r="F1" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="78" t="s">
+      <c r="G1" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="81" t="s">
+      <c r="H1" s="72" t="s">
         <v>384</v>
       </c>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="83"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="74"/>
     </row>
     <row r="2" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="78"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
       <c r="H2" s="58" t="s">
         <v>376</v>
       </c>
@@ -6242,7 +6318,7 @@
       <c r="A4" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="B4" s="77"/>
+      <c r="B4" s="82"/>
       <c r="C4" s="11" t="s">
         <v>300</v>
       </c>
@@ -6268,7 +6344,7 @@
       <c r="A5" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="B5" s="77"/>
+      <c r="B5" s="82"/>
       <c r="C5" s="2" t="s">
         <v>298</v>
       </c>
@@ -6294,7 +6370,7 @@
       <c r="A6" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="B6" s="73"/>
+      <c r="B6" s="78"/>
       <c r="C6" s="2" t="s">
         <v>122</v>
       </c>

--- a/src/test/resources/testCases/testCases.xlsx
+++ b/src/test/resources/testCases/testCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\802072\eclipse-workspace1\memberPortalAutomation\src\test\resources\testCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A3044E-F918-410D-9CCC-C7B884F2AEF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B347B227-8DAE-46F1-8E07-BDF22816FD7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="402">
   <si>
     <t>Welcome1!</t>
   </si>
@@ -1237,6 +1237,9 @@
   </si>
   <si>
     <t>Click Close Slider</t>
+  </si>
+  <si>
+    <t>Welcome2!</t>
   </si>
 </sst>
 </file>
@@ -1737,6 +1740,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1749,7 +1755,10 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1761,9 +1770,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1772,12 +1778,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1799,6 +1799,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2114,7 +2117,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2158,7 +2161,7 @@
         <v>50</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>0</v>
+        <v>401</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>51</v>
@@ -2341,43 +2344,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="72" t="s">
         <v>392</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="71" t="s">
+      <c r="D1" s="72" t="s">
         <v>385</v>
       </c>
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="71" t="s">
+      <c r="F1" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="71" t="s">
+      <c r="G1" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="72" t="s">
+      <c r="H1" s="73" t="s">
         <v>384</v>
       </c>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="75"/>
     </row>
     <row r="2" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
       <c r="H2" s="58" t="s">
         <v>376</v>
       </c>
@@ -2398,7 +2401,7 @@
       <c r="A3" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="89" t="s">
         <v>123</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -2768,43 +2771,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="72" t="s">
         <v>392</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="71" t="s">
+      <c r="D1" s="72" t="s">
         <v>385</v>
       </c>
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="71" t="s">
+      <c r="F1" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="71" t="s">
+      <c r="G1" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="72" t="s">
+      <c r="H1" s="73" t="s">
         <v>384</v>
       </c>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="75"/>
     </row>
     <row r="2" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
       <c r="H2" s="58" t="s">
         <v>376</v>
       </c>
@@ -2825,7 +2828,7 @@
       <c r="A3" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="71" t="s">
         <v>37</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -2853,7 +2856,7 @@
       <c r="A4" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B4" s="75"/>
+      <c r="B4" s="71"/>
       <c r="C4" s="2" t="s">
         <v>327</v>
       </c>
@@ -2879,7 +2882,7 @@
       <c r="A5" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="B5" s="75"/>
+      <c r="B5" s="71"/>
       <c r="C5" s="14" t="s">
         <v>329</v>
       </c>
@@ -2905,7 +2908,7 @@
       <c r="A6" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="B6" s="75"/>
+      <c r="B6" s="71"/>
       <c r="C6" s="14" t="s">
         <v>331</v>
       </c>
@@ -2931,7 +2934,7 @@
       <c r="A7" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B7" s="75"/>
+      <c r="B7" s="71"/>
       <c r="C7" s="2" t="s">
         <v>332</v>
       </c>
@@ -2957,7 +2960,7 @@
       <c r="A8" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="B8" s="75"/>
+      <c r="B8" s="71"/>
       <c r="C8" s="2" t="s">
         <v>335</v>
       </c>
@@ -2983,7 +2986,7 @@
       <c r="A9" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="B9" s="75"/>
+      <c r="B9" s="71"/>
       <c r="C9" s="2" t="s">
         <v>336</v>
       </c>
@@ -3009,7 +3012,7 @@
       <c r="A10" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="B10" s="75"/>
+      <c r="B10" s="71"/>
       <c r="C10" s="2" t="s">
         <v>339</v>
       </c>
@@ -3035,7 +3038,7 @@
       <c r="A11" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="B11" s="75"/>
+      <c r="B11" s="71"/>
       <c r="C11" s="12" t="s">
         <v>343</v>
       </c>
@@ -3061,7 +3064,7 @@
       <c r="A12" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="B12" s="75"/>
+      <c r="B12" s="71"/>
       <c r="C12" s="12" t="s">
         <v>345</v>
       </c>
@@ -3087,7 +3090,7 @@
       <c r="A13" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="B13" s="75"/>
+      <c r="B13" s="71"/>
       <c r="C13" s="12" t="s">
         <v>346</v>
       </c>
@@ -3113,7 +3116,7 @@
       <c r="A14" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="B14" s="75"/>
+      <c r="B14" s="71"/>
       <c r="C14" s="12" t="s">
         <v>393</v>
       </c>
@@ -3139,7 +3142,7 @@
       <c r="A15" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B15" s="75"/>
+      <c r="B15" s="71"/>
       <c r="C15" s="12" t="s">
         <v>396</v>
       </c>
@@ -3165,7 +3168,7 @@
       <c r="A16" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="B16" s="75"/>
+      <c r="B16" s="71"/>
       <c r="C16" s="12" t="s">
         <v>400</v>
       </c>
@@ -3233,43 +3236,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="72" t="s">
         <v>392</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="71" t="s">
+      <c r="D1" s="72" t="s">
         <v>385</v>
       </c>
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="71" t="s">
+      <c r="F1" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="71" t="s">
+      <c r="G1" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="83" t="s">
+      <c r="H1" s="76" t="s">
         <v>384</v>
       </c>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
     </row>
     <row r="2" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
       <c r="H2" s="70" t="s">
         <v>376</v>
       </c>
@@ -3290,7 +3293,7 @@
       <c r="A3" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="77" t="s">
         <v>38</v>
       </c>
       <c r="C3" s="11" t="s">
@@ -3318,7 +3321,7 @@
       <c r="A4" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B4" s="79"/>
+      <c r="B4" s="77"/>
       <c r="C4" s="11" t="s">
         <v>41</v>
       </c>
@@ -3344,7 +3347,7 @@
       <c r="A5" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B5" s="79"/>
+      <c r="B5" s="77"/>
       <c r="C5" s="11" t="s">
         <v>254</v>
       </c>
@@ -3370,7 +3373,7 @@
       <c r="A6" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B6" s="79"/>
+      <c r="B6" s="77"/>
       <c r="C6" s="11" t="s">
         <v>255</v>
       </c>
@@ -3396,7 +3399,7 @@
       <c r="A7" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="79"/>
+      <c r="B7" s="77"/>
       <c r="C7" s="11" t="s">
         <v>241</v>
       </c>
@@ -3422,7 +3425,7 @@
       <c r="A8" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B8" s="79"/>
+      <c r="B8" s="77"/>
       <c r="C8" s="11" t="s">
         <v>242</v>
       </c>
@@ -3448,7 +3451,7 @@
       <c r="A9" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B9" s="79"/>
+      <c r="B9" s="77"/>
       <c r="C9" s="11" t="s">
         <v>243</v>
       </c>
@@ -3474,7 +3477,7 @@
       <c r="A10" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B10" s="79"/>
+      <c r="B10" s="77"/>
       <c r="C10" s="11" t="s">
         <v>256</v>
       </c>
@@ -3500,7 +3503,7 @@
       <c r="A11" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B11" s="79"/>
+      <c r="B11" s="77"/>
       <c r="C11" s="11" t="s">
         <v>257</v>
       </c>
@@ -3526,7 +3529,7 @@
       <c r="A12" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B12" s="79"/>
+      <c r="B12" s="77"/>
       <c r="C12" s="11" t="s">
         <v>195</v>
       </c>
@@ -3552,7 +3555,7 @@
       <c r="A13" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B13" s="79"/>
+      <c r="B13" s="77"/>
       <c r="C13" s="11" t="s">
         <v>208</v>
       </c>
@@ -3578,7 +3581,7 @@
       <c r="A14" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B14" s="79"/>
+      <c r="B14" s="77"/>
       <c r="C14" s="11" t="s">
         <v>214</v>
       </c>
@@ -3604,7 +3607,7 @@
       <c r="A15" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B15" s="79"/>
+      <c r="B15" s="77"/>
       <c r="C15" s="11" t="s">
         <v>239</v>
       </c>
@@ -3630,7 +3633,7 @@
       <c r="A16" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B16" s="79"/>
+      <c r="B16" s="77"/>
       <c r="C16" s="11" t="s">
         <v>240</v>
       </c>
@@ -3656,7 +3659,7 @@
       <c r="A17" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B17" s="79"/>
+      <c r="B17" s="77"/>
       <c r="C17" s="11" t="s">
         <v>244</v>
       </c>
@@ -3682,7 +3685,7 @@
       <c r="A18" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="B18" s="79"/>
+      <c r="B18" s="77"/>
       <c r="C18" s="11" t="s">
         <v>353</v>
       </c>
@@ -3708,7 +3711,7 @@
       <c r="A19" s="64" t="s">
         <v>141</v>
       </c>
-      <c r="B19" s="78" t="s">
+      <c r="B19" s="80" t="s">
         <v>188</v>
       </c>
       <c r="C19" s="65" t="s">
@@ -3736,7 +3739,7 @@
       <c r="A20" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="B20" s="79"/>
+      <c r="B20" s="77"/>
       <c r="C20" s="2" t="s">
         <v>189</v>
       </c>
@@ -3762,7 +3765,7 @@
       <c r="A21" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="B21" s="79"/>
+      <c r="B21" s="77"/>
       <c r="C21" s="11" t="s">
         <v>253</v>
       </c>
@@ -3788,7 +3791,7 @@
       <c r="A22" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="B22" s="79"/>
+      <c r="B22" s="77"/>
       <c r="C22" s="11" t="s">
         <v>193</v>
       </c>
@@ -3814,7 +3817,7 @@
       <c r="A23" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="B23" s="79"/>
+      <c r="B23" s="77"/>
       <c r="C23" s="11" t="s">
         <v>195</v>
       </c>
@@ -3840,7 +3843,7 @@
       <c r="A24" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="B24" s="80"/>
+      <c r="B24" s="81"/>
       <c r="C24" s="35" t="s">
         <v>197</v>
       </c>
@@ -3866,7 +3869,7 @@
       <c r="A25" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="B25" s="81" t="s">
+      <c r="B25" s="82" t="s">
         <v>39</v>
       </c>
       <c r="C25" s="28" t="s">
@@ -3894,7 +3897,7 @@
       <c r="A26" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="B26" s="79"/>
+      <c r="B26" s="77"/>
       <c r="C26" s="2" t="s">
         <v>83</v>
       </c>
@@ -3920,7 +3923,7 @@
       <c r="A27" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="B27" s="79"/>
+      <c r="B27" s="77"/>
       <c r="C27" s="11" t="s">
         <v>84</v>
       </c>
@@ -3946,7 +3949,7 @@
       <c r="A28" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="B28" s="80"/>
+      <c r="B28" s="81"/>
       <c r="C28" s="35" t="s">
         <v>85</v>
       </c>
@@ -3972,7 +3975,7 @@
       <c r="A29" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="B29" s="76" t="s">
+      <c r="B29" s="78" t="s">
         <v>199</v>
       </c>
       <c r="C29" s="28" t="s">
@@ -4000,7 +4003,7 @@
       <c r="A30" s="31" t="s">
         <v>200</v>
       </c>
-      <c r="B30" s="82"/>
+      <c r="B30" s="83"/>
       <c r="C30" s="2" t="s">
         <v>204</v>
       </c>
@@ -4026,7 +4029,7 @@
       <c r="A31" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="B31" s="82"/>
+      <c r="B31" s="83"/>
       <c r="C31" s="11" t="s">
         <v>206</v>
       </c>
@@ -4052,7 +4055,7 @@
       <c r="A32" s="31" t="s">
         <v>202</v>
       </c>
-      <c r="B32" s="82"/>
+      <c r="B32" s="83"/>
       <c r="C32" s="11" t="s">
         <v>207</v>
       </c>
@@ -4078,7 +4081,7 @@
       <c r="A33" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="B33" s="82"/>
+      <c r="B33" s="83"/>
       <c r="C33" s="11" t="s">
         <v>208</v>
       </c>
@@ -4104,7 +4107,7 @@
       <c r="A34" s="34" t="s">
         <v>382</v>
       </c>
-      <c r="B34" s="77"/>
+      <c r="B34" s="79"/>
       <c r="C34" s="35" t="s">
         <v>381</v>
       </c>
@@ -4130,7 +4133,7 @@
       <c r="A35" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="B35" s="76" t="s">
+      <c r="B35" s="78" t="s">
         <v>212</v>
       </c>
       <c r="C35" s="28" t="s">
@@ -4158,7 +4161,7 @@
       <c r="A36" s="31" t="s">
         <v>218</v>
       </c>
-      <c r="B36" s="82"/>
+      <c r="B36" s="83"/>
       <c r="C36" s="2" t="s">
         <v>215</v>
       </c>
@@ -4184,7 +4187,7 @@
       <c r="A37" s="31" t="s">
         <v>219</v>
       </c>
-      <c r="B37" s="82"/>
+      <c r="B37" s="83"/>
       <c r="C37" s="11" t="s">
         <v>213</v>
       </c>
@@ -4210,7 +4213,7 @@
       <c r="A38" s="34" t="s">
         <v>220</v>
       </c>
-      <c r="B38" s="77"/>
+      <c r="B38" s="79"/>
       <c r="C38" s="35" t="s">
         <v>214</v>
       </c>
@@ -4236,7 +4239,7 @@
       <c r="A39" s="27" t="s">
         <v>221</v>
       </c>
-      <c r="B39" s="76" t="s">
+      <c r="B39" s="78" t="s">
         <v>222</v>
       </c>
       <c r="C39" s="28" t="s">
@@ -4264,7 +4267,7 @@
       <c r="A40" s="31" t="s">
         <v>225</v>
       </c>
-      <c r="B40" s="82"/>
+      <c r="B40" s="83"/>
       <c r="C40" s="2" t="s">
         <v>223</v>
       </c>
@@ -4290,7 +4293,7 @@
       <c r="A41" s="31" t="s">
         <v>226</v>
       </c>
-      <c r="B41" s="82"/>
+      <c r="B41" s="83"/>
       <c r="C41" s="11" t="s">
         <v>224</v>
       </c>
@@ -4316,7 +4319,7 @@
       <c r="A42" s="34" t="s">
         <v>357</v>
       </c>
-      <c r="B42" s="77"/>
+      <c r="B42" s="79"/>
       <c r="C42" s="35" t="s">
         <v>356</v>
       </c>
@@ -4342,7 +4345,7 @@
       <c r="A43" s="27" t="s">
         <v>227</v>
       </c>
-      <c r="B43" s="76" t="s">
+      <c r="B43" s="78" t="s">
         <v>82</v>
       </c>
       <c r="C43" s="28" t="s">
@@ -4370,7 +4373,7 @@
       <c r="A44" s="34" t="s">
         <v>228</v>
       </c>
-      <c r="B44" s="77"/>
+      <c r="B44" s="79"/>
       <c r="C44" s="35" t="s">
         <v>91</v>
       </c>
@@ -4408,6 +4411,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B29:B34"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="B39:B42"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="B3:B18"/>
@@ -4417,12 +4426,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="B29:B34"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="B39:B42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4452,43 +4455,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="59" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="72" t="s">
         <v>392</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="84" t="s">
+      <c r="C1" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="71" t="s">
+      <c r="D1" s="72" t="s">
         <v>385</v>
       </c>
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="71" t="s">
+      <c r="F1" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="84" t="s">
+      <c r="G1" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="72" t="s">
+      <c r="H1" s="73" t="s">
         <v>384</v>
       </c>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="75"/>
     </row>
     <row r="2" spans="1:12" s="61" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="84"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="91"/>
       <c r="H2" s="60" t="s">
         <v>376</v>
       </c>
@@ -4509,7 +4512,7 @@
       <c r="A3" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="86" t="s">
         <v>229</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -4537,7 +4540,7 @@
       <c r="A4" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="B4" s="88"/>
+      <c r="B4" s="87"/>
       <c r="C4" s="2" t="s">
         <v>309</v>
       </c>
@@ -4563,7 +4566,7 @@
       <c r="A5" s="48" t="s">
         <v>151</v>
       </c>
-      <c r="B5" s="88"/>
+      <c r="B5" s="87"/>
       <c r="C5" s="13" t="s">
         <v>232</v>
       </c>
@@ -4589,7 +4592,7 @@
       <c r="A6" s="49" t="s">
         <v>230</v>
       </c>
-      <c r="B6" s="89"/>
+      <c r="B6" s="88"/>
       <c r="C6" s="50" t="s">
         <v>234</v>
       </c>
@@ -4615,7 +4618,7 @@
       <c r="A7" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="B7" s="85" t="s">
+      <c r="B7" s="84" t="s">
         <v>95</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -4643,7 +4646,7 @@
       <c r="A8" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="B8" s="75"/>
+      <c r="B8" s="71"/>
       <c r="C8" s="2" t="s">
         <v>310</v>
       </c>
@@ -4669,7 +4672,7 @@
       <c r="A9" s="49" t="s">
         <v>231</v>
       </c>
-      <c r="B9" s="86"/>
+      <c r="B9" s="85"/>
       <c r="C9" s="6" t="s">
         <v>84</v>
       </c>
@@ -4695,7 +4698,7 @@
       <c r="A10" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="B10" s="90" t="s">
+      <c r="B10" s="89" t="s">
         <v>96</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -4723,7 +4726,7 @@
       <c r="A11" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="B11" s="91"/>
+      <c r="B11" s="90"/>
       <c r="C11" s="6" t="s">
         <v>311</v>
       </c>
@@ -4749,7 +4752,7 @@
       <c r="A12" s="47" t="s">
         <v>235</v>
       </c>
-      <c r="B12" s="85" t="s">
+      <c r="B12" s="84" t="s">
         <v>98</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -4777,7 +4780,7 @@
       <c r="A13" s="49" t="s">
         <v>236</v>
       </c>
-      <c r="B13" s="86"/>
+      <c r="B13" s="85"/>
       <c r="C13" s="6" t="s">
         <v>312</v>
       </c>
@@ -4813,18 +4816,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4856,43 +4859,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="57" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="72" t="s">
         <v>392</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="71" t="s">
+      <c r="D1" s="72" t="s">
         <v>385</v>
       </c>
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="71" t="s">
+      <c r="F1" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="71" t="s">
+      <c r="G1" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="72" t="s">
+      <c r="H1" s="73" t="s">
         <v>384</v>
       </c>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="75"/>
     </row>
     <row r="2" spans="1:12" s="57" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
       <c r="H2" s="58" t="s">
         <v>376</v>
       </c>
@@ -4913,7 +4916,7 @@
       <c r="A3" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="71" t="s">
         <v>102</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -4941,7 +4944,7 @@
       <c r="A4" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B4" s="75"/>
+      <c r="B4" s="71"/>
       <c r="C4" s="2" t="s">
         <v>306</v>
       </c>
@@ -4967,7 +4970,7 @@
       <c r="A5" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B5" s="75"/>
+      <c r="B5" s="71"/>
       <c r="C5" s="2" t="s">
         <v>307</v>
       </c>
@@ -5068,13 +5071,13 @@
       <c r="G1" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="72" t="s">
+      <c r="H1" s="73" t="s">
         <v>384</v>
       </c>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="75"/>
     </row>
     <row r="2" spans="1:12" s="57" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="97"/>
@@ -5104,7 +5107,7 @@
       <c r="A3" s="47" t="s">
         <v>159</v>
       </c>
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="89" t="s">
         <v>103</v>
       </c>
       <c r="C3" s="17" t="s">
@@ -5600,7 +5603,7 @@
       <c r="A22" s="49" t="s">
         <v>363</v>
       </c>
-      <c r="B22" s="91"/>
+      <c r="B22" s="90"/>
       <c r="C22" s="54" t="s">
         <v>369</v>
       </c>
@@ -5965,43 +5968,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="71" t="s">
+      <c r="D1" s="72" t="s">
         <v>385</v>
       </c>
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="71" t="s">
+      <c r="F1" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="71" t="s">
+      <c r="G1" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="72" t="s">
+      <c r="H1" s="73" t="s">
         <v>384</v>
       </c>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="75"/>
     </row>
     <row r="2" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
       <c r="H2" s="58" t="s">
         <v>376</v>
       </c>
@@ -6022,7 +6025,7 @@
       <c r="A3" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="71" t="s">
         <v>115</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -6050,7 +6053,7 @@
       <c r="A4" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B4" s="75"/>
+      <c r="B4" s="71"/>
       <c r="C4" s="2" t="s">
         <v>302</v>
       </c>
@@ -6076,7 +6079,7 @@
       <c r="A5" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B5" s="75"/>
+      <c r="B5" s="71"/>
       <c r="C5" s="2" t="s">
         <v>298</v>
       </c>
@@ -6192,16 +6195,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="B3:B5"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="B6:B8"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="B3:B5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6233,43 +6236,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="72" t="s">
         <v>392</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="71" t="s">
+      <c r="D1" s="72" t="s">
         <v>385</v>
       </c>
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="71" t="s">
+      <c r="F1" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="71" t="s">
+      <c r="G1" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="72" t="s">
+      <c r="H1" s="73" t="s">
         <v>384</v>
       </c>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="75"/>
     </row>
     <row r="2" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
       <c r="H2" s="58" t="s">
         <v>376</v>
       </c>
@@ -6318,7 +6321,7 @@
       <c r="A4" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="B4" s="82"/>
+      <c r="B4" s="83"/>
       <c r="C4" s="11" t="s">
         <v>300</v>
       </c>
@@ -6344,7 +6347,7 @@
       <c r="A5" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="B5" s="82"/>
+      <c r="B5" s="83"/>
       <c r="C5" s="2" t="s">
         <v>298</v>
       </c>
@@ -6370,7 +6373,7 @@
       <c r="A6" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="B6" s="78"/>
+      <c r="B6" s="80"/>
       <c r="C6" s="2" t="s">
         <v>122</v>
       </c>

--- a/src/test/resources/testCases/testCases.xlsx
+++ b/src/test/resources/testCases/testCases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\802072\eclipse-workspace1\memberPortalAutomation\src\test\resources\testCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B347B227-8DAE-46F1-8E07-BDF22816FD7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D19687-194A-4C41-8D19-13DA02D9B066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginCred" sheetId="8" r:id="rId1"/>
@@ -24,6 +24,9 @@
     <sheet name="comCenterMenu" sheetId="15" r:id="rId9"/>
     <sheet name="myAccountMenu" sheetId="16" r:id="rId10"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">resourcesMenu!$K$1:$K$36</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="403">
   <si>
     <t>Welcome1!</t>
   </si>
@@ -57,9 +60,6 @@
     <t>NA</t>
   </si>
   <si>
-    <t>Open Login Page</t>
-  </si>
-  <si>
     <t>Login Page</t>
   </si>
   <si>
@@ -72,9 +72,6 @@
     <t>Click</t>
   </si>
   <si>
-    <t>Enter Email Address</t>
-  </si>
-  <si>
     <t>Input</t>
   </si>
   <si>
@@ -174,12 +171,6 @@
     <t>PASSWORD</t>
   </si>
   <si>
-    <t>MEME_FIRST_NAME</t>
-  </si>
-  <si>
-    <t>MEME_LAST_NAME</t>
-  </si>
-  <si>
     <t>PLAN</t>
   </si>
   <si>
@@ -1240,6 +1231,21 @@
   </si>
   <si>
     <t>Welcome2!</t>
+  </si>
+  <si>
+    <t>Open Login Page.</t>
+  </si>
+  <si>
+    <t>Enter Username.</t>
+  </si>
+  <si>
+    <t>MEM_FIRST_NAME</t>
+  </si>
+  <si>
+    <t>MEM_LAST_NAME</t>
+  </si>
+  <si>
+    <t>Completed</t>
   </si>
 </sst>
 </file>
@@ -1319,7 +1325,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1526,19 +1532,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1597,6 +1590,85 @@
       </right>
       <top/>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1606,7 +1678,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1700,7 +1772,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1726,8 +1797,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1746,38 +1817,41 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1800,18 +1874,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1833,6 +1895,32 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2116,8 +2204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8EDD40F-2BD8-4E62-917E-AC253D884951}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2128,188 +2216,199 @@
     <col min="4" max="4" width="18.08984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="D1" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>48</v>
-      </c>
       <c r="G1" s="9" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>397</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>401</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="G5" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="19" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="G7" s="11"/>
+        <v>73</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>0</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2344,80 +2443,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="72" t="s">
-        <v>392</v>
-      </c>
-      <c r="B1" s="72" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="72" t="s">
+      <c r="A1" s="71" t="s">
+        <v>388</v>
+      </c>
+      <c r="B1" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="72" t="s">
-        <v>385</v>
-      </c>
-      <c r="E1" s="72" t="s">
+      <c r="D1" s="71" t="s">
+        <v>381</v>
+      </c>
+      <c r="E1" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="72" t="s">
+      <c r="F1" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="72" t="s">
+      <c r="G1" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="73" t="s">
-        <v>384</v>
-      </c>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="75"/>
+      <c r="H1" s="72" t="s">
+        <v>380</v>
+      </c>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="74"/>
     </row>
     <row r="2" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="58" t="s">
-        <v>376</v>
-      </c>
-      <c r="I2" s="58" t="s">
-        <v>377</v>
-      </c>
-      <c r="J2" s="58" t="s">
-        <v>378</v>
-      </c>
-      <c r="K2" s="58" t="s">
-        <v>354</v>
-      </c>
-      <c r="L2" s="58" t="s">
-        <v>379</v>
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="57" t="s">
+        <v>372</v>
+      </c>
+      <c r="I2" s="57" t="s">
+        <v>373</v>
+      </c>
+      <c r="J2" s="57" t="s">
+        <v>374</v>
+      </c>
+      <c r="K2" s="57" t="s">
+        <v>350</v>
+      </c>
+      <c r="L2" s="57" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B3" s="89" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
@@ -2427,23 +2526,23 @@
     </row>
     <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="B4" s="95"/>
+        <v>178</v>
+      </c>
+      <c r="B4" s="91"/>
       <c r="C4" s="2" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
@@ -2453,23 +2552,23 @@
     </row>
     <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="B5" s="95"/>
+        <v>179</v>
+      </c>
+      <c r="B5" s="91"/>
       <c r="C5" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
@@ -2479,23 +2578,23 @@
     </row>
     <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="B6" s="95"/>
+        <v>180</v>
+      </c>
+      <c r="B6" s="91"/>
       <c r="C6" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H6" s="20"/>
       <c r="I6" s="18"/>
@@ -2505,23 +2604,23 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="B7" s="100"/>
+        <v>181</v>
+      </c>
+      <c r="B7" s="96"/>
       <c r="C7" s="12" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H7" s="20"/>
       <c r="I7" s="18"/>
@@ -2532,13 +2631,13 @@
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="18"/>
       <c r="B9" s="2" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="21"/>
       <c r="B10" s="2" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -2563,8 +2662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D806FD1-53B9-4B3D-872F-454A529C7C04}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2586,7 +2685,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -2598,21 +2697,21 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>6</v>
@@ -2621,74 +2720,74 @@
         <v>6</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>16</v>
-      </c>
       <c r="G3" s="11" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>6</v>
@@ -2696,45 +2795,45 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>6</v>
@@ -2771,80 +2870,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="72" t="s">
-        <v>392</v>
-      </c>
-      <c r="B1" s="72" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="72" t="s">
+      <c r="A1" s="71" t="s">
+        <v>388</v>
+      </c>
+      <c r="B1" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="72" t="s">
-        <v>385</v>
-      </c>
-      <c r="E1" s="72" t="s">
+      <c r="D1" s="71" t="s">
+        <v>381</v>
+      </c>
+      <c r="E1" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="72" t="s">
+      <c r="F1" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="72" t="s">
+      <c r="G1" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="73" t="s">
-        <v>384</v>
-      </c>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="75"/>
+      <c r="H1" s="72" t="s">
+        <v>380</v>
+      </c>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="74"/>
     </row>
     <row r="2" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="58" t="s">
-        <v>376</v>
-      </c>
-      <c r="I2" s="58" t="s">
-        <v>377</v>
-      </c>
-      <c r="J2" s="58" t="s">
-        <v>378</v>
-      </c>
-      <c r="K2" s="58" t="s">
-        <v>354</v>
-      </c>
-      <c r="L2" s="58" t="s">
-        <v>379</v>
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="57" t="s">
+        <v>372</v>
+      </c>
+      <c r="I2" s="57" t="s">
+        <v>373</v>
+      </c>
+      <c r="J2" s="57" t="s">
+        <v>374</v>
+      </c>
+      <c r="K2" s="57" t="s">
+        <v>350</v>
+      </c>
+      <c r="L2" s="57" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="B3" s="71" t="s">
-        <v>37</v>
+        <v>311</v>
+      </c>
+      <c r="B3" s="70" t="s">
+        <v>35</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
@@ -2854,23 +2953,23 @@
     </row>
     <row r="4" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="B4" s="71"/>
+        <v>312</v>
+      </c>
+      <c r="B4" s="70"/>
       <c r="C4" s="2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
@@ -2880,23 +2979,23 @@
     </row>
     <row r="5" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="B5" s="71"/>
+        <v>313</v>
+      </c>
+      <c r="B5" s="70"/>
       <c r="C5" s="14" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
@@ -2906,23 +3005,23 @@
     </row>
     <row r="6" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="B6" s="71"/>
+        <v>314</v>
+      </c>
+      <c r="B6" s="70"/>
       <c r="C6" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="H6" s="18"/>
       <c r="I6" s="18"/>
@@ -2932,23 +3031,23 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="B7" s="71"/>
+        <v>315</v>
+      </c>
+      <c r="B7" s="70"/>
       <c r="C7" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="H7" s="18"/>
       <c r="I7" s="18"/>
@@ -2958,23 +3057,23 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="B8" s="71"/>
+        <v>316</v>
+      </c>
+      <c r="B8" s="70"/>
       <c r="C8" s="2" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
@@ -2984,23 +3083,23 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="B9" s="71"/>
+        <v>317</v>
+      </c>
+      <c r="B9" s="70"/>
       <c r="C9" s="2" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
@@ -3010,23 +3109,23 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="B10" s="71"/>
+        <v>318</v>
+      </c>
+      <c r="B10" s="70"/>
       <c r="C10" s="2" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
@@ -3036,23 +3135,23 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="B11" s="71"/>
+        <v>319</v>
+      </c>
+      <c r="B11" s="70"/>
       <c r="C11" s="12" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="H11" s="20"/>
       <c r="I11" s="18"/>
@@ -3062,23 +3161,23 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="B12" s="71"/>
+        <v>320</v>
+      </c>
+      <c r="B12" s="70"/>
       <c r="C12" s="12" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="H12" s="20"/>
       <c r="I12" s="18"/>
@@ -3088,23 +3187,23 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="B13" s="71"/>
+        <v>321</v>
+      </c>
+      <c r="B13" s="70"/>
       <c r="C13" s="12" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="H13" s="20"/>
       <c r="I13" s="18"/>
@@ -3114,23 +3213,23 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="B14" s="71"/>
+        <v>345</v>
+      </c>
+      <c r="B14" s="70"/>
       <c r="C14" s="12" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="H14" s="21"/>
       <c r="I14" s="18"/>
@@ -3140,23 +3239,23 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="B15" s="71"/>
+        <v>390</v>
+      </c>
+      <c r="B15" s="70"/>
       <c r="C15" s="12" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H15" s="20"/>
       <c r="I15" s="18"/>
@@ -3166,23 +3265,23 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="B16" s="71"/>
+        <v>394</v>
+      </c>
+      <c r="B16" s="70"/>
       <c r="C16" s="12" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="H16" s="20"/>
       <c r="I16" s="18"/>
@@ -3193,13 +3292,13 @@
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="18"/>
       <c r="B18" s="2" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="21"/>
       <c r="B19" s="2" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -3236,80 +3335,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="72" t="s">
-        <v>392</v>
-      </c>
-      <c r="B1" s="72" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="72" t="s">
+      <c r="A1" s="71" t="s">
+        <v>388</v>
+      </c>
+      <c r="B1" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="72" t="s">
-        <v>385</v>
-      </c>
-      <c r="E1" s="72" t="s">
+      <c r="D1" s="71" t="s">
+        <v>381</v>
+      </c>
+      <c r="E1" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="72" t="s">
+      <c r="F1" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="72" t="s">
+      <c r="G1" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="76" t="s">
-        <v>384</v>
-      </c>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
+      <c r="H1" s="82" t="s">
+        <v>380</v>
+      </c>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
     </row>
     <row r="2" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="70" t="s">
-        <v>376</v>
-      </c>
-      <c r="I2" s="70" t="s">
-        <v>377</v>
-      </c>
-      <c r="J2" s="70" t="s">
-        <v>378</v>
-      </c>
-      <c r="K2" s="70" t="s">
-        <v>354</v>
-      </c>
-      <c r="L2" s="70" t="s">
-        <v>379</v>
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="69" t="s">
+        <v>372</v>
+      </c>
+      <c r="I2" s="69" t="s">
+        <v>373</v>
+      </c>
+      <c r="J2" s="69" t="s">
+        <v>374</v>
+      </c>
+      <c r="K2" s="69" t="s">
+        <v>350</v>
+      </c>
+      <c r="L2" s="69" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B3" s="77" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="78" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>40</v>
-      </c>
       <c r="D3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
@@ -3319,23 +3418,23 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B4" s="77"/>
+        <v>131</v>
+      </c>
+      <c r="B4" s="78"/>
       <c r="C4" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
@@ -3345,23 +3444,23 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B5" s="77"/>
+        <v>132</v>
+      </c>
+      <c r="B5" s="78"/>
       <c r="C5" s="11" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H5" s="18"/>
       <c r="I5" s="19"/>
@@ -3371,23 +3470,23 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B6" s="77"/>
+        <v>133</v>
+      </c>
+      <c r="B6" s="78"/>
       <c r="C6" s="11" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H6" s="18"/>
       <c r="I6" s="19"/>
@@ -3397,23 +3496,23 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B7" s="77"/>
+        <v>134</v>
+      </c>
+      <c r="B7" s="78"/>
       <c r="C7" s="11" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H7" s="18"/>
       <c r="I7" s="18"/>
@@ -3423,23 +3522,23 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B8" s="77"/>
+        <v>135</v>
+      </c>
+      <c r="B8" s="78"/>
       <c r="C8" s="11" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
@@ -3449,23 +3548,23 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B9" s="77"/>
+        <v>136</v>
+      </c>
+      <c r="B9" s="78"/>
       <c r="C9" s="11" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
@@ -3475,23 +3574,23 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="B10" s="77"/>
+        <v>241</v>
+      </c>
+      <c r="B10" s="78"/>
       <c r="C10" s="11" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H10" s="21"/>
       <c r="I10" s="20"/>
@@ -3501,23 +3600,23 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="B11" s="77"/>
+        <v>242</v>
+      </c>
+      <c r="B11" s="78"/>
       <c r="C11" s="11" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="H11" s="21"/>
       <c r="I11" s="20"/>
@@ -3527,23 +3626,23 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="B12" s="77"/>
+        <v>243</v>
+      </c>
+      <c r="B12" s="78"/>
       <c r="C12" s="11" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H12" s="21"/>
       <c r="I12" s="20"/>
@@ -3553,23 +3652,23 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="B13" s="77"/>
+        <v>244</v>
+      </c>
+      <c r="B13" s="78"/>
       <c r="C13" s="11" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="H13" s="21"/>
       <c r="I13" s="20"/>
@@ -3579,23 +3678,23 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="B14" s="77"/>
+        <v>245</v>
+      </c>
+      <c r="B14" s="78"/>
       <c r="C14" s="11" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H14" s="21"/>
       <c r="I14" s="20"/>
@@ -3605,23 +3704,23 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="B15" s="77"/>
+        <v>246</v>
+      </c>
+      <c r="B15" s="78"/>
       <c r="C15" s="11" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H15" s="21"/>
       <c r="I15" s="20"/>
@@ -3631,23 +3730,23 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="B16" s="77"/>
+        <v>247</v>
+      </c>
+      <c r="B16" s="78"/>
       <c r="C16" s="11" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H16" s="21"/>
       <c r="I16" s="20"/>
@@ -3657,23 +3756,23 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="B17" s="77"/>
+        <v>248</v>
+      </c>
+      <c r="B17" s="78"/>
       <c r="C17" s="11" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H17" s="21"/>
       <c r="I17" s="20"/>
@@ -3683,23 +3782,23 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="B18" s="77"/>
+        <v>347</v>
+      </c>
+      <c r="B18" s="78"/>
       <c r="C18" s="11" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
@@ -3708,52 +3807,52 @@
       <c r="L18" s="19"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A19" s="64" t="s">
-        <v>141</v>
-      </c>
-      <c r="B19" s="80" t="s">
-        <v>188</v>
-      </c>
-      <c r="C19" s="65" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="65" t="s">
+      <c r="A19" s="63" t="s">
+        <v>137</v>
+      </c>
+      <c r="B19" s="77" t="s">
+        <v>184</v>
+      </c>
+      <c r="C19" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="65" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="65" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="66" t="s">
-        <v>23</v>
-      </c>
-      <c r="H19" s="67"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="69"/>
-      <c r="L19" s="63"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="62"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="B20" s="77"/>
+        <v>138</v>
+      </c>
+      <c r="B20" s="78"/>
       <c r="C20" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H20" s="21"/>
       <c r="I20" s="20"/>
@@ -3763,23 +3862,23 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="B21" s="77"/>
+        <v>139</v>
+      </c>
+      <c r="B21" s="78"/>
       <c r="C21" s="11" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H21" s="21"/>
       <c r="I21" s="20"/>
@@ -3789,23 +3888,23 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="B22" s="77"/>
+        <v>140</v>
+      </c>
+      <c r="B22" s="78"/>
       <c r="C22" s="11" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H22" s="21"/>
       <c r="I22" s="20"/>
@@ -3815,23 +3914,23 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="31" t="s">
-        <v>186</v>
-      </c>
-      <c r="B23" s="77"/>
+        <v>182</v>
+      </c>
+      <c r="B23" s="78"/>
       <c r="C23" s="11" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H23" s="21"/>
       <c r="I23" s="20"/>
@@ -3841,23 +3940,23 @@
     </row>
     <row r="24" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="34" t="s">
-        <v>187</v>
-      </c>
-      <c r="B24" s="81"/>
+        <v>183</v>
+      </c>
+      <c r="B24" s="79"/>
       <c r="C24" s="35" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E24" s="35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F24" s="35" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H24" s="36"/>
       <c r="I24" s="42"/>
@@ -3867,25 +3966,25 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="B25" s="82" t="s">
-        <v>39</v>
+        <v>141</v>
+      </c>
+      <c r="B25" s="80" t="s">
+        <v>37</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D25" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="E25" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="H25" s="40"/>
       <c r="I25" s="40"/>
@@ -3895,23 +3994,23 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="B26" s="77"/>
+        <v>142</v>
+      </c>
+      <c r="B26" s="78"/>
       <c r="C26" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H26" s="20"/>
       <c r="I26" s="20"/>
@@ -3921,23 +4020,23 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="B27" s="77"/>
+        <v>143</v>
+      </c>
+      <c r="B27" s="78"/>
       <c r="C27" s="11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H27" s="20"/>
       <c r="I27" s="20"/>
@@ -3947,23 +4046,23 @@
     </row>
     <row r="28" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="B28" s="81"/>
+        <v>144</v>
+      </c>
+      <c r="B28" s="79"/>
       <c r="C28" s="35" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E28" s="35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F28" s="35" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H28" s="42"/>
       <c r="I28" s="42"/>
@@ -3973,25 +4072,25 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="B29" s="78" t="s">
-        <v>199</v>
+        <v>194</v>
+      </c>
+      <c r="B29" s="75" t="s">
+        <v>195</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D29" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="E29" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="H29" s="39"/>
       <c r="I29" s="40"/>
@@ -4001,23 +4100,23 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="B30" s="81"/>
+      <c r="C30" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B30" s="83"/>
-      <c r="C30" s="2" t="s">
-        <v>204</v>
-      </c>
       <c r="D30" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H30" s="21"/>
       <c r="I30" s="20"/>
@@ -4027,23 +4126,23 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="31" t="s">
-        <v>201</v>
-      </c>
-      <c r="B31" s="83"/>
+        <v>197</v>
+      </c>
+      <c r="B31" s="81"/>
       <c r="C31" s="11" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="H31" s="21"/>
       <c r="I31" s="20"/>
@@ -4053,23 +4152,23 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="B32" s="83"/>
+        <v>198</v>
+      </c>
+      <c r="B32" s="81"/>
       <c r="C32" s="11" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H32" s="21"/>
       <c r="I32" s="20"/>
@@ -4079,23 +4178,23 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="31" t="s">
-        <v>203</v>
-      </c>
-      <c r="B33" s="83"/>
+        <v>199</v>
+      </c>
+      <c r="B33" s="81"/>
       <c r="C33" s="11" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="H33" s="21"/>
       <c r="I33" s="20"/>
@@ -4105,23 +4204,23 @@
     </row>
     <row r="34" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="34" t="s">
-        <v>382</v>
-      </c>
-      <c r="B34" s="79"/>
+        <v>378</v>
+      </c>
+      <c r="B34" s="76"/>
       <c r="C34" s="35" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E34" s="35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F34" s="35" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="H34" s="36"/>
       <c r="I34" s="36"/>
@@ -4131,25 +4230,25 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="27" t="s">
-        <v>211</v>
-      </c>
-      <c r="B35" s="78" t="s">
-        <v>212</v>
+        <v>207</v>
+      </c>
+      <c r="B35" s="75" t="s">
+        <v>208</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D35" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="E35" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="H35" s="39"/>
       <c r="I35" s="40"/>
@@ -4159,23 +4258,23 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="31" t="s">
-        <v>218</v>
-      </c>
-      <c r="B36" s="83"/>
+        <v>214</v>
+      </c>
+      <c r="B36" s="81"/>
       <c r="C36" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="H36" s="21"/>
       <c r="I36" s="20"/>
@@ -4185,23 +4284,23 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="31" t="s">
-        <v>219</v>
-      </c>
-      <c r="B37" s="83"/>
+        <v>215</v>
+      </c>
+      <c r="B37" s="81"/>
       <c r="C37" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>217</v>
       </c>
       <c r="H37" s="21"/>
       <c r="I37" s="20"/>
@@ -4211,23 +4310,23 @@
     </row>
     <row r="38" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="34" t="s">
-        <v>220</v>
-      </c>
-      <c r="B38" s="79"/>
+        <v>216</v>
+      </c>
+      <c r="B38" s="76"/>
       <c r="C38" s="35" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E38" s="35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F38" s="35" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="H38" s="36"/>
       <c r="I38" s="42"/>
@@ -4237,25 +4336,25 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="27" t="s">
-        <v>221</v>
-      </c>
-      <c r="B39" s="78" t="s">
-        <v>222</v>
+        <v>217</v>
+      </c>
+      <c r="B39" s="75" t="s">
+        <v>218</v>
       </c>
       <c r="C39" s="28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D39" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="E39" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F39" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="H39" s="39"/>
       <c r="I39" s="40"/>
@@ -4265,23 +4364,23 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="31" t="s">
-        <v>225</v>
-      </c>
-      <c r="B40" s="83"/>
+        <v>221</v>
+      </c>
+      <c r="B40" s="81"/>
       <c r="C40" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H40" s="21"/>
       <c r="I40" s="20"/>
@@ -4291,23 +4390,23 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="31" t="s">
-        <v>226</v>
-      </c>
-      <c r="B41" s="83"/>
+        <v>222</v>
+      </c>
+      <c r="B41" s="81"/>
       <c r="C41" s="11" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H41" s="21"/>
       <c r="I41" s="20"/>
@@ -4317,23 +4416,23 @@
     </row>
     <row r="42" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="34" t="s">
-        <v>357</v>
-      </c>
-      <c r="B42" s="79"/>
+        <v>353</v>
+      </c>
+      <c r="B42" s="76"/>
       <c r="C42" s="35" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D42" s="46" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E42" s="35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F42" s="35" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="H42" s="36"/>
       <c r="I42" s="36"/>
@@ -4343,25 +4442,25 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="27" t="s">
-        <v>227</v>
-      </c>
-      <c r="B43" s="78" t="s">
-        <v>82</v>
+        <v>223</v>
+      </c>
+      <c r="B43" s="75" t="s">
+        <v>78</v>
       </c>
       <c r="C43" s="28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D43" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="E43" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="H43" s="40"/>
       <c r="I43" s="40"/>
@@ -4371,23 +4470,23 @@
     </row>
     <row r="44" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="34" t="s">
-        <v>228</v>
-      </c>
-      <c r="B44" s="79"/>
+        <v>224</v>
+      </c>
+      <c r="B44" s="76"/>
       <c r="C44" s="35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D44" s="35" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E44" s="35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F44" s="35" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H44" s="42"/>
       <c r="I44" s="42"/>
@@ -4398,25 +4497,19 @@
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="18"/>
       <c r="B47" s="2" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C47" s="2"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="19"/>
       <c r="B48" s="2" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C48" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="B29:B34"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="B39:B42"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="B3:B18"/>
@@ -4426,6 +4519,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B29:B34"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="B39:B42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4454,81 +4553,81 @@
     <col min="12" max="12" width="4.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="59" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="72" t="s">
-        <v>392</v>
-      </c>
-      <c r="B1" s="72" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="91" t="s">
+    <row r="1" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="71" t="s">
+        <v>388</v>
+      </c>
+      <c r="B1" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="72" t="s">
-        <v>385</v>
-      </c>
-      <c r="E1" s="72" t="s">
+      <c r="D1" s="71" t="s">
+        <v>381</v>
+      </c>
+      <c r="E1" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="72" t="s">
+      <c r="F1" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="91" t="s">
+      <c r="G1" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="73" t="s">
-        <v>384</v>
-      </c>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="75"/>
-    </row>
-    <row r="2" spans="1:12" s="61" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="60" t="s">
-        <v>376</v>
-      </c>
-      <c r="I2" s="60" t="s">
-        <v>377</v>
-      </c>
-      <c r="J2" s="60" t="s">
-        <v>378</v>
-      </c>
-      <c r="K2" s="60" t="s">
-        <v>354</v>
-      </c>
-      <c r="L2" s="60" t="s">
-        <v>379</v>
+      <c r="H1" s="72" t="s">
+        <v>380</v>
+      </c>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="74"/>
+    </row>
+    <row r="2" spans="1:12" s="60" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="59" t="s">
+        <v>372</v>
+      </c>
+      <c r="I2" s="59" t="s">
+        <v>373</v>
+      </c>
+      <c r="J2" s="59" t="s">
+        <v>374</v>
+      </c>
+      <c r="K2" s="59" t="s">
+        <v>350</v>
+      </c>
+      <c r="L2" s="59" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="47" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B3" s="86" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H3" s="41"/>
       <c r="I3" s="29"/>
@@ -4538,23 +4637,23 @@
     </row>
     <row r="4" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="48" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B4" s="87"/>
       <c r="C4" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="H4" s="19"/>
       <c r="I4" s="18"/>
@@ -4564,23 +4663,23 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="48" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B5" s="87"/>
       <c r="C5" s="13" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="H5" s="19"/>
       <c r="I5" s="18"/>
@@ -4590,23 +4689,23 @@
     </row>
     <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="49" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B6" s="88"/>
       <c r="C6" s="50" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D6" s="50" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E6" s="50" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" s="50" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G6" s="50" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="H6" s="43"/>
       <c r="I6" s="37"/>
@@ -4616,25 +4715,25 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="47" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B7" s="84" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
@@ -4644,23 +4743,23 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="48" t="s">
-        <v>153</v>
-      </c>
-      <c r="B8" s="71"/>
+        <v>149</v>
+      </c>
+      <c r="B8" s="70"/>
       <c r="C8" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
@@ -4670,23 +4769,23 @@
     </row>
     <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="49" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B9" s="85"/>
       <c r="C9" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H9" s="37"/>
       <c r="I9" s="37"/>
@@ -4696,25 +4795,25 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="47" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B10" s="89" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H10" s="29"/>
       <c r="I10" s="29"/>
@@ -4724,23 +4823,23 @@
     </row>
     <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="49" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B11" s="90"/>
       <c r="C11" s="6" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H11" s="37"/>
       <c r="I11" s="37"/>
@@ -4750,25 +4849,25 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="47" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B12" s="84" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H12" s="29"/>
       <c r="I12" s="29"/>
@@ -4778,23 +4877,23 @@
     </row>
     <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="49" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B13" s="85"/>
       <c r="C13" s="6" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H13" s="37"/>
       <c r="I13" s="37"/>
@@ -4805,29 +4904,29 @@
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="18"/>
       <c r="B15" s="2" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="21"/>
       <c r="B16" s="2" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4858,81 +4957,81 @@
     <col min="12" max="12" width="4.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="57" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="72" t="s">
-        <v>392</v>
-      </c>
-      <c r="B1" s="72" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="72" t="s">
+    <row r="1" spans="1:12" s="56" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="71" t="s">
+        <v>388</v>
+      </c>
+      <c r="B1" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="72" t="s">
-        <v>385</v>
-      </c>
-      <c r="E1" s="72" t="s">
+      <c r="D1" s="71" t="s">
+        <v>381</v>
+      </c>
+      <c r="E1" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="72" t="s">
+      <c r="F1" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="72" t="s">
+      <c r="G1" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="73" t="s">
-        <v>384</v>
-      </c>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="75"/>
-    </row>
-    <row r="2" spans="1:12" s="57" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="58" t="s">
-        <v>376</v>
-      </c>
-      <c r="I2" s="58" t="s">
-        <v>377</v>
-      </c>
-      <c r="J2" s="58" t="s">
-        <v>378</v>
-      </c>
-      <c r="K2" s="58" t="s">
-        <v>354</v>
-      </c>
-      <c r="L2" s="58" t="s">
-        <v>379</v>
+      <c r="H1" s="72" t="s">
+        <v>380</v>
+      </c>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="74"/>
+    </row>
+    <row r="2" spans="1:12" s="56" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="57" t="s">
+        <v>372</v>
+      </c>
+      <c r="I2" s="57" t="s">
+        <v>373</v>
+      </c>
+      <c r="J2" s="57" t="s">
+        <v>374</v>
+      </c>
+      <c r="K2" s="57" t="s">
+        <v>350</v>
+      </c>
+      <c r="L2" s="57" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B3" s="71" t="s">
-        <v>102</v>
+        <v>152</v>
+      </c>
+      <c r="B3" s="70" t="s">
+        <v>98</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
@@ -4942,23 +5041,23 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B4" s="71"/>
+        <v>153</v>
+      </c>
+      <c r="B4" s="70"/>
       <c r="C4" s="2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
@@ -4968,23 +5067,23 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B5" s="71"/>
+        <v>154</v>
+      </c>
+      <c r="B5" s="70"/>
       <c r="C5" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
@@ -4995,13 +5094,13 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="18"/>
       <c r="B7" s="2" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="21"/>
       <c r="B8" s="2" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -5026,16 +5125,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88F06415-23F2-459A-8236-55761A615CC2}">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3:B22"/>
+      <selection pane="bottomRight" activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7265625" style="107" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="45.1796875" style="26" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.6328125" bestFit="1" customWidth="1"/>
@@ -5049,107 +5148,107 @@
     <col min="12" max="12" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="57" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="96" t="s">
+    <row r="1" spans="1:12" s="56" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="96" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="96" t="s">
+      <c r="B1" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="96" t="s">
-        <v>385</v>
-      </c>
-      <c r="E1" s="96" t="s">
+      <c r="D1" s="92" t="s">
+        <v>381</v>
+      </c>
+      <c r="E1" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="96" t="s">
+      <c r="F1" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="96" t="s">
+      <c r="G1" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="73" t="s">
-        <v>384</v>
-      </c>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="75"/>
-    </row>
-    <row r="2" spans="1:12" s="57" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="97"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="58" t="s">
-        <v>376</v>
-      </c>
-      <c r="I2" s="58" t="s">
-        <v>377</v>
-      </c>
-      <c r="J2" s="58" t="s">
-        <v>378</v>
-      </c>
-      <c r="K2" s="58" t="s">
-        <v>354</v>
-      </c>
-      <c r="L2" s="58" t="s">
-        <v>379</v>
+      <c r="H1" s="72" t="s">
+        <v>380</v>
+      </c>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="74"/>
+    </row>
+    <row r="2" spans="1:12" s="56" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="71"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="57" t="s">
+        <v>372</v>
+      </c>
+      <c r="I2" s="57" t="s">
+        <v>373</v>
+      </c>
+      <c r="J2" s="57" t="s">
+        <v>374</v>
+      </c>
+      <c r="K2" s="57" t="s">
+        <v>350</v>
+      </c>
+      <c r="L2" s="57" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="47" t="s">
-        <v>159</v>
-      </c>
-      <c r="B3" s="89" t="s">
-        <v>103</v>
+      <c r="A3" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="100" t="s">
+        <v>99</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G3" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="63"/>
+        <v>25</v>
+      </c>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="62"/>
     </row>
     <row r="4" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="48" t="s">
-        <v>160</v>
-      </c>
-      <c r="B4" s="95"/>
+      <c r="A4" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4" s="101"/>
       <c r="C4" s="15" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
@@ -5158,24 +5257,24 @@
       <c r="L4" s="32"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="48" t="s">
-        <v>161</v>
-      </c>
-      <c r="B5" s="95"/>
+      <c r="A5" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B5" s="101"/>
       <c r="C5" s="15" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
@@ -5184,24 +5283,24 @@
       <c r="L5" s="32"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="48" t="s">
-        <v>162</v>
-      </c>
-      <c r="B6" s="95"/>
+      <c r="A6" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B6" s="101"/>
       <c r="C6" s="15" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H6" s="18"/>
       <c r="I6" s="18"/>
@@ -5210,24 +5309,24 @@
       <c r="L6" s="32"/>
     </row>
     <row r="7" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="48" t="s">
-        <v>163</v>
-      </c>
-      <c r="B7" s="95"/>
+      <c r="A7" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B7" s="101"/>
       <c r="C7" s="15" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H7" s="18"/>
       <c r="I7" s="19"/>
@@ -5236,24 +5335,24 @@
       <c r="L7" s="33"/>
     </row>
     <row r="8" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="48" t="s">
-        <v>164</v>
-      </c>
-      <c r="B8" s="95"/>
+      <c r="A8" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8" s="101"/>
       <c r="C8" s="15" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H8" s="18"/>
       <c r="I8" s="19"/>
@@ -5262,24 +5361,24 @@
       <c r="L8" s="33"/>
     </row>
     <row r="9" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="48" t="s">
-        <v>165</v>
-      </c>
-      <c r="B9" s="95"/>
+      <c r="A9" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B9" s="101"/>
       <c r="C9" s="15" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
@@ -5288,24 +5387,24 @@
       <c r="L9" s="32"/>
     </row>
     <row r="10" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="48" t="s">
-        <v>258</v>
-      </c>
-      <c r="B10" s="95"/>
+      <c r="A10" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B10" s="101"/>
       <c r="C10" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="23" t="s">
         <v>265</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>269</v>
       </c>
       <c r="H10" s="19"/>
       <c r="I10" s="18"/>
@@ -5314,24 +5413,24 @@
       <c r="L10" s="32"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="48" t="s">
-        <v>259</v>
-      </c>
-      <c r="B11" s="95"/>
+      <c r="A11" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B11" s="101"/>
       <c r="C11" s="15" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="H11" s="19"/>
       <c r="I11" s="18"/>
@@ -5340,24 +5439,24 @@
       <c r="L11" s="33"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="48" t="s">
-        <v>260</v>
-      </c>
-      <c r="B12" s="95"/>
+      <c r="A12" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B12" s="101"/>
       <c r="C12" s="15" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H12" s="19"/>
       <c r="I12" s="18"/>
@@ -5366,24 +5465,24 @@
       <c r="L12" s="32"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="48" t="s">
-        <v>261</v>
-      </c>
-      <c r="B13" s="95"/>
+      <c r="A13" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B13" s="101"/>
       <c r="C13" s="15" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="H13" s="19"/>
       <c r="I13" s="18"/>
@@ -5392,24 +5491,24 @@
       <c r="L13" s="32"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="48" t="s">
-        <v>262</v>
-      </c>
-      <c r="B14" s="95"/>
+      <c r="A14" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B14" s="101"/>
       <c r="C14" s="15" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H14" s="19"/>
       <c r="I14" s="18"/>
@@ -5418,24 +5517,24 @@
       <c r="L14" s="32"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" s="48" t="s">
-        <v>263</v>
-      </c>
-      <c r="B15" s="95"/>
+      <c r="A15" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B15" s="101"/>
       <c r="C15" s="15" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H15" s="19"/>
       <c r="I15" s="18"/>
@@ -5444,24 +5543,24 @@
       <c r="L15" s="32"/>
     </row>
     <row r="16" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B16" s="101"/>
+      <c r="C16" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="B16" s="95"/>
-      <c r="C16" s="16" t="s">
-        <v>268</v>
-      </c>
       <c r="D16" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="18"/>
@@ -5470,24 +5569,24 @@
       <c r="L16" s="32"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17" s="53" t="s">
-        <v>358</v>
-      </c>
-      <c r="B17" s="95"/>
+      <c r="A17" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B17" s="101"/>
       <c r="C17" s="16" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -5496,24 +5595,24 @@
       <c r="L17" s="33"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18" s="53" t="s">
-        <v>359</v>
-      </c>
-      <c r="B18" s="95"/>
+      <c r="A18" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B18" s="101"/>
       <c r="C18" s="16" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -5522,24 +5621,24 @@
       <c r="L18" s="33"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A19" s="53" t="s">
-        <v>360</v>
-      </c>
-      <c r="B19" s="95"/>
+      <c r="A19" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B19" s="101"/>
       <c r="C19" s="16" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -5548,24 +5647,24 @@
       <c r="L19" s="33"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A20" s="53" t="s">
-        <v>361</v>
-      </c>
-      <c r="B20" s="95"/>
+      <c r="A20" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B20" s="101"/>
       <c r="C20" s="16" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -5574,24 +5673,24 @@
       <c r="L20" s="33"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A21" s="53" t="s">
-        <v>362</v>
-      </c>
-      <c r="B21" s="95"/>
+      <c r="A21" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B21" s="101"/>
       <c r="C21" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="24" t="s">
         <v>368</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="24" t="s">
-        <v>372</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -5600,24 +5699,24 @@
       <c r="L21" s="33"/>
     </row>
     <row r="22" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="49" t="s">
-        <v>363</v>
-      </c>
-      <c r="B22" s="90"/>
-      <c r="C22" s="54" t="s">
-        <v>369</v>
+      <c r="A22" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B22" s="102"/>
+      <c r="C22" s="53" t="s">
+        <v>365</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="55" t="s">
-        <v>375</v>
+        <v>13</v>
+      </c>
+      <c r="G22" s="54" t="s">
+        <v>371</v>
       </c>
       <c r="H22" s="43"/>
       <c r="I22" s="43"/>
@@ -5626,26 +5725,26 @@
       <c r="L22" s="38"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A23" s="47" t="s">
-        <v>166</v>
-      </c>
-      <c r="B23" s="92" t="s">
-        <v>104</v>
+      <c r="A23" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B23" s="103" t="s">
+        <v>100</v>
       </c>
       <c r="C23" s="51" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G23" s="52" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H23" s="29"/>
       <c r="I23" s="29"/>
@@ -5654,24 +5753,24 @@
       <c r="L23" s="30"/>
     </row>
     <row r="24" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="48" t="s">
-        <v>167</v>
-      </c>
-      <c r="B24" s="93"/>
+      <c r="A24" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B24" s="104"/>
       <c r="C24" s="15" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G24" s="23" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H24" s="18"/>
       <c r="I24" s="18"/>
@@ -5680,24 +5779,24 @@
       <c r="L24" s="32"/>
     </row>
     <row r="25" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="48" t="s">
-        <v>168</v>
-      </c>
-      <c r="B25" s="93"/>
+      <c r="A25" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B25" s="104"/>
       <c r="C25" s="25" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G25" s="23" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
@@ -5706,24 +5805,24 @@
       <c r="L25" s="32"/>
     </row>
     <row r="26" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A26" s="48" t="s">
-        <v>169</v>
-      </c>
-      <c r="B26" s="93"/>
+      <c r="A26" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B26" s="104"/>
       <c r="C26" s="25" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G26" s="23" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="H26" s="18"/>
       <c r="I26" s="18"/>
@@ -5732,24 +5831,24 @@
       <c r="L26" s="32"/>
     </row>
     <row r="27" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27" s="48" t="s">
-        <v>170</v>
-      </c>
-      <c r="B27" s="93"/>
+      <c r="A27" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B27" s="104"/>
       <c r="C27" s="25" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G27" s="23" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="H27" s="18"/>
       <c r="I27" s="18"/>
@@ -5758,24 +5857,24 @@
       <c r="L27" s="32"/>
     </row>
     <row r="28" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28" s="48" t="s">
-        <v>281</v>
-      </c>
-      <c r="B28" s="93"/>
+      <c r="A28" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B28" s="104"/>
       <c r="C28" s="25" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G28" s="23" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="18"/>
@@ -5784,24 +5883,24 @@
       <c r="L28" s="32"/>
     </row>
     <row r="29" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A29" s="48" t="s">
-        <v>282</v>
-      </c>
-      <c r="B29" s="93"/>
+      <c r="A29" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B29" s="104"/>
       <c r="C29" s="25" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G29" s="23" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="18"/>
@@ -5810,24 +5909,24 @@
       <c r="L29" s="32"/>
     </row>
     <row r="30" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A30" s="48" t="s">
-        <v>283</v>
-      </c>
-      <c r="B30" s="93"/>
+      <c r="A30" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B30" s="104"/>
       <c r="C30" s="25" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G30" s="23" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="18"/>
@@ -5836,24 +5935,24 @@
       <c r="L30" s="33"/>
     </row>
     <row r="31" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A31" s="48" t="s">
-        <v>284</v>
-      </c>
-      <c r="B31" s="93"/>
+      <c r="A31" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B31" s="104"/>
       <c r="C31" s="25" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G31" s="23" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="18"/>
@@ -5862,24 +5961,24 @@
       <c r="L31" s="32"/>
     </row>
     <row r="32" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A32" s="48" t="s">
-        <v>285</v>
-      </c>
-      <c r="B32" s="93"/>
+      <c r="A32" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B32" s="104"/>
       <c r="C32" s="25" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G32" s="23" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="18"/>
@@ -5888,24 +5987,24 @@
       <c r="L32" s="32"/>
     </row>
     <row r="33" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="49" t="s">
-        <v>286</v>
-      </c>
-      <c r="B33" s="94"/>
-      <c r="C33" s="56" t="s">
-        <v>244</v>
+      <c r="A33" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B33" s="105"/>
+      <c r="C33" s="55" t="s">
+        <v>240</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E33" s="35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F33" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" s="55" t="s">
-        <v>292</v>
+        <v>13</v>
+      </c>
+      <c r="G33" s="54" t="s">
+        <v>288</v>
       </c>
       <c r="H33" s="43"/>
       <c r="I33" s="37"/>
@@ -5915,17 +6014,18 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="18"/>
-      <c r="B35" s="2" t="s">
-        <v>386</v>
+      <c r="B35" s="106" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="21"/>
-      <c r="B36" s="2" t="s">
-        <v>387</v>
+      <c r="B36" s="106" t="s">
+        <v>383</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="K1:K36" xr:uid="{88F06415-23F2-459A-8236-55761A615CC2}"/>
   <mergeCells count="10">
     <mergeCell ref="B23:B33"/>
     <mergeCell ref="B3:B22"/>
@@ -5968,80 +6068,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="72" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="72" t="s">
+      <c r="B1" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="72" t="s">
-        <v>385</v>
-      </c>
-      <c r="E1" s="72" t="s">
+      <c r="D1" s="71" t="s">
+        <v>381</v>
+      </c>
+      <c r="E1" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="72" t="s">
+      <c r="F1" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="72" t="s">
+      <c r="G1" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="73" t="s">
-        <v>384</v>
-      </c>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="75"/>
+      <c r="H1" s="72" t="s">
+        <v>380</v>
+      </c>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="74"/>
     </row>
     <row r="2" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="58" t="s">
-        <v>376</v>
-      </c>
-      <c r="I2" s="58" t="s">
-        <v>377</v>
-      </c>
-      <c r="J2" s="58" t="s">
-        <v>378</v>
-      </c>
-      <c r="K2" s="58" t="s">
-        <v>354</v>
-      </c>
-      <c r="L2" s="58" t="s">
-        <v>379</v>
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="57" t="s">
+        <v>372</v>
+      </c>
+      <c r="I2" s="57" t="s">
+        <v>373</v>
+      </c>
+      <c r="J2" s="57" t="s">
+        <v>374</v>
+      </c>
+      <c r="K2" s="57" t="s">
+        <v>350</v>
+      </c>
+      <c r="L2" s="57" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B3" s="71" t="s">
-        <v>115</v>
+        <v>167</v>
+      </c>
+      <c r="B3" s="70" t="s">
+        <v>111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
@@ -6051,23 +6151,23 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B4" s="71"/>
+        <v>168</v>
+      </c>
+      <c r="B4" s="70"/>
       <c r="C4" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
@@ -6077,23 +6177,23 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B5" s="71"/>
+        <v>169</v>
+      </c>
+      <c r="B5" s="70"/>
       <c r="C5" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
@@ -6103,25 +6203,25 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B6" s="99" t="s">
-        <v>116</v>
+        <v>170</v>
+      </c>
+      <c r="B6" s="95" t="s">
+        <v>112</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H6" s="18"/>
       <c r="I6" s="18"/>
@@ -6131,23 +6231,23 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B7" s="95"/>
+        <v>171</v>
+      </c>
+      <c r="B7" s="91"/>
       <c r="C7" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H7" s="18"/>
       <c r="I7" s="18"/>
@@ -6157,23 +6257,23 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B8" s="100"/>
+        <v>172</v>
+      </c>
+      <c r="B8" s="96"/>
       <c r="C8" s="12" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
@@ -6184,27 +6284,27 @@
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="18"/>
       <c r="B10" s="2" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="21"/>
       <c r="B11" s="2" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="B6:B8"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="B3:B5"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="B6:B8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6236,80 +6336,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="72" t="s">
-        <v>392</v>
-      </c>
-      <c r="B1" s="72" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="72" t="s">
+      <c r="A1" s="71" t="s">
+        <v>388</v>
+      </c>
+      <c r="B1" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="72" t="s">
-        <v>385</v>
-      </c>
-      <c r="E1" s="72" t="s">
+      <c r="D1" s="71" t="s">
+        <v>381</v>
+      </c>
+      <c r="E1" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="72" t="s">
+      <c r="F1" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="72" t="s">
+      <c r="G1" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="73" t="s">
-        <v>384</v>
-      </c>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="75"/>
+      <c r="H1" s="72" t="s">
+        <v>380</v>
+      </c>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="74"/>
     </row>
     <row r="2" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="58" t="s">
-        <v>376</v>
-      </c>
-      <c r="I2" s="58" t="s">
-        <v>377</v>
-      </c>
-      <c r="J2" s="58" t="s">
-        <v>378</v>
-      </c>
-      <c r="K2" s="58" t="s">
-        <v>354</v>
-      </c>
-      <c r="L2" s="58" t="s">
-        <v>379</v>
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="57" t="s">
+        <v>372</v>
+      </c>
+      <c r="I2" s="57" t="s">
+        <v>373</v>
+      </c>
+      <c r="J2" s="57" t="s">
+        <v>374</v>
+      </c>
+      <c r="K2" s="57" t="s">
+        <v>350</v>
+      </c>
+      <c r="L2" s="57" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="B3" s="101" t="s">
-        <v>120</v>
+        <v>173</v>
+      </c>
+      <c r="B3" s="97" t="s">
+        <v>116</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
@@ -6319,23 +6419,23 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="B4" s="83"/>
+        <v>174</v>
+      </c>
+      <c r="B4" s="81"/>
       <c r="C4" s="11" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
@@ -6345,23 +6445,23 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="B5" s="83"/>
+        <v>175</v>
+      </c>
+      <c r="B5" s="81"/>
       <c r="C5" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
@@ -6371,23 +6471,23 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="B6" s="80"/>
+        <v>176</v>
+      </c>
+      <c r="B6" s="77"/>
       <c r="C6" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H6" s="20"/>
       <c r="I6" s="18"/>
@@ -6398,13 +6498,13 @@
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="18"/>
       <c r="B8" s="2" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="21"/>
       <c r="B9" s="2" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testCases/testCases.xlsx
+++ b/src/test/resources/testCases/testCases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\802072\eclipse-workspace1\memberPortalAutomation\src\test\resources\testCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D19687-194A-4C41-8D19-13DA02D9B066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C58AB0-1C20-450F-A1D3-16A4F326A691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginCred" sheetId="8" r:id="rId1"/>
@@ -1678,7 +1678,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1811,6 +1811,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1826,6 +1828,12 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1835,9 +1843,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1847,80 +1852,76 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2443,43 +2444,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="73" t="s">
         <v>388</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="71" t="s">
+      <c r="D1" s="73" t="s">
         <v>381</v>
       </c>
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="71" t="s">
+      <c r="F1" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="71" t="s">
+      <c r="G1" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="72" t="s">
+      <c r="H1" s="74" t="s">
         <v>380</v>
       </c>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="74"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="76"/>
     </row>
     <row r="2" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
       <c r="H2" s="57" t="s">
         <v>372</v>
       </c>
@@ -2500,7 +2501,7 @@
       <c r="A3" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="90" t="s">
         <v>119</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -2528,7 +2529,7 @@
       <c r="A4" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="B4" s="91"/>
+      <c r="B4" s="105"/>
       <c r="C4" s="2" t="s">
         <v>293</v>
       </c>
@@ -2554,7 +2555,7 @@
       <c r="A5" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="B5" s="91"/>
+      <c r="B5" s="105"/>
       <c r="C5" s="2" t="s">
         <v>123</v>
       </c>
@@ -2580,7 +2581,7 @@
       <c r="A6" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="B6" s="91"/>
+      <c r="B6" s="105"/>
       <c r="C6" s="2" t="s">
         <v>125</v>
       </c>
@@ -2606,7 +2607,7 @@
       <c r="A7" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="B7" s="96"/>
+      <c r="B7" s="106"/>
       <c r="C7" s="12" t="s">
         <v>124</v>
       </c>
@@ -2662,8 +2663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D806FD1-53B9-4B3D-872F-454A529C7C04}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2719,7 +2720,7 @@
       <c r="F2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="108" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2841,8 +2842,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{9EA314AA-468B-492C-B44E-988F8585D72F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2870,43 +2874,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="73" t="s">
         <v>388</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="71" t="s">
+      <c r="D1" s="73" t="s">
         <v>381</v>
       </c>
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="71" t="s">
+      <c r="F1" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="71" t="s">
+      <c r="G1" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="72" t="s">
+      <c r="H1" s="74" t="s">
         <v>380</v>
       </c>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="74"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="76"/>
     </row>
     <row r="2" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
       <c r="H2" s="57" t="s">
         <v>372</v>
       </c>
@@ -2927,7 +2931,7 @@
       <c r="A3" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="72" t="s">
         <v>35</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -2955,7 +2959,7 @@
       <c r="A4" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="B4" s="70"/>
+      <c r="B4" s="72"/>
       <c r="C4" s="2" t="s">
         <v>323</v>
       </c>
@@ -2981,7 +2985,7 @@
       <c r="A5" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="B5" s="70"/>
+      <c r="B5" s="72"/>
       <c r="C5" s="14" t="s">
         <v>325</v>
       </c>
@@ -3007,7 +3011,7 @@
       <c r="A6" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="B6" s="70"/>
+      <c r="B6" s="72"/>
       <c r="C6" s="14" t="s">
         <v>327</v>
       </c>
@@ -3033,7 +3037,7 @@
       <c r="A7" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="B7" s="70"/>
+      <c r="B7" s="72"/>
       <c r="C7" s="2" t="s">
         <v>328</v>
       </c>
@@ -3059,7 +3063,7 @@
       <c r="A8" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B8" s="70"/>
+      <c r="B8" s="72"/>
       <c r="C8" s="2" t="s">
         <v>331</v>
       </c>
@@ -3085,7 +3089,7 @@
       <c r="A9" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="B9" s="70"/>
+      <c r="B9" s="72"/>
       <c r="C9" s="2" t="s">
         <v>332</v>
       </c>
@@ -3111,7 +3115,7 @@
       <c r="A10" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="B10" s="70"/>
+      <c r="B10" s="72"/>
       <c r="C10" s="2" t="s">
         <v>335</v>
       </c>
@@ -3137,7 +3141,7 @@
       <c r="A11" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B11" s="70"/>
+      <c r="B11" s="72"/>
       <c r="C11" s="12" t="s">
         <v>339</v>
       </c>
@@ -3163,7 +3167,7 @@
       <c r="A12" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="B12" s="70"/>
+      <c r="B12" s="72"/>
       <c r="C12" s="12" t="s">
         <v>341</v>
       </c>
@@ -3189,7 +3193,7 @@
       <c r="A13" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="B13" s="70"/>
+      <c r="B13" s="72"/>
       <c r="C13" s="12" t="s">
         <v>342</v>
       </c>
@@ -3215,7 +3219,7 @@
       <c r="A14" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="B14" s="70"/>
+      <c r="B14" s="72"/>
       <c r="C14" s="12" t="s">
         <v>389</v>
       </c>
@@ -3241,7 +3245,7 @@
       <c r="A15" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="B15" s="70"/>
+      <c r="B15" s="72"/>
       <c r="C15" s="12" t="s">
         <v>392</v>
       </c>
@@ -3267,7 +3271,7 @@
       <c r="A16" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B16" s="70"/>
+      <c r="B16" s="72"/>
       <c r="C16" s="12" t="s">
         <v>396</v>
       </c>
@@ -3335,43 +3339,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="73" t="s">
         <v>388</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="71" t="s">
+      <c r="D1" s="73" t="s">
         <v>381</v>
       </c>
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="71" t="s">
+      <c r="F1" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="71" t="s">
+      <c r="G1" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="82" t="s">
+      <c r="H1" s="77" t="s">
         <v>380</v>
       </c>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
     </row>
     <row r="2" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
       <c r="H2" s="69" t="s">
         <v>372</v>
       </c>
@@ -3810,7 +3814,7 @@
       <c r="A19" s="63" t="s">
         <v>137</v>
       </c>
-      <c r="B19" s="77" t="s">
+      <c r="B19" s="81" t="s">
         <v>184</v>
       </c>
       <c r="C19" s="64" t="s">
@@ -3942,7 +3946,7 @@
       <c r="A24" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="B24" s="79"/>
+      <c r="B24" s="82"/>
       <c r="C24" s="35" t="s">
         <v>193</v>
       </c>
@@ -3968,7 +3972,7 @@
       <c r="A25" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="B25" s="80" t="s">
+      <c r="B25" s="83" t="s">
         <v>37</v>
       </c>
       <c r="C25" s="28" t="s">
@@ -4048,7 +4052,7 @@
       <c r="A28" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="B28" s="79"/>
+      <c r="B28" s="82"/>
       <c r="C28" s="35" t="s">
         <v>81</v>
       </c>
@@ -4074,7 +4078,7 @@
       <c r="A29" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="B29" s="75" t="s">
+      <c r="B29" s="79" t="s">
         <v>195</v>
       </c>
       <c r="C29" s="28" t="s">
@@ -4102,7 +4106,7 @@
       <c r="A30" s="31" t="s">
         <v>196</v>
       </c>
-      <c r="B30" s="81"/>
+      <c r="B30" s="84"/>
       <c r="C30" s="2" t="s">
         <v>200</v>
       </c>
@@ -4128,7 +4132,7 @@
       <c r="A31" s="31" t="s">
         <v>197</v>
       </c>
-      <c r="B31" s="81"/>
+      <c r="B31" s="84"/>
       <c r="C31" s="11" t="s">
         <v>202</v>
       </c>
@@ -4154,7 +4158,7 @@
       <c r="A32" s="31" t="s">
         <v>198</v>
       </c>
-      <c r="B32" s="81"/>
+      <c r="B32" s="84"/>
       <c r="C32" s="11" t="s">
         <v>203</v>
       </c>
@@ -4180,7 +4184,7 @@
       <c r="A33" s="31" t="s">
         <v>199</v>
       </c>
-      <c r="B33" s="81"/>
+      <c r="B33" s="84"/>
       <c r="C33" s="11" t="s">
         <v>204</v>
       </c>
@@ -4206,7 +4210,7 @@
       <c r="A34" s="34" t="s">
         <v>378</v>
       </c>
-      <c r="B34" s="76"/>
+      <c r="B34" s="80"/>
       <c r="C34" s="35" t="s">
         <v>377</v>
       </c>
@@ -4232,7 +4236,7 @@
       <c r="A35" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="B35" s="75" t="s">
+      <c r="B35" s="79" t="s">
         <v>208</v>
       </c>
       <c r="C35" s="28" t="s">
@@ -4260,7 +4264,7 @@
       <c r="A36" s="31" t="s">
         <v>214</v>
       </c>
-      <c r="B36" s="81"/>
+      <c r="B36" s="84"/>
       <c r="C36" s="2" t="s">
         <v>211</v>
       </c>
@@ -4286,7 +4290,7 @@
       <c r="A37" s="31" t="s">
         <v>215</v>
       </c>
-      <c r="B37" s="81"/>
+      <c r="B37" s="84"/>
       <c r="C37" s="11" t="s">
         <v>209</v>
       </c>
@@ -4312,7 +4316,7 @@
       <c r="A38" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="B38" s="76"/>
+      <c r="B38" s="80"/>
       <c r="C38" s="35" t="s">
         <v>210</v>
       </c>
@@ -4338,7 +4342,7 @@
       <c r="A39" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="B39" s="75" t="s">
+      <c r="B39" s="79" t="s">
         <v>218</v>
       </c>
       <c r="C39" s="28" t="s">
@@ -4366,7 +4370,7 @@
       <c r="A40" s="31" t="s">
         <v>221</v>
       </c>
-      <c r="B40" s="81"/>
+      <c r="B40" s="84"/>
       <c r="C40" s="2" t="s">
         <v>219</v>
       </c>
@@ -4392,7 +4396,7 @@
       <c r="A41" s="31" t="s">
         <v>222</v>
       </c>
-      <c r="B41" s="81"/>
+      <c r="B41" s="84"/>
       <c r="C41" s="11" t="s">
         <v>220</v>
       </c>
@@ -4418,7 +4422,7 @@
       <c r="A42" s="34" t="s">
         <v>353</v>
       </c>
-      <c r="B42" s="76"/>
+      <c r="B42" s="80"/>
       <c r="C42" s="35" t="s">
         <v>352</v>
       </c>
@@ -4444,7 +4448,7 @@
       <c r="A43" s="27" t="s">
         <v>223</v>
       </c>
-      <c r="B43" s="75" t="s">
+      <c r="B43" s="79" t="s">
         <v>78</v>
       </c>
       <c r="C43" s="28" t="s">
@@ -4472,7 +4476,7 @@
       <c r="A44" s="34" t="s">
         <v>224</v>
       </c>
-      <c r="B44" s="76"/>
+      <c r="B44" s="80"/>
       <c r="C44" s="35" t="s">
         <v>87</v>
       </c>
@@ -4510,6 +4514,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B29:B34"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="B39:B42"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="B3:B18"/>
@@ -4519,12 +4529,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="B29:B34"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="B39:B42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4554,43 +4558,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="73" t="s">
         <v>388</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="83" t="s">
+      <c r="C1" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="71" t="s">
+      <c r="D1" s="73" t="s">
         <v>381</v>
       </c>
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="71" t="s">
+      <c r="F1" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="83" t="s">
+      <c r="G1" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="72" t="s">
+      <c r="H1" s="74" t="s">
         <v>380</v>
       </c>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="74"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="76"/>
     </row>
     <row r="2" spans="1:12" s="60" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="83"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="92"/>
       <c r="H2" s="59" t="s">
         <v>372</v>
       </c>
@@ -4611,7 +4615,7 @@
       <c r="A3" s="47" t="s">
         <v>145</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="87" t="s">
         <v>225</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -4639,7 +4643,7 @@
       <c r="A4" s="48" t="s">
         <v>146</v>
       </c>
-      <c r="B4" s="87"/>
+      <c r="B4" s="88"/>
       <c r="C4" s="2" t="s">
         <v>305</v>
       </c>
@@ -4665,7 +4669,7 @@
       <c r="A5" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="B5" s="87"/>
+      <c r="B5" s="88"/>
       <c r="C5" s="13" t="s">
         <v>228</v>
       </c>
@@ -4691,7 +4695,7 @@
       <c r="A6" s="49" t="s">
         <v>226</v>
       </c>
-      <c r="B6" s="88"/>
+      <c r="B6" s="89"/>
       <c r="C6" s="50" t="s">
         <v>230</v>
       </c>
@@ -4717,7 +4721,7 @@
       <c r="A7" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="B7" s="84" t="s">
+      <c r="B7" s="85" t="s">
         <v>91</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -4745,7 +4749,7 @@
       <c r="A8" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="B8" s="70"/>
+      <c r="B8" s="72"/>
       <c r="C8" s="2" t="s">
         <v>306</v>
       </c>
@@ -4771,7 +4775,7 @@
       <c r="A9" s="49" t="s">
         <v>227</v>
       </c>
-      <c r="B9" s="85"/>
+      <c r="B9" s="86"/>
       <c r="C9" s="6" t="s">
         <v>80</v>
       </c>
@@ -4797,7 +4801,7 @@
       <c r="A10" s="47" t="s">
         <v>150</v>
       </c>
-      <c r="B10" s="89" t="s">
+      <c r="B10" s="90" t="s">
         <v>92</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -4825,7 +4829,7 @@
       <c r="A11" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="B11" s="90"/>
+      <c r="B11" s="91"/>
       <c r="C11" s="6" t="s">
         <v>307</v>
       </c>
@@ -4851,7 +4855,7 @@
       <c r="A12" s="47" t="s">
         <v>231</v>
       </c>
-      <c r="B12" s="84" t="s">
+      <c r="B12" s="85" t="s">
         <v>94</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -4879,7 +4883,7 @@
       <c r="A13" s="49" t="s">
         <v>232</v>
       </c>
-      <c r="B13" s="85"/>
+      <c r="B13" s="86"/>
       <c r="C13" s="6" t="s">
         <v>308</v>
       </c>
@@ -4915,18 +4919,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4958,43 +4962,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="73" t="s">
         <v>388</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="71" t="s">
+      <c r="D1" s="73" t="s">
         <v>381</v>
       </c>
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="71" t="s">
+      <c r="F1" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="71" t="s">
+      <c r="G1" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="72" t="s">
+      <c r="H1" s="74" t="s">
         <v>380</v>
       </c>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="74"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="76"/>
     </row>
     <row r="2" spans="1:12" s="56" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
       <c r="H2" s="57" t="s">
         <v>372</v>
       </c>
@@ -5015,7 +5019,7 @@
       <c r="A3" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="72" t="s">
         <v>98</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -5043,7 +5047,7 @@
       <c r="A4" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B4" s="70"/>
+      <c r="B4" s="72"/>
       <c r="C4" s="2" t="s">
         <v>302</v>
       </c>
@@ -5069,7 +5073,7 @@
       <c r="A5" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B5" s="70"/>
+      <c r="B5" s="72"/>
       <c r="C5" s="2" t="s">
         <v>303</v>
       </c>
@@ -5125,7 +5129,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88F06415-23F2-459A-8236-55761A615CC2}">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -5134,7 +5138,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" style="107" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7265625" style="71" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="45.1796875" style="26" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.6328125" bestFit="1" customWidth="1"/>
@@ -5149,43 +5153,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="56" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="98" t="s">
+      <c r="B1" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="92" t="s">
+      <c r="C1" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="92" t="s">
+      <c r="D1" s="99" t="s">
         <v>381</v>
       </c>
-      <c r="E1" s="92" t="s">
+      <c r="E1" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="92" t="s">
+      <c r="F1" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="92" t="s">
+      <c r="G1" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="72" t="s">
+      <c r="H1" s="74" t="s">
         <v>380</v>
       </c>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="74"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="76"/>
     </row>
     <row r="2" spans="1:12" s="56" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="71"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
       <c r="H2" s="57" t="s">
         <v>372</v>
       </c>
@@ -5206,7 +5210,7 @@
       <c r="A3" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="96" t="s">
         <v>99</v>
       </c>
       <c r="C3" s="17" t="s">
@@ -5234,7 +5238,7 @@
       <c r="A4" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B4" s="101"/>
+      <c r="B4" s="97"/>
       <c r="C4" s="15" t="s">
         <v>275</v>
       </c>
@@ -5260,7 +5264,7 @@
       <c r="A5" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B5" s="101"/>
+      <c r="B5" s="97"/>
       <c r="C5" s="15" t="s">
         <v>276</v>
       </c>
@@ -5286,7 +5290,7 @@
       <c r="A6" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B6" s="101"/>
+      <c r="B6" s="97"/>
       <c r="C6" s="15" t="s">
         <v>103</v>
       </c>
@@ -5312,7 +5316,7 @@
       <c r="A7" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B7" s="101"/>
+      <c r="B7" s="97"/>
       <c r="C7" s="15" t="s">
         <v>104</v>
       </c>
@@ -5338,7 +5342,7 @@
       <c r="A8" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B8" s="101"/>
+      <c r="B8" s="97"/>
       <c r="C8" s="15" t="s">
         <v>106</v>
       </c>
@@ -5364,7 +5368,7 @@
       <c r="A9" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B9" s="101"/>
+      <c r="B9" s="97"/>
       <c r="C9" s="15" t="s">
         <v>108</v>
       </c>
@@ -5390,7 +5394,7 @@
       <c r="A10" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B10" s="101"/>
+      <c r="B10" s="97"/>
       <c r="C10" s="15" t="s">
         <v>261</v>
       </c>
@@ -5416,7 +5420,7 @@
       <c r="A11" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="B11" s="101"/>
+      <c r="B11" s="97"/>
       <c r="C11" s="15" t="s">
         <v>210</v>
       </c>
@@ -5442,7 +5446,7 @@
       <c r="A12" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B12" s="101"/>
+      <c r="B12" s="97"/>
       <c r="C12" s="15" t="s">
         <v>204</v>
       </c>
@@ -5468,7 +5472,7 @@
       <c r="A13" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B13" s="101"/>
+      <c r="B13" s="97"/>
       <c r="C13" s="15" t="s">
         <v>262</v>
       </c>
@@ -5494,7 +5498,7 @@
       <c r="A14" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B14" s="101"/>
+      <c r="B14" s="97"/>
       <c r="C14" s="15" t="s">
         <v>263</v>
       </c>
@@ -5520,7 +5524,7 @@
       <c r="A15" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B15" s="101"/>
+      <c r="B15" s="97"/>
       <c r="C15" s="15" t="s">
         <v>272</v>
       </c>
@@ -5546,7 +5550,7 @@
       <c r="A16" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B16" s="101"/>
+      <c r="B16" s="97"/>
       <c r="C16" s="16" t="s">
         <v>264</v>
       </c>
@@ -5572,7 +5576,7 @@
       <c r="A17" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="B17" s="101"/>
+      <c r="B17" s="97"/>
       <c r="C17" s="16" t="s">
         <v>360</v>
       </c>
@@ -5598,7 +5602,7 @@
       <c r="A18" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="B18" s="101"/>
+      <c r="B18" s="97"/>
       <c r="C18" s="16" t="s">
         <v>361</v>
       </c>
@@ -5624,7 +5628,7 @@
       <c r="A19" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="B19" s="101"/>
+      <c r="B19" s="97"/>
       <c r="C19" s="16" t="s">
         <v>362</v>
       </c>
@@ -5650,7 +5654,7 @@
       <c r="A20" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="B20" s="101"/>
+      <c r="B20" s="97"/>
       <c r="C20" s="16" t="s">
         <v>363</v>
       </c>
@@ -5676,7 +5680,7 @@
       <c r="A21" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="B21" s="101"/>
+      <c r="B21" s="97"/>
       <c r="C21" s="16" t="s">
         <v>364</v>
       </c>
@@ -5702,7 +5706,7 @@
       <c r="A22" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="B22" s="102"/>
+      <c r="B22" s="98"/>
       <c r="C22" s="53" t="s">
         <v>365</v>
       </c>
@@ -5728,7 +5732,7 @@
       <c r="A23" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B23" s="103" t="s">
+      <c r="B23" s="93" t="s">
         <v>100</v>
       </c>
       <c r="C23" s="51" t="s">
@@ -5756,7 +5760,7 @@
       <c r="A24" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B24" s="104"/>
+      <c r="B24" s="94"/>
       <c r="C24" s="15" t="s">
         <v>274</v>
       </c>
@@ -5782,7 +5786,7 @@
       <c r="A25" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B25" s="104"/>
+      <c r="B25" s="94"/>
       <c r="C25" s="25" t="s">
         <v>237</v>
       </c>
@@ -5808,7 +5812,7 @@
       <c r="A26" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B26" s="104"/>
+      <c r="B26" s="94"/>
       <c r="C26" s="25" t="s">
         <v>238</v>
       </c>
@@ -5834,7 +5838,7 @@
       <c r="A27" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B27" s="104"/>
+      <c r="B27" s="94"/>
       <c r="C27" s="25" t="s">
         <v>239</v>
       </c>
@@ -5860,7 +5864,7 @@
       <c r="A28" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B28" s="104"/>
+      <c r="B28" s="94"/>
       <c r="C28" s="25" t="s">
         <v>191</v>
       </c>
@@ -5886,7 +5890,7 @@
       <c r="A29" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B29" s="104"/>
+      <c r="B29" s="94"/>
       <c r="C29" s="25" t="s">
         <v>204</v>
       </c>
@@ -5912,7 +5916,7 @@
       <c r="A30" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="B30" s="104"/>
+      <c r="B30" s="94"/>
       <c r="C30" s="25" t="s">
         <v>210</v>
       </c>
@@ -5938,7 +5942,7 @@
       <c r="A31" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="B31" s="104"/>
+      <c r="B31" s="94"/>
       <c r="C31" s="25" t="s">
         <v>235</v>
       </c>
@@ -5964,7 +5968,7 @@
       <c r="A32" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="B32" s="104"/>
+      <c r="B32" s="94"/>
       <c r="C32" s="25" t="s">
         <v>236</v>
       </c>
@@ -5990,7 +5994,7 @@
       <c r="A33" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B33" s="105"/>
+      <c r="B33" s="95"/>
       <c r="C33" s="55" t="s">
         <v>240</v>
       </c>
@@ -6014,13 +6018,13 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="18"/>
-      <c r="B35" s="106" t="s">
+      <c r="B35" s="70" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="21"/>
-      <c r="B36" s="106" t="s">
+      <c r="B36" s="70" t="s">
         <v>383</v>
       </c>
     </row>
@@ -6068,43 +6072,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="71" t="s">
+      <c r="D1" s="73" t="s">
         <v>381</v>
       </c>
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="71" t="s">
+      <c r="F1" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="71" t="s">
+      <c r="G1" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="72" t="s">
+      <c r="H1" s="74" t="s">
         <v>380</v>
       </c>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="74"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="76"/>
     </row>
     <row r="2" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
       <c r="H2" s="57" t="s">
         <v>372</v>
       </c>
@@ -6125,7 +6129,7 @@
       <c r="A3" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="72" t="s">
         <v>111</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -6153,7 +6157,7 @@
       <c r="A4" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B4" s="70"/>
+      <c r="B4" s="72"/>
       <c r="C4" s="2" t="s">
         <v>298</v>
       </c>
@@ -6179,7 +6183,7 @@
       <c r="A5" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B5" s="70"/>
+      <c r="B5" s="72"/>
       <c r="C5" s="2" t="s">
         <v>294</v>
       </c>
@@ -6205,7 +6209,7 @@
       <c r="A6" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="104" t="s">
         <v>112</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -6233,7 +6237,7 @@
       <c r="A7" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B7" s="91"/>
+      <c r="B7" s="105"/>
       <c r="C7" s="2" t="s">
         <v>299</v>
       </c>
@@ -6259,7 +6263,7 @@
       <c r="A8" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B8" s="96"/>
+      <c r="B8" s="106"/>
       <c r="C8" s="12" t="s">
         <v>300</v>
       </c>
@@ -6295,16 +6299,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="B3:B5"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="B6:B8"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="B3:B5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6336,43 +6340,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="73" t="s">
         <v>388</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="71" t="s">
+      <c r="D1" s="73" t="s">
         <v>381</v>
       </c>
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="71" t="s">
+      <c r="F1" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="71" t="s">
+      <c r="G1" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="72" t="s">
+      <c r="H1" s="74" t="s">
         <v>380</v>
       </c>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="74"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="76"/>
     </row>
     <row r="2" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
       <c r="H2" s="57" t="s">
         <v>372</v>
       </c>
@@ -6393,7 +6397,7 @@
       <c r="A3" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="107" t="s">
         <v>116</v>
       </c>
       <c r="C3" s="11" t="s">
@@ -6421,7 +6425,7 @@
       <c r="A4" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="B4" s="81"/>
+      <c r="B4" s="84"/>
       <c r="C4" s="11" t="s">
         <v>296</v>
       </c>
@@ -6447,7 +6451,7 @@
       <c r="A5" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="B5" s="81"/>
+      <c r="B5" s="84"/>
       <c r="C5" s="2" t="s">
         <v>294</v>
       </c>
@@ -6473,7 +6477,7 @@
       <c r="A6" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="B6" s="77"/>
+      <c r="B6" s="81"/>
       <c r="C6" s="2" t="s">
         <v>118</v>
       </c>
